--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -306,23 +306,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -514,131 +514,131 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="11.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
+      <c r="A1" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="0" t="n">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="n">
         <v>0.06184138</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="0" t="n">
+      <c r="H1" s="1" t="n">
         <v>6.52</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>418570.33</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>143.49</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>147.2</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <f aca="false">H2-G2</f>
         <v>3.70999999999998</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <f aca="false">E1*E2</f>
         <v>25884.9668342554</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>0.045</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>720</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>720</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <f aca="false">I3*I2</f>
         <v>0.166949999999999</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>720</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>14.22</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>0.006624</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>720</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <f aca="false">I4-I5*2</f>
         <v>0.153701999999999</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B7" s="1" t="n">
@@ -647,20 +647,20 @@
       <c r="C7" s="2" t="n">
         <v>45516</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
         <v>29671.52</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>25860.51</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <f aca="false">E7-D7</f>
         <v>-3811.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B8" s="1" t="n">
@@ -669,20 +669,20 @@
       <c r="C8" s="2" t="n">
         <v>45517</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
         <v>29671.52</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>26146.93</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <f aca="false">E8-D8</f>
         <v>-3524.59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B9" s="1" t="n">
@@ -691,20 +691,20 @@
       <c r="C9" s="2" t="n">
         <v>45519</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>37931.8</v>
-      </c>
-      <c r="E9" s="0" t="n">
+        <v>38658.79</v>
+      </c>
+      <c r="E9" s="1" t="n">
         <v>28964.52</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <f aca="false">E9-D9</f>
-        <v>-8967.28</v>
+        <v>-9694.27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>33.13</v>
       </c>
       <c r="B10" s="1" t="n">
@@ -713,20 +713,20 @@
       <c r="C10" s="2" t="n">
         <v>45530</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>37931.8</v>
-      </c>
-      <c r="E10" s="0" t="n">
+        <v>38658.79</v>
+      </c>
+      <c r="E10" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <f aca="false">E10-D10</f>
-        <v>-7931.8</v>
+        <v>-8658.79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B11" s="1" t="n">
@@ -735,20 +735,20 @@
       <c r="C11" s="2" t="n">
         <v>45532</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>37931.8</v>
-      </c>
-      <c r="E11" s="0" t="n">
+        <v>38658.79</v>
+      </c>
+      <c r="E11" s="1" t="n">
         <v>29573</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <f aca="false">E11-D11</f>
-        <v>-8358.8</v>
+        <v>-9085.79</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>300</v>
       </c>
       <c r="B12" s="1" t="n">
@@ -757,20 +757,20 @@
       <c r="C12" s="2" t="n">
         <v>45542</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>37931.8</v>
-      </c>
-      <c r="E12" s="0" t="n">
+        <v>38658.79</v>
+      </c>
+      <c r="E12" s="1" t="n">
         <v>28972</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <f aca="false">E12-D12</f>
-        <v>-8959.8</v>
+        <v>-9686.79</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B13" s="1" t="n">
@@ -779,20 +779,20 @@
       <c r="C13" s="2" t="n">
         <v>45548</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>37931.8</v>
-      </c>
-      <c r="E13" s="0" t="n">
+        <v>38658.79</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <v>30243.83</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <f aca="false">E13-D13</f>
-        <v>-7687.97</v>
+        <v>-8414.96</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B14" s="1" t="n">
@@ -801,20 +801,20 @@
       <c r="C14" s="2" t="n">
         <v>45555</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>37931.8</v>
-      </c>
-      <c r="E14" s="0" t="n">
+        <v>38658.79</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <v>31046.96</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <f aca="false">E14-D14</f>
-        <v>-6884.84</v>
+        <v>-7611.83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B15" s="1" t="n">
@@ -823,38 +823,38 @@
       <c r="C15" s="2" t="n">
         <v>45558</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>37931.8</v>
-      </c>
-      <c r="E15" s="0" t="n">
+        <v>38658.79</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <v>32182.63</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <f aca="false">E15-D15</f>
-        <v>-5749.17</v>
-      </c>
-      <c r="G15" s="0" t="n">
+        <v>-6476.16</v>
+      </c>
+      <c r="G15" s="1" t="n">
         <v>4564.91</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="1" t="n">
         <f aca="false">G15*H15</f>
         <v>33141.2466</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-4790.5534</v>
-      </c>
-      <c r="K15" s="0" t="n">
+        <v>-5517.5434</v>
+      </c>
+      <c r="K15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-4790.5534</v>
+        <v>-5517.5434</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B16" s="1" t="n">
@@ -863,34 +863,34 @@
       <c r="C16" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>37931.8</v>
-      </c>
-      <c r="E16" s="0" t="n">
+        <v>38658.79</v>
+      </c>
+      <c r="E16" s="1" t="n">
         <v>36761.16</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <f aca="false">E16-D16</f>
-        <v>-1170.64</v>
-      </c>
-      <c r="G16" s="0" t="n">
+        <v>-1897.63</v>
+      </c>
+      <c r="G16" s="1" t="n">
         <v>5236.63</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="1" t="n">
         <f aca="false">H16*G16</f>
         <v>38017.9338</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <f aca="false">I16-D16</f>
-        <v>86.1338000000032</v>
+        <v>-640.856200000002</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B17" s="1" t="n">
@@ -899,20 +899,20 @@
       <c r="C17" s="2" t="n">
         <v>45581</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>37931.8</v>
-      </c>
-      <c r="E17" s="0" t="n">
+        <v>38658.79</v>
+      </c>
+      <c r="E17" s="1" t="n">
         <v>38133.54</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <f aca="false">E17-D17</f>
-        <v>201.739999999998</v>
+        <v>-525.25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>300</v>
       </c>
       <c r="B18" s="1" t="n">
@@ -921,20 +921,20 @@
       <c r="C18" s="2" t="n">
         <v>45624</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>37931.8</v>
-      </c>
-      <c r="E18" s="0" t="n">
+        <v>38658.79</v>
+      </c>
+      <c r="E18" s="1" t="n">
         <v>41866.21</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <f aca="false">E18-D18</f>
-        <v>3934.41</v>
+        <v>3207.42</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B19" s="1" t="n">
@@ -943,28 +943,42 @@
       <c r="C19" s="3" t="n">
         <v>45632</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>37931.8</v>
-      </c>
-      <c r="E19" s="0" t="n">
+        <v>38658.79</v>
+      </c>
+      <c r="E19" s="1" t="n">
         <v>42353.52</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <f aca="false">E19-D19</f>
-        <v>4421.71999999999</v>
+        <v>3694.73</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>300</v>
       </c>
+      <c r="C20" s="3" t="n">
+        <v>45651</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>38658.79</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>42934.09</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <f aca="false">E20-D20</f>
+        <v>4275.3</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>1000</v>
       </c>
       <c r="B21" s="1" t="n">
@@ -972,7 +986,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>3615.39</v>
       </c>
       <c r="B22" s="1" t="n">
@@ -980,7 +994,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>1000</v>
       </c>
       <c r="B23" s="1" t="n">
@@ -988,7 +1002,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>1800</v>
       </c>
       <c r="B24" s="1" t="n">
@@ -996,7 +1010,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>1200</v>
       </c>
       <c r="B25" s="1" t="n">
@@ -1004,7 +1018,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>3000</v>
       </c>
       <c r="B26" s="1" t="n">
@@ -1012,7 +1026,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="B27" s="1" t="n">
@@ -1020,7 +1034,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="B28" s="1" t="n">
@@ -1028,7 +1042,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="B29" s="1" t="n">
@@ -1036,7 +1050,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B30" s="1" t="n">
@@ -1044,7 +1058,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>500</v>
       </c>
       <c r="B31" s="1" t="n">
@@ -1052,7 +1066,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B32" s="1" t="n">
@@ -1060,7 +1074,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>500</v>
       </c>
       <c r="B33" s="1" t="n">
@@ -1068,7 +1082,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B34" s="1" t="n">
@@ -1076,7 +1090,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B35" s="1" t="n">
@@ -1084,7 +1098,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>500</v>
       </c>
       <c r="B36" s="1" t="n">
@@ -1092,7 +1106,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>3000</v>
       </c>
       <c r="B37" s="1" t="n">
@@ -1100,7 +1114,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>3000</v>
       </c>
       <c r="B38" s="1" t="n">
@@ -1258,149 +1272,194 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="0" t="n">
+      <c r="B69" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0" t="n">
+      <c r="B70" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0" t="n">
+      <c r="B71" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="n">
+      <c r="B72" s="1" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0" t="n">
+      <c r="B73" s="1" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="n">
+      <c r="B74" s="1" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0" t="n">
+      <c r="B75" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="n">
+      <c r="B76" s="1" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0" t="n">
+      <c r="B77" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0" t="n">
+      <c r="B78" s="1" t="n">
         <v>98.06</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="n">
+      <c r="B79" s="1" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0" t="n">
+      <c r="B80" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0" t="n">
+      <c r="B81" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81" s="1" t="n">
         <v>2805.89</v>
       </c>
-      <c r="F81" s="0" t="n">
+      <c r="F81" s="1" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E82" s="0" t="n">
+      <c r="B82" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E82" s="1" t="n">
         <v>2793.29</v>
       </c>
-      <c r="F82" s="0" t="n">
+      <c r="F82" s="1" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E83" s="0" t="n">
+      <c r="B83" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E83" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="F83" s="0" t="n">
+      <c r="F83" s="1" t="n">
         <v>7000</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E84" s="0" t="n">
+      <c r="B84" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E84" s="1" t="n">
         <v>1434.72</v>
       </c>
-      <c r="F84" s="0" t="n">
+      <c r="F84" s="1" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="0" t="n">
+      <c r="B85" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85" s="1" t="n">
         <v>721.5</v>
       </c>
-      <c r="F85" s="0" t="n">
+      <c r="F85" s="1" t="n">
         <v>5000</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="0" t="n">
+      <c r="B86" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="E86" s="0" t="n">
+      <c r="E86" s="1" t="n">
         <v>257.87</v>
       </c>
-      <c r="F86" s="0" t="n">
+      <c r="F86" s="1" t="n">
         <v>1800</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="0" t="n">
+      <c r="B87" s="1" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="0" t="n">
+      <c r="B88" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="0" t="n">
+      <c r="B89" s="1" t="n">
         <v>99</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="0" t="n">
-        <v>100</v>
+      <c r="B90" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="0" t="n">
+        <f aca="false">22.3*7.3</f>
+        <v>162.79</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="0" t="n">
+        <f aca="false">-35*7.3</f>
+        <v>-255.5</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="0" t="n">
+        <f aca="false">-5*7.3</f>
+        <v>-36.5</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="0" t="n">
+        <f aca="false">-1*7.3</f>
+        <v>-7.3</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0" t="n">
+        <f aca="false">-5*7.3</f>
+        <v>-36.5</v>
       </c>
     </row>
   </sheetData>
@@ -1425,13 +1484,13 @@
       <selection pane="topLeft" activeCell="L64" activeCellId="0" sqref="L64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.71875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="8.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.22"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3788,10 +3847,10 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.71875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -229,11 +229,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-m\-d\ h:mm"/>
+    <numFmt numFmtId="167" formatCode="yy\年m\月d\日"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-m\-d\ h:mm"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -301,7 +302,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -318,11 +319,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -514,21 +519,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,14 +655,14 @@
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>29671.52</v>
+        <v>303574.52</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>25860.51</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">E7-D7</f>
-        <v>-3811.01</v>
+        <v>-277714.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,14 +677,14 @@
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>29671.52</v>
+        <v>303574.52</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>26146.93</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">E8-D8</f>
-        <v>-3524.59</v>
+        <v>-277427.59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,14 +699,14 @@
       </c>
       <c r="D9" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>38658.79</v>
+        <v>40238.79</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>28964.52</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">E9-D9</f>
-        <v>-9694.27</v>
+        <v>-11274.27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,14 +721,14 @@
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>38658.79</v>
+        <v>40238.79</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>30000</v>
       </c>
       <c r="F10" s="1" t="n">
         <f aca="false">E10-D10</f>
-        <v>-8658.79</v>
+        <v>-10238.79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,14 +743,14 @@
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>38658.79</v>
+        <v>40238.79</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>29573</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">E11-D11</f>
-        <v>-9085.79</v>
+        <v>-10665.79</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,14 +765,14 @@
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>38658.79</v>
+        <v>40238.79</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>28972</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">E12-D12</f>
-        <v>-9686.79</v>
+        <v>-11266.79</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -781,14 +787,14 @@
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>38658.79</v>
+        <v>40238.79</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>30243.83</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">E13-D13</f>
-        <v>-8414.96</v>
+        <v>-9994.96</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -803,14 +809,14 @@
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>38658.79</v>
+        <v>40238.79</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>31046.96</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">E14-D14</f>
-        <v>-7611.83</v>
+        <v>-9191.83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -825,14 +831,14 @@
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>38658.79</v>
+        <v>40238.79</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>32182.63</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">E15-D15</f>
-        <v>-6476.16</v>
+        <v>-8056.16</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>4564.91</v>
@@ -846,11 +852,11 @@
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-5517.5434</v>
+        <v>-7097.5434</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-5517.5434</v>
+        <v>-7097.5434</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,14 +871,14 @@
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>38658.79</v>
+        <v>40238.79</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>36761.16</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">E16-D16</f>
-        <v>-1897.63</v>
+        <v>-3477.63</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>5236.63</v>
@@ -886,7 +892,7 @@
       </c>
       <c r="J16" s="1" t="n">
         <f aca="false">I16-D16</f>
-        <v>-640.856200000002</v>
+        <v>-2220.8562</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -901,14 +907,14 @@
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>38658.79</v>
+        <v>40238.79</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>38133.54</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">E17-D17</f>
-        <v>-525.25</v>
+        <v>-2105.25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -923,14 +929,14 @@
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>38658.79</v>
+        <v>40238.79</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>41866.21</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">E18-D18</f>
-        <v>3207.42</v>
+        <v>1627.42</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -945,14 +951,14 @@
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>38658.79</v>
+        <v>40238.79</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>42353.52</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">E19-D19</f>
-        <v>3694.73</v>
+        <v>2114.73</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -967,14 +973,14 @@
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>38658.79</v>
+        <v>40238.79</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>42934.09</v>
+        <v>44606.52</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">E20-D20</f>
-        <v>4275.3</v>
+        <v>4367.73</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1417,49 +1423,82 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="0" t="n">
+    <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B91" s="1" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="0" t="n">
+    <row r="92" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B92" s="1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="0" t="n">
+    <row r="93" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B93" s="1" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="0" t="n">
+      <c r="B94" s="1" t="n">
         <f aca="false">22.3*7.3</f>
         <v>162.79</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="0" t="n">
+      <c r="B95" s="1" t="n">
         <f aca="false">-35*7.3</f>
         <v>-255.5</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="0" t="n">
+      <c r="B96" s="1" t="n">
         <f aca="false">-5*7.3</f>
         <v>-36.5</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="0" t="n">
+      <c r="B97" s="1" t="n">
         <f aca="false">-1*7.3</f>
         <v>-7.3</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="0" t="n">
+      <c r="B98" s="1" t="n">
         <f aca="false">-5*7.3</f>
         <v>-36.5</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4" t="n">
+        <v>45651</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="4" t="n">
+        <v>45651</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="4" t="n">
+        <v>45651</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -1484,59 +1523,59 @@
       <selection pane="topLeft" activeCell="L64" activeCellId="0" sqref="L64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.22"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="8.72"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="8.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="8.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="8.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1577,7 +1616,7 @@
       <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="5" t="n">
+      <c r="O2" s="6" t="n">
         <v>45487.5465625</v>
       </c>
     </row>
@@ -1618,7 +1657,7 @@
       <c r="N3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="5" t="n">
+      <c r="O3" s="6" t="n">
         <v>45487.6104513889</v>
       </c>
     </row>
@@ -1659,7 +1698,7 @@
       <c r="N4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="5" t="n">
+      <c r="O4" s="6" t="n">
         <v>45487.6174884259</v>
       </c>
     </row>
@@ -1700,7 +1739,7 @@
       <c r="N5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="5" t="n">
+      <c r="O5" s="6" t="n">
         <v>45488.5183796296</v>
       </c>
     </row>
@@ -1741,7 +1780,7 @@
       <c r="N6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="5" t="n">
+      <c r="O6" s="6" t="n">
         <v>45488.633287037</v>
       </c>
     </row>
@@ -1782,7 +1821,7 @@
       <c r="N7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="5" t="n">
+      <c r="O7" s="6" t="n">
         <v>45491.2978356481</v>
       </c>
     </row>
@@ -1823,7 +1862,7 @@
       <c r="N8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="5" t="n">
+      <c r="O8" s="6" t="n">
         <v>45496.0563541667</v>
       </c>
       <c r="Q8" s="1" t="n">
@@ -1867,7 +1906,7 @@
       <c r="N9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="5" t="n">
+      <c r="O9" s="6" t="n">
         <v>45496.1959375</v>
       </c>
     </row>
@@ -1908,7 +1947,7 @@
       <c r="N10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="5" t="n">
+      <c r="O10" s="6" t="n">
         <v>45496.1993518519</v>
       </c>
     </row>
@@ -1949,7 +1988,7 @@
       <c r="N11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="5" t="n">
+      <c r="O11" s="6" t="n">
         <v>45496.2005439815</v>
       </c>
     </row>
@@ -1990,7 +2029,7 @@
       <c r="N12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="5" t="n">
+      <c r="O12" s="6" t="n">
         <v>45496.2248263889</v>
       </c>
     </row>
@@ -2031,7 +2070,7 @@
       <c r="N13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="5" t="n">
+      <c r="O13" s="6" t="n">
         <v>45496.2274884259</v>
       </c>
     </row>
@@ -2072,7 +2111,7 @@
       <c r="N14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="5" t="n">
+      <c r="O14" s="6" t="n">
         <v>45496.3918055556</v>
       </c>
     </row>
@@ -2113,7 +2152,7 @@
       <c r="N15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="5" t="n">
+      <c r="O15" s="6" t="n">
         <v>45496.5092013889</v>
       </c>
       <c r="Q15" s="1" t="n">
@@ -2157,7 +2196,7 @@
       <c r="N16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="5" t="n">
+      <c r="O16" s="6" t="n">
         <v>45496.5769907407</v>
       </c>
     </row>
@@ -2198,7 +2237,7 @@
       <c r="N17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="5" t="n">
+      <c r="O17" s="6" t="n">
         <v>45497.0155671296</v>
       </c>
     </row>
@@ -2239,7 +2278,7 @@
       <c r="N18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="5" t="n">
+      <c r="O18" s="6" t="n">
         <v>45497.0165393519</v>
       </c>
     </row>
@@ -2280,7 +2319,7 @@
       <c r="N19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O19" s="5" t="n">
+      <c r="O19" s="6" t="n">
         <v>45497.0171990741</v>
       </c>
     </row>
@@ -2321,7 +2360,7 @@
       <c r="N20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="5" t="n">
+      <c r="O20" s="6" t="n">
         <v>45497.0186574074</v>
       </c>
       <c r="Q20" s="1" t="n">
@@ -2365,7 +2404,7 @@
       <c r="N21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="5" t="n">
+      <c r="O21" s="6" t="n">
         <v>45497.1127777778</v>
       </c>
     </row>
@@ -2406,7 +2445,7 @@
       <c r="N22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O22" s="5" t="n">
+      <c r="O22" s="6" t="n">
         <v>45497.2090509259</v>
       </c>
     </row>
@@ -2447,7 +2486,7 @@
       <c r="N23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O23" s="5" t="n">
+      <c r="O23" s="6" t="n">
         <v>45497.2121759259</v>
       </c>
     </row>
@@ -2488,7 +2527,7 @@
       <c r="N24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O24" s="5" t="n">
+      <c r="O24" s="6" t="n">
         <v>45497.2759027778</v>
       </c>
       <c r="Q24" s="1" t="n">
@@ -2532,7 +2571,7 @@
       <c r="N25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O25" s="5" t="n">
+      <c r="O25" s="6" t="n">
         <v>45497.3439583333</v>
       </c>
     </row>
@@ -2573,7 +2612,7 @@
       <c r="N26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="5" t="n">
+      <c r="O26" s="6" t="n">
         <v>45497.377962963</v>
       </c>
     </row>
@@ -2614,7 +2653,7 @@
       <c r="N27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O27" s="5" t="n">
+      <c r="O27" s="6" t="n">
         <v>45497.3847800926</v>
       </c>
       <c r="Q27" s="1" t="n">
@@ -2658,7 +2697,7 @@
       <c r="N28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="5" t="n">
+      <c r="O28" s="6" t="n">
         <v>45497.4968865741</v>
       </c>
     </row>
@@ -2699,7 +2738,7 @@
       <c r="N29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O29" s="5" t="n">
+      <c r="O29" s="6" t="n">
         <v>45497.502037037</v>
       </c>
       <c r="Q29" s="1" t="n">
@@ -2743,7 +2782,7 @@
       <c r="N30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O30" s="5" t="n">
+      <c r="O30" s="6" t="n">
         <v>45498.0432060185</v>
       </c>
     </row>
@@ -2784,7 +2823,7 @@
       <c r="N31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O31" s="5" t="n">
+      <c r="O31" s="6" t="n">
         <v>45498.0474652778</v>
       </c>
     </row>
@@ -2825,7 +2864,7 @@
       <c r="N32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O32" s="5" t="n">
+      <c r="O32" s="6" t="n">
         <v>45498.2356481481</v>
       </c>
     </row>
@@ -2866,7 +2905,7 @@
       <c r="N33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O33" s="5" t="n">
+      <c r="O33" s="6" t="n">
         <v>45498.2371296296</v>
       </c>
     </row>
@@ -2907,7 +2946,7 @@
       <c r="N34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O34" s="5" t="n">
+      <c r="O34" s="6" t="n">
         <v>45498.3136689815</v>
       </c>
     </row>
@@ -2948,7 +2987,7 @@
       <c r="N35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O35" s="5" t="n">
+      <c r="O35" s="6" t="n">
         <v>45499.1188657407</v>
       </c>
     </row>
@@ -2989,7 +3028,7 @@
       <c r="N36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O36" s="5" t="n">
+      <c r="O36" s="6" t="n">
         <v>45500.5775694444</v>
       </c>
       <c r="Q36" s="1" t="n">
@@ -3033,7 +3072,7 @@
       <c r="N37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="5" t="n">
+      <c r="O37" s="6" t="n">
         <v>45500.5832638889</v>
       </c>
       <c r="Q37" s="1" t="n">
@@ -3077,7 +3116,7 @@
       <c r="N38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O38" s="5" t="n">
+      <c r="O38" s="6" t="n">
         <v>45501.1205902778</v>
       </c>
     </row>
@@ -3118,7 +3157,7 @@
       <c r="N39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O39" s="5" t="n">
+      <c r="O39" s="6" t="n">
         <v>45502.0353819444</v>
       </c>
       <c r="Q39" s="1" t="n">
@@ -3162,7 +3201,7 @@
       <c r="N40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O40" s="5" t="n">
+      <c r="O40" s="6" t="n">
         <v>45502.1117824074</v>
       </c>
     </row>
@@ -3203,7 +3242,7 @@
       <c r="N41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O41" s="5" t="n">
+      <c r="O41" s="6" t="n">
         <v>45502.3928356481</v>
       </c>
     </row>
@@ -3244,7 +3283,7 @@
       <c r="N42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O42" s="5" t="n">
+      <c r="O42" s="6" t="n">
         <v>45504.0733217593</v>
       </c>
     </row>
@@ -3285,7 +3324,7 @@
       <c r="N43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O43" s="5" t="n">
+      <c r="O43" s="6" t="n">
         <v>45504.0757060185</v>
       </c>
     </row>
@@ -3326,7 +3365,7 @@
       <c r="N44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O44" s="5" t="n">
+      <c r="O44" s="6" t="n">
         <v>45504.0773148148</v>
       </c>
     </row>
@@ -3367,7 +3406,7 @@
       <c r="N45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O45" s="5" t="n">
+      <c r="O45" s="6" t="n">
         <v>45504.2478240741</v>
       </c>
     </row>
@@ -3408,7 +3447,7 @@
       <c r="N46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O46" s="5" t="n">
+      <c r="O46" s="6" t="n">
         <v>45504.2495949074</v>
       </c>
     </row>
@@ -3449,7 +3488,7 @@
       <c r="N47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O47" s="5" t="n">
+      <c r="O47" s="6" t="n">
         <v>45505.2937384259</v>
       </c>
     </row>
@@ -3490,7 +3529,7 @@
       <c r="N48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O48" s="5" t="n">
+      <c r="O48" s="6" t="n">
         <v>45506.2853125</v>
       </c>
     </row>
@@ -3531,7 +3570,7 @@
       <c r="N49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O49" s="5" t="n">
+      <c r="O49" s="6" t="n">
         <v>45511.3414583333</v>
       </c>
     </row>
@@ -3572,7 +3611,7 @@
       <c r="N50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O50" s="5" t="n">
+      <c r="O50" s="6" t="n">
         <v>45515.2238773148</v>
       </c>
     </row>
@@ -3613,7 +3652,7 @@
       <c r="N51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O51" s="5" t="n">
+      <c r="O51" s="6" t="n">
         <v>45517.9828240741</v>
       </c>
     </row>
@@ -3847,10 +3886,10 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="8.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3937,7 +3976,7 @@
       <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="5" t="n">
+      <c r="O2" s="6" t="n">
         <v>45487.5465625</v>
       </c>
     </row>
@@ -3978,7 +4017,7 @@
       <c r="N3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="5" t="n">
+      <c r="O3" s="6" t="n">
         <v>45487.6104513889</v>
       </c>
     </row>
@@ -4019,7 +4058,7 @@
       <c r="N4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="5" t="n">
+      <c r="O4" s="6" t="n">
         <v>45487.6174884259</v>
       </c>
     </row>
@@ -4060,7 +4099,7 @@
       <c r="N5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="5" t="n">
+      <c r="O5" s="6" t="n">
         <v>45488.5183796296</v>
       </c>
     </row>
@@ -4101,7 +4140,7 @@
       <c r="N6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="5" t="n">
+      <c r="O6" s="6" t="n">
         <v>45488.633287037</v>
       </c>
     </row>
@@ -4142,7 +4181,7 @@
       <c r="N7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="5" t="n">
+      <c r="O7" s="6" t="n">
         <v>45491.2978356481</v>
       </c>
     </row>
@@ -4183,7 +4222,7 @@
       <c r="N8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="5" t="n">
+      <c r="O8" s="6" t="n">
         <v>45496.1959375</v>
       </c>
     </row>
@@ -4224,7 +4263,7 @@
       <c r="N9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="5" t="n">
+      <c r="O9" s="6" t="n">
         <v>45496.1993518519</v>
       </c>
     </row>
@@ -4265,7 +4304,7 @@
       <c r="N10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="5" t="n">
+      <c r="O10" s="6" t="n">
         <v>45496.2005439815</v>
       </c>
     </row>
@@ -4306,7 +4345,7 @@
       <c r="N11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="5" t="n">
+      <c r="O11" s="6" t="n">
         <v>45496.2248263889</v>
       </c>
     </row>
@@ -4347,7 +4386,7 @@
       <c r="N12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="5" t="n">
+      <c r="O12" s="6" t="n">
         <v>45496.2274884259</v>
       </c>
     </row>
@@ -4388,7 +4427,7 @@
       <c r="N13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="5" t="n">
+      <c r="O13" s="6" t="n">
         <v>45496.3918055556</v>
       </c>
     </row>
@@ -4429,7 +4468,7 @@
       <c r="N14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="5" t="n">
+      <c r="O14" s="6" t="n">
         <v>45496.5769907407</v>
       </c>
     </row>
@@ -4470,7 +4509,7 @@
       <c r="N15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="5" t="n">
+      <c r="O15" s="6" t="n">
         <v>45497.0155671296</v>
       </c>
     </row>
@@ -4511,7 +4550,7 @@
       <c r="N16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="5" t="n">
+      <c r="O16" s="6" t="n">
         <v>45497.0165393519</v>
       </c>
     </row>
@@ -4552,7 +4591,7 @@
       <c r="N17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="5" t="n">
+      <c r="O17" s="6" t="n">
         <v>45497.0171990741</v>
       </c>
     </row>
@@ -4593,7 +4632,7 @@
       <c r="N18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="5" t="n">
+      <c r="O18" s="6" t="n">
         <v>45497.1127777778</v>
       </c>
     </row>
@@ -4634,7 +4673,7 @@
       <c r="N19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O19" s="5" t="n">
+      <c r="O19" s="6" t="n">
         <v>45497.2090509259</v>
       </c>
     </row>
@@ -4675,7 +4714,7 @@
       <c r="N20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O20" s="5" t="n">
+      <c r="O20" s="6" t="n">
         <v>45497.2121759259</v>
       </c>
     </row>
@@ -4716,7 +4755,7 @@
       <c r="N21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="5" t="n">
+      <c r="O21" s="6" t="n">
         <v>45497.3439583333</v>
       </c>
     </row>
@@ -4757,7 +4796,7 @@
       <c r="N22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O22" s="5" t="n">
+      <c r="O22" s="6" t="n">
         <v>45497.377962963</v>
       </c>
     </row>
@@ -4798,7 +4837,7 @@
       <c r="N23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O23" s="5" t="n">
+      <c r="O23" s="6" t="n">
         <v>45497.4968865741</v>
       </c>
     </row>
@@ -4839,7 +4878,7 @@
       <c r="N24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O24" s="5" t="n">
+      <c r="O24" s="6" t="n">
         <v>45498.0432060185</v>
       </c>
     </row>
@@ -4880,7 +4919,7 @@
       <c r="N25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O25" s="5" t="n">
+      <c r="O25" s="6" t="n">
         <v>45498.0474652778</v>
       </c>
     </row>
@@ -4921,7 +4960,7 @@
       <c r="N26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="5" t="n">
+      <c r="O26" s="6" t="n">
         <v>45498.2356481481</v>
       </c>
     </row>
@@ -4962,7 +5001,7 @@
       <c r="N27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O27" s="5" t="n">
+      <c r="O27" s="6" t="n">
         <v>45498.2371296296</v>
       </c>
     </row>
@@ -5003,7 +5042,7 @@
       <c r="N28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="5" t="n">
+      <c r="O28" s="6" t="n">
         <v>45498.3136689815</v>
       </c>
     </row>
@@ -5044,7 +5083,7 @@
       <c r="N29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O29" s="5" t="n">
+      <c r="O29" s="6" t="n">
         <v>45499.1188657407</v>
       </c>
     </row>
@@ -5085,7 +5124,7 @@
       <c r="N30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O30" s="5" t="n">
+      <c r="O30" s="6" t="n">
         <v>45501.1205902778</v>
       </c>
     </row>
@@ -5126,7 +5165,7 @@
       <c r="N31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O31" s="5" t="n">
+      <c r="O31" s="6" t="n">
         <v>45502.1117824074</v>
       </c>
     </row>
@@ -5167,7 +5206,7 @@
       <c r="N32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O32" s="5" t="n">
+      <c r="O32" s="6" t="n">
         <v>45502.3928356481</v>
       </c>
     </row>
@@ -5208,7 +5247,7 @@
       <c r="N33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O33" s="5" t="n">
+      <c r="O33" s="6" t="n">
         <v>45504.0733217593</v>
       </c>
     </row>
@@ -5249,7 +5288,7 @@
       <c r="N34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O34" s="5" t="n">
+      <c r="O34" s="6" t="n">
         <v>45504.0773148148</v>
       </c>
     </row>
@@ -5290,7 +5329,7 @@
       <c r="N35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O35" s="5" t="n">
+      <c r="O35" s="6" t="n">
         <v>45504.2478240741</v>
       </c>
     </row>
@@ -5331,7 +5370,7 @@
       <c r="N36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O36" s="5" t="n">
+      <c r="O36" s="6" t="n">
         <v>45504.2495949074</v>
       </c>
     </row>
@@ -5372,7 +5411,7 @@
       <c r="N37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O37" s="5" t="n">
+      <c r="O37" s="6" t="n">
         <v>45505.2937384259</v>
       </c>
     </row>
@@ -5413,7 +5452,7 @@
       <c r="N38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O38" s="5" t="n">
+      <c r="O38" s="6" t="n">
         <v>45506.2853125</v>
       </c>
     </row>
@@ -5454,7 +5493,7 @@
       <c r="N39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O39" s="5" t="n">
+      <c r="O39" s="6" t="n">
         <v>45511.3414583333</v>
       </c>
     </row>
@@ -5495,7 +5534,7 @@
       <c r="N40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O40" s="5" t="n">
+      <c r="O40" s="6" t="n">
         <v>45515.2238773148</v>
       </c>
     </row>
@@ -5536,7 +5575,7 @@
       <c r="N41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O41" s="5" t="n">
+      <c r="O41" s="6" t="n">
         <v>45517.9828240741</v>
       </c>
     </row>
@@ -5577,7 +5616,7 @@
       <c r="N42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O42" s="5" t="n">
+      <c r="O42" s="6" t="n">
         <v>45522.1146643519</v>
       </c>
     </row>
@@ -5618,7 +5657,7 @@
       <c r="N43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O43" s="5" t="n">
+      <c r="O43" s="6" t="n">
         <v>45524.0928935185</v>
       </c>
     </row>
@@ -5659,7 +5698,7 @@
       <c r="N44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O44" s="5" t="n">
+      <c r="O44" s="6" t="n">
         <v>45524.0944444444</v>
       </c>
     </row>
@@ -5700,7 +5739,7 @@
       <c r="N45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O45" s="5" t="n">
+      <c r="O45" s="6" t="n">
         <v>45524.096412037</v>
       </c>
     </row>
@@ -5741,7 +5780,7 @@
       <c r="N46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O46" s="5" t="n">
+      <c r="O46" s="6" t="n">
         <v>45529.0077546296</v>
       </c>
     </row>
@@ -5782,7 +5821,7 @@
       <c r="N47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O47" s="5" t="n">
+      <c r="O47" s="6" t="n">
         <v>45530.1879861111</v>
       </c>
     </row>
@@ -5823,7 +5862,7 @@
       <c r="N48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O48" s="5" t="n">
+      <c r="O48" s="6" t="n">
         <v>45531.2145833333</v>
       </c>
     </row>
@@ -5864,7 +5903,7 @@
       <c r="N49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O49" s="5" t="n">
+      <c r="O49" s="6" t="n">
         <v>45532.2722337963</v>
       </c>
     </row>
@@ -5905,7 +5944,7 @@
       <c r="N50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O50" s="5" t="n">
+      <c r="O50" s="6" t="n">
         <v>45533.2443518518</v>
       </c>
     </row>
@@ -5946,7 +5985,7 @@
       <c r="N51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O51" s="5" t="n">
+      <c r="O51" s="6" t="n">
         <v>45534.2372685185</v>
       </c>
     </row>
@@ -5987,7 +6026,7 @@
       <c r="N52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O52" s="5" t="n">
+      <c r="O52" s="6" t="n">
         <v>45535.4447800926</v>
       </c>
     </row>
@@ -6028,7 +6067,7 @@
       <c r="N53" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O53" s="5" t="n">
+      <c r="O53" s="6" t="n">
         <v>45536.5289351852</v>
       </c>
     </row>
@@ -6069,7 +6108,7 @@
       <c r="N54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O54" s="5" t="n">
+      <c r="O54" s="6" t="n">
         <v>45537.36375</v>
       </c>
     </row>
@@ -6110,7 +6149,7 @@
       <c r="N55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O55" s="5" t="n">
+      <c r="O55" s="6" t="n">
         <v>45541.500150463</v>
       </c>
     </row>
@@ -6151,7 +6190,7 @@
       <c r="N56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O56" s="5" t="n">
+      <c r="O56" s="6" t="n">
         <v>45544.0918402778</v>
       </c>
     </row>
@@ -6192,7 +6231,7 @@
       <c r="N57" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O57" s="5" t="n">
+      <c r="O57" s="6" t="n">
         <v>45545.1949652778</v>
       </c>
     </row>
@@ -6233,7 +6272,7 @@
       <c r="N58" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O58" s="5" t="n">
+      <c r="O58" s="6" t="n">
         <v>45545.9927199074</v>
       </c>
     </row>
@@ -6274,7 +6313,7 @@
       <c r="N59" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O59" s="5" t="n">
+      <c r="O59" s="6" t="n">
         <v>45546.5744675926</v>
       </c>
     </row>
@@ -6315,7 +6354,7 @@
       <c r="N60" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O60" s="5" t="n">
+      <c r="O60" s="6" t="n">
         <v>45553.5758449074</v>
       </c>
     </row>
@@ -6356,7 +6395,7 @@
       <c r="N61" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O61" s="5" t="n">
+      <c r="O61" s="6" t="n">
         <v>45555.1149305556</v>
       </c>
     </row>
@@ -6397,7 +6436,7 @@
       <c r="N62" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O62" s="5" t="n">
+      <c r="O62" s="6" t="n">
         <v>45555.1383101852</v>
       </c>
     </row>
@@ -6438,7 +6477,7 @@
       <c r="N63" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O63" s="5" t="n">
+      <c r="O63" s="6" t="n">
         <v>45555.6092361111</v>
       </c>
     </row>
@@ -6479,7 +6518,7 @@
       <c r="N64" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O64" s="5" t="n">
+      <c r="O64" s="6" t="n">
         <v>45555.9724537037</v>
       </c>
     </row>
@@ -6520,7 +6559,7 @@
       <c r="N65" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O65" s="5" t="n">
+      <c r="O65" s="6" t="n">
         <v>45556.2465625</v>
       </c>
     </row>
@@ -6561,7 +6600,7 @@
       <c r="N66" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O66" s="5" t="n">
+      <c r="O66" s="6" t="n">
         <v>45556.3639699074</v>
       </c>
     </row>
@@ -6602,7 +6641,7 @@
       <c r="N67" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O67" s="5" t="n">
+      <c r="O67" s="6" t="n">
         <v>45556.9686458333</v>
       </c>
     </row>

--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -319,7 +319,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -521,20 +521,20 @@
   </sheetPr>
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D96" activeCellId="0" sqref="D96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="10.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,14 +655,14 @@
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>303574.52</v>
+        <v>349224.52</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>25860.51</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">E7-D7</f>
-        <v>-277714.01</v>
+        <v>-323364.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,14 +677,14 @@
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>303574.52</v>
+        <v>349224.52</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>26146.93</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">E8-D8</f>
-        <v>-277427.59</v>
+        <v>-323077.59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1447,7 +1447,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4" t="n">
+        <v>45650</v>
+      </c>
       <c r="B94" s="1" t="n">
         <f aca="false">22.3*7.3</f>
         <v>162.79</v>
@@ -1481,7 +1484,7 @@
       <c r="A99" s="4" t="n">
         <v>45651</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99" s="1" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1489,7 +1492,7 @@
       <c r="A100" s="4" t="n">
         <v>45651</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100" s="1" t="n">
         <v>880</v>
       </c>
     </row>
@@ -1497,7 +1500,7 @@
       <c r="A101" s="4" t="n">
         <v>45651</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B101" s="1" t="n">
         <v>600</v>
       </c>
     </row>
@@ -1523,13 +1526,13 @@
       <selection pane="topLeft" activeCell="L64" activeCellId="0" sqref="L64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="8.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.02"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="8.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="8.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="8.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.82"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="8.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.05"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="8.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3886,10 +3889,10 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="8.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="8.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -519,22 +519,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D96" activeCellId="0" sqref="D96"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,14 +655,14 @@
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>349224.52</v>
+        <v>486180.52</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>25860.51</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">E7-D7</f>
-        <v>-323364.01</v>
+        <v>-460320.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,14 +677,14 @@
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>349224.52</v>
+        <v>486180.52</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>26146.93</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">E8-D8</f>
-        <v>-323077.59</v>
+        <v>-460033.59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,14 +699,14 @@
       </c>
       <c r="D9" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40238.79</v>
+        <v>40398.79</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>28964.52</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">E9-D9</f>
-        <v>-11274.27</v>
+        <v>-11434.27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -721,14 +721,14 @@
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40238.79</v>
+        <v>40398.79</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>30000</v>
       </c>
       <c r="F10" s="1" t="n">
         <f aca="false">E10-D10</f>
-        <v>-10238.79</v>
+        <v>-10398.79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -743,14 +743,14 @@
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40238.79</v>
+        <v>40398.79</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>29573</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">E11-D11</f>
-        <v>-10665.79</v>
+        <v>-10825.79</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,14 +765,14 @@
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40238.79</v>
+        <v>40398.79</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>28972</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">E12-D12</f>
-        <v>-11266.79</v>
+        <v>-11426.79</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,14 +787,14 @@
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40238.79</v>
+        <v>40398.79</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>30243.83</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">E13-D13</f>
-        <v>-9994.96</v>
+        <v>-10154.96</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,14 +809,14 @@
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40238.79</v>
+        <v>40398.79</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>31046.96</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">E14-D14</f>
-        <v>-9191.83</v>
+        <v>-9351.83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,14 +831,14 @@
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40238.79</v>
+        <v>40398.79</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>32182.63</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">E15-D15</f>
-        <v>-8056.16</v>
+        <v>-8216.16</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>4564.91</v>
@@ -852,11 +852,11 @@
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-7097.5434</v>
+        <v>-7257.5434</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-7097.5434</v>
+        <v>-7257.5434</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,14 +871,14 @@
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40238.79</v>
+        <v>40398.79</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>36761.16</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">E16-D16</f>
-        <v>-3477.63</v>
+        <v>-3637.63</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>5236.63</v>
@@ -892,7 +892,7 @@
       </c>
       <c r="J16" s="1" t="n">
         <f aca="false">I16-D16</f>
-        <v>-2220.8562</v>
+        <v>-2380.8562</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,14 +907,14 @@
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40238.79</v>
+        <v>40398.79</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>38133.54</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">E17-D17</f>
-        <v>-2105.25</v>
+        <v>-2265.25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -929,14 +929,14 @@
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40238.79</v>
+        <v>40398.79</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>41866.21</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">E18-D18</f>
-        <v>1627.42</v>
+        <v>1467.42</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -951,14 +951,14 @@
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40238.79</v>
+        <v>40398.79</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>42353.52</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">E19-D19</f>
-        <v>2114.73</v>
+        <v>1954.73</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -973,14 +973,14 @@
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40238.79</v>
+        <v>40398.79</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>44606.52</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">E20-D20</f>
-        <v>4367.73</v>
+        <v>4207.73</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -989,6 +989,20 @@
       </c>
       <c r="B21" s="1" t="n">
         <v>90</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>45652</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>40398.79</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>44717.5</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <f aca="false">E21-D21</f>
+        <v>4318.71</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1502,6 +1516,30 @@
       </c>
       <c r="B101" s="1" t="n">
         <v>600</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="4" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="4" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="4" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1526,13 +1564,13 @@
       <selection pane="topLeft" activeCell="L64" activeCellId="0" sqref="L64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="8.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.82"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="8.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.05"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="8.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="8.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="8.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="8.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3889,10 +3927,10 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="8.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.69"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="8.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -229,12 +229,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="167" formatCode="yy\年m\月d\日"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-m\-d\ h:mm"/>
+    <numFmt numFmtId="168" formatCode="yy\年m\月d\日"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-m\-d\ h:mm"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -302,7 +303,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -323,11 +324,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -519,22 +524,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.171875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,14 +660,14 @@
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>486180.52</v>
+        <v>577486.52</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>25860.51</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">E7-D7</f>
-        <v>-460320.01</v>
+        <v>-551626.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,14 +682,14 @@
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>486180.52</v>
+        <v>577486.52</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>26146.93</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">E8-D8</f>
-        <v>-460033.59</v>
+        <v>-551339.59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,14 +704,14 @@
       </c>
       <c r="D9" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40398.79</v>
+        <v>40998.79</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>28964.52</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">E9-D9</f>
-        <v>-11434.27</v>
+        <v>-12034.27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -721,14 +726,14 @@
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40398.79</v>
+        <v>40998.79</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>30000</v>
       </c>
       <c r="F10" s="1" t="n">
         <f aca="false">E10-D10</f>
-        <v>-10398.79</v>
+        <v>-10998.79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -743,14 +748,14 @@
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40398.79</v>
+        <v>40998.79</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>29573</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">E11-D11</f>
-        <v>-10825.79</v>
+        <v>-11425.79</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,14 +770,14 @@
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40398.79</v>
+        <v>40998.79</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>28972</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">E12-D12</f>
-        <v>-11426.79</v>
+        <v>-12026.79</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,14 +792,14 @@
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40398.79</v>
+        <v>40998.79</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>30243.83</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">E13-D13</f>
-        <v>-10154.96</v>
+        <v>-10754.96</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,14 +814,14 @@
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40398.79</v>
+        <v>40998.79</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>31046.96</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">E14-D14</f>
-        <v>-9351.83</v>
+        <v>-9951.83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,14 +836,14 @@
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40398.79</v>
+        <v>40998.79</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>32182.63</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">E15-D15</f>
-        <v>-8216.16</v>
+        <v>-8816.16</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>4564.91</v>
@@ -852,11 +857,11 @@
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-7257.5434</v>
+        <v>-7857.5434</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-7257.5434</v>
+        <v>-7857.5434</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,14 +876,14 @@
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40398.79</v>
+        <v>40998.79</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>36761.16</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">E16-D16</f>
-        <v>-3637.63</v>
+        <v>-4237.63</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>5236.63</v>
@@ -892,7 +897,7 @@
       </c>
       <c r="J16" s="1" t="n">
         <f aca="false">I16-D16</f>
-        <v>-2380.8562</v>
+        <v>-2980.8562</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,14 +912,14 @@
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40398.79</v>
+        <v>40998.79</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>38133.54</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">E17-D17</f>
-        <v>-2265.25</v>
+        <v>-2865.25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -929,14 +934,14 @@
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40398.79</v>
+        <v>40998.79</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>41866.21</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">E18-D18</f>
-        <v>1467.42</v>
+        <v>867.419999999998</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -951,14 +956,14 @@
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40398.79</v>
+        <v>40998.79</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>42353.52</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">E19-D19</f>
-        <v>1954.73</v>
+        <v>1354.73</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -973,14 +978,14 @@
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40398.79</v>
+        <v>40998.79</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>44606.52</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">E20-D20</f>
-        <v>4207.73</v>
+        <v>3607.73</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -995,22 +1000,36 @@
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40398.79</v>
+        <v>40998.79</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>44717.5</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">E21-D21</f>
-        <v>4318.71</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3718.71</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>3615.39</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>100</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>45653</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>40998.79</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>44960.44</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <f aca="false">E22-D22</f>
+        <v>3961.65</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1438,7 +1457,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="n">
+      <c r="A91" s="5" t="n">
         <v>45650</v>
       </c>
       <c r="B91" s="1" t="n">
@@ -1446,7 +1465,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="n">
+      <c r="A92" s="5" t="n">
         <v>45650</v>
       </c>
       <c r="B92" s="1" t="n">
@@ -1454,7 +1473,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="n">
+      <c r="A93" s="5" t="n">
         <v>45650</v>
       </c>
       <c r="B93" s="1" t="n">
@@ -1462,7 +1481,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="n">
+      <c r="A94" s="5" t="n">
         <v>45650</v>
       </c>
       <c r="B94" s="1" t="n">
@@ -1495,7 +1514,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="n">
+      <c r="A99" s="5" t="n">
         <v>45651</v>
       </c>
       <c r="B99" s="1" t="n">
@@ -1503,7 +1522,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4" t="n">
+      <c r="A100" s="5" t="n">
         <v>45651</v>
       </c>
       <c r="B100" s="1" t="n">
@@ -1511,7 +1530,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="n">
+      <c r="A101" s="5" t="n">
         <v>45651</v>
       </c>
       <c r="B101" s="1" t="n">
@@ -1519,27 +1538,43 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="n">
+      <c r="A102" s="5" t="n">
         <v>45652</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B102" s="1" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="n">
+      <c r="A103" s="5" t="n">
         <v>45652</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B103" s="1" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="n">
+      <c r="A104" s="5" t="n">
         <v>45652</v>
       </c>
-      <c r="B104" s="0" t="n">
-        <v>100</v>
+      <c r="B104" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -1564,59 +1599,59 @@
       <selection pane="topLeft" activeCell="L64" activeCellId="0" sqref="L64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.1796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="8.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="8.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="8.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="8.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="8.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="8.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1657,7 +1692,7 @@
       <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="7" t="n">
         <v>45487.5465625</v>
       </c>
     </row>
@@ -1698,7 +1733,7 @@
       <c r="N3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="6" t="n">
+      <c r="O3" s="7" t="n">
         <v>45487.6104513889</v>
       </c>
     </row>
@@ -1739,7 +1774,7 @@
       <c r="N4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="6" t="n">
+      <c r="O4" s="7" t="n">
         <v>45487.6174884259</v>
       </c>
     </row>
@@ -1780,7 +1815,7 @@
       <c r="N5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>45488.5183796296</v>
       </c>
     </row>
@@ -1821,7 +1856,7 @@
       <c r="N6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="6" t="n">
+      <c r="O6" s="7" t="n">
         <v>45488.633287037</v>
       </c>
     </row>
@@ -1862,7 +1897,7 @@
       <c r="N7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="6" t="n">
+      <c r="O7" s="7" t="n">
         <v>45491.2978356481</v>
       </c>
     </row>
@@ -1903,7 +1938,7 @@
       <c r="N8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="6" t="n">
+      <c r="O8" s="7" t="n">
         <v>45496.0563541667</v>
       </c>
       <c r="Q8" s="1" t="n">
@@ -1947,7 +1982,7 @@
       <c r="N9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="O9" s="7" t="n">
         <v>45496.1959375</v>
       </c>
     </row>
@@ -1988,7 +2023,7 @@
       <c r="N10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="6" t="n">
+      <c r="O10" s="7" t="n">
         <v>45496.1993518519</v>
       </c>
     </row>
@@ -2029,7 +2064,7 @@
       <c r="N11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="6" t="n">
+      <c r="O11" s="7" t="n">
         <v>45496.2005439815</v>
       </c>
     </row>
@@ -2070,7 +2105,7 @@
       <c r="N12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="6" t="n">
+      <c r="O12" s="7" t="n">
         <v>45496.2248263889</v>
       </c>
     </row>
@@ -2111,7 +2146,7 @@
       <c r="N13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="6" t="n">
+      <c r="O13" s="7" t="n">
         <v>45496.2274884259</v>
       </c>
     </row>
@@ -2152,7 +2187,7 @@
       <c r="N14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="6" t="n">
+      <c r="O14" s="7" t="n">
         <v>45496.3918055556</v>
       </c>
     </row>
@@ -2193,7 +2228,7 @@
       <c r="N15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="6" t="n">
+      <c r="O15" s="7" t="n">
         <v>45496.5092013889</v>
       </c>
       <c r="Q15" s="1" t="n">
@@ -2237,7 +2272,7 @@
       <c r="N16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="6" t="n">
+      <c r="O16" s="7" t="n">
         <v>45496.5769907407</v>
       </c>
     </row>
@@ -2278,7 +2313,7 @@
       <c r="N17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="6" t="n">
+      <c r="O17" s="7" t="n">
         <v>45497.0155671296</v>
       </c>
     </row>
@@ -2319,7 +2354,7 @@
       <c r="N18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="6" t="n">
+      <c r="O18" s="7" t="n">
         <v>45497.0165393519</v>
       </c>
     </row>
@@ -2360,7 +2395,7 @@
       <c r="N19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O19" s="6" t="n">
+      <c r="O19" s="7" t="n">
         <v>45497.0171990741</v>
       </c>
     </row>
@@ -2401,7 +2436,7 @@
       <c r="N20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="6" t="n">
+      <c r="O20" s="7" t="n">
         <v>45497.0186574074</v>
       </c>
       <c r="Q20" s="1" t="n">
@@ -2445,7 +2480,7 @@
       <c r="N21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="6" t="n">
+      <c r="O21" s="7" t="n">
         <v>45497.1127777778</v>
       </c>
     </row>
@@ -2486,7 +2521,7 @@
       <c r="N22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O22" s="6" t="n">
+      <c r="O22" s="7" t="n">
         <v>45497.2090509259</v>
       </c>
     </row>
@@ -2527,7 +2562,7 @@
       <c r="N23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O23" s="6" t="n">
+      <c r="O23" s="7" t="n">
         <v>45497.2121759259</v>
       </c>
     </row>
@@ -2568,7 +2603,7 @@
       <c r="N24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O24" s="6" t="n">
+      <c r="O24" s="7" t="n">
         <v>45497.2759027778</v>
       </c>
       <c r="Q24" s="1" t="n">
@@ -2612,7 +2647,7 @@
       <c r="N25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O25" s="6" t="n">
+      <c r="O25" s="7" t="n">
         <v>45497.3439583333</v>
       </c>
     </row>
@@ -2653,7 +2688,7 @@
       <c r="N26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="6" t="n">
+      <c r="O26" s="7" t="n">
         <v>45497.377962963</v>
       </c>
     </row>
@@ -2694,7 +2729,7 @@
       <c r="N27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O27" s="6" t="n">
+      <c r="O27" s="7" t="n">
         <v>45497.3847800926</v>
       </c>
       <c r="Q27" s="1" t="n">
@@ -2738,7 +2773,7 @@
       <c r="N28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="6" t="n">
+      <c r="O28" s="7" t="n">
         <v>45497.4968865741</v>
       </c>
     </row>
@@ -2779,7 +2814,7 @@
       <c r="N29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O29" s="6" t="n">
+      <c r="O29" s="7" t="n">
         <v>45497.502037037</v>
       </c>
       <c r="Q29" s="1" t="n">
@@ -2823,7 +2858,7 @@
       <c r="N30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O30" s="6" t="n">
+      <c r="O30" s="7" t="n">
         <v>45498.0432060185</v>
       </c>
     </row>
@@ -2864,7 +2899,7 @@
       <c r="N31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O31" s="6" t="n">
+      <c r="O31" s="7" t="n">
         <v>45498.0474652778</v>
       </c>
     </row>
@@ -2905,7 +2940,7 @@
       <c r="N32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O32" s="6" t="n">
+      <c r="O32" s="7" t="n">
         <v>45498.2356481481</v>
       </c>
     </row>
@@ -2946,7 +2981,7 @@
       <c r="N33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O33" s="6" t="n">
+      <c r="O33" s="7" t="n">
         <v>45498.2371296296</v>
       </c>
     </row>
@@ -2987,7 +3022,7 @@
       <c r="N34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O34" s="6" t="n">
+      <c r="O34" s="7" t="n">
         <v>45498.3136689815</v>
       </c>
     </row>
@@ -3028,7 +3063,7 @@
       <c r="N35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O35" s="6" t="n">
+      <c r="O35" s="7" t="n">
         <v>45499.1188657407</v>
       </c>
     </row>
@@ -3069,7 +3104,7 @@
       <c r="N36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O36" s="6" t="n">
+      <c r="O36" s="7" t="n">
         <v>45500.5775694444</v>
       </c>
       <c r="Q36" s="1" t="n">
@@ -3113,7 +3148,7 @@
       <c r="N37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="6" t="n">
+      <c r="O37" s="7" t="n">
         <v>45500.5832638889</v>
       </c>
       <c r="Q37" s="1" t="n">
@@ -3157,7 +3192,7 @@
       <c r="N38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O38" s="6" t="n">
+      <c r="O38" s="7" t="n">
         <v>45501.1205902778</v>
       </c>
     </row>
@@ -3198,7 +3233,7 @@
       <c r="N39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O39" s="6" t="n">
+      <c r="O39" s="7" t="n">
         <v>45502.0353819444</v>
       </c>
       <c r="Q39" s="1" t="n">
@@ -3242,7 +3277,7 @@
       <c r="N40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O40" s="6" t="n">
+      <c r="O40" s="7" t="n">
         <v>45502.1117824074</v>
       </c>
     </row>
@@ -3283,7 +3318,7 @@
       <c r="N41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O41" s="6" t="n">
+      <c r="O41" s="7" t="n">
         <v>45502.3928356481</v>
       </c>
     </row>
@@ -3324,7 +3359,7 @@
       <c r="N42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O42" s="6" t="n">
+      <c r="O42" s="7" t="n">
         <v>45504.0733217593</v>
       </c>
     </row>
@@ -3365,7 +3400,7 @@
       <c r="N43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O43" s="6" t="n">
+      <c r="O43" s="7" t="n">
         <v>45504.0757060185</v>
       </c>
     </row>
@@ -3406,7 +3441,7 @@
       <c r="N44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O44" s="6" t="n">
+      <c r="O44" s="7" t="n">
         <v>45504.0773148148</v>
       </c>
     </row>
@@ -3447,7 +3482,7 @@
       <c r="N45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O45" s="6" t="n">
+      <c r="O45" s="7" t="n">
         <v>45504.2478240741</v>
       </c>
     </row>
@@ -3488,7 +3523,7 @@
       <c r="N46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O46" s="6" t="n">
+      <c r="O46" s="7" t="n">
         <v>45504.2495949074</v>
       </c>
     </row>
@@ -3529,7 +3564,7 @@
       <c r="N47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O47" s="6" t="n">
+      <c r="O47" s="7" t="n">
         <v>45505.2937384259</v>
       </c>
     </row>
@@ -3570,7 +3605,7 @@
       <c r="N48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O48" s="6" t="n">
+      <c r="O48" s="7" t="n">
         <v>45506.2853125</v>
       </c>
     </row>
@@ -3611,7 +3646,7 @@
       <c r="N49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O49" s="6" t="n">
+      <c r="O49" s="7" t="n">
         <v>45511.3414583333</v>
       </c>
     </row>
@@ -3652,7 +3687,7 @@
       <c r="N50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O50" s="6" t="n">
+      <c r="O50" s="7" t="n">
         <v>45515.2238773148</v>
       </c>
     </row>
@@ -3693,7 +3728,7 @@
       <c r="N51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O51" s="6" t="n">
+      <c r="O51" s="7" t="n">
         <v>45517.9828240741</v>
       </c>
     </row>
@@ -3927,10 +3962,10 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.1796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="8.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.49"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="8.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4017,7 +4052,7 @@
       <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="7" t="n">
         <v>45487.5465625</v>
       </c>
     </row>
@@ -4058,7 +4093,7 @@
       <c r="N3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="6" t="n">
+      <c r="O3" s="7" t="n">
         <v>45487.6104513889</v>
       </c>
     </row>
@@ -4099,7 +4134,7 @@
       <c r="N4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="6" t="n">
+      <c r="O4" s="7" t="n">
         <v>45487.6174884259</v>
       </c>
     </row>
@@ -4140,7 +4175,7 @@
       <c r="N5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>45488.5183796296</v>
       </c>
     </row>
@@ -4181,7 +4216,7 @@
       <c r="N6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="6" t="n">
+      <c r="O6" s="7" t="n">
         <v>45488.633287037</v>
       </c>
     </row>
@@ -4222,7 +4257,7 @@
       <c r="N7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="6" t="n">
+      <c r="O7" s="7" t="n">
         <v>45491.2978356481</v>
       </c>
     </row>
@@ -4263,7 +4298,7 @@
       <c r="N8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="6" t="n">
+      <c r="O8" s="7" t="n">
         <v>45496.1959375</v>
       </c>
     </row>
@@ -4304,7 +4339,7 @@
       <c r="N9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="O9" s="7" t="n">
         <v>45496.1993518519</v>
       </c>
     </row>
@@ -4345,7 +4380,7 @@
       <c r="N10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="6" t="n">
+      <c r="O10" s="7" t="n">
         <v>45496.2005439815</v>
       </c>
     </row>
@@ -4386,7 +4421,7 @@
       <c r="N11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="6" t="n">
+      <c r="O11" s="7" t="n">
         <v>45496.2248263889</v>
       </c>
     </row>
@@ -4427,7 +4462,7 @@
       <c r="N12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="6" t="n">
+      <c r="O12" s="7" t="n">
         <v>45496.2274884259</v>
       </c>
     </row>
@@ -4468,7 +4503,7 @@
       <c r="N13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="6" t="n">
+      <c r="O13" s="7" t="n">
         <v>45496.3918055556</v>
       </c>
     </row>
@@ -4509,7 +4544,7 @@
       <c r="N14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="6" t="n">
+      <c r="O14" s="7" t="n">
         <v>45496.5769907407</v>
       </c>
     </row>
@@ -4550,7 +4585,7 @@
       <c r="N15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="6" t="n">
+      <c r="O15" s="7" t="n">
         <v>45497.0155671296</v>
       </c>
     </row>
@@ -4591,7 +4626,7 @@
       <c r="N16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="6" t="n">
+      <c r="O16" s="7" t="n">
         <v>45497.0165393519</v>
       </c>
     </row>
@@ -4632,7 +4667,7 @@
       <c r="N17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="6" t="n">
+      <c r="O17" s="7" t="n">
         <v>45497.0171990741</v>
       </c>
     </row>
@@ -4673,7 +4708,7 @@
       <c r="N18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="6" t="n">
+      <c r="O18" s="7" t="n">
         <v>45497.1127777778</v>
       </c>
     </row>
@@ -4714,7 +4749,7 @@
       <c r="N19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O19" s="6" t="n">
+      <c r="O19" s="7" t="n">
         <v>45497.2090509259</v>
       </c>
     </row>
@@ -4755,7 +4790,7 @@
       <c r="N20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O20" s="6" t="n">
+      <c r="O20" s="7" t="n">
         <v>45497.2121759259</v>
       </c>
     </row>
@@ -4796,7 +4831,7 @@
       <c r="N21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="6" t="n">
+      <c r="O21" s="7" t="n">
         <v>45497.3439583333</v>
       </c>
     </row>
@@ -4837,7 +4872,7 @@
       <c r="N22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O22" s="6" t="n">
+      <c r="O22" s="7" t="n">
         <v>45497.377962963</v>
       </c>
     </row>
@@ -4878,7 +4913,7 @@
       <c r="N23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O23" s="6" t="n">
+      <c r="O23" s="7" t="n">
         <v>45497.4968865741</v>
       </c>
     </row>
@@ -4919,7 +4954,7 @@
       <c r="N24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O24" s="6" t="n">
+      <c r="O24" s="7" t="n">
         <v>45498.0432060185</v>
       </c>
     </row>
@@ -4960,7 +4995,7 @@
       <c r="N25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O25" s="6" t="n">
+      <c r="O25" s="7" t="n">
         <v>45498.0474652778</v>
       </c>
     </row>
@@ -5001,7 +5036,7 @@
       <c r="N26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="6" t="n">
+      <c r="O26" s="7" t="n">
         <v>45498.2356481481</v>
       </c>
     </row>
@@ -5042,7 +5077,7 @@
       <c r="N27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O27" s="6" t="n">
+      <c r="O27" s="7" t="n">
         <v>45498.2371296296</v>
       </c>
     </row>
@@ -5083,7 +5118,7 @@
       <c r="N28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="6" t="n">
+      <c r="O28" s="7" t="n">
         <v>45498.3136689815</v>
       </c>
     </row>
@@ -5124,7 +5159,7 @@
       <c r="N29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O29" s="6" t="n">
+      <c r="O29" s="7" t="n">
         <v>45499.1188657407</v>
       </c>
     </row>
@@ -5165,7 +5200,7 @@
       <c r="N30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O30" s="6" t="n">
+      <c r="O30" s="7" t="n">
         <v>45501.1205902778</v>
       </c>
     </row>
@@ -5206,7 +5241,7 @@
       <c r="N31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O31" s="6" t="n">
+      <c r="O31" s="7" t="n">
         <v>45502.1117824074</v>
       </c>
     </row>
@@ -5247,7 +5282,7 @@
       <c r="N32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O32" s="6" t="n">
+      <c r="O32" s="7" t="n">
         <v>45502.3928356481</v>
       </c>
     </row>
@@ -5288,7 +5323,7 @@
       <c r="N33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O33" s="6" t="n">
+      <c r="O33" s="7" t="n">
         <v>45504.0733217593</v>
       </c>
     </row>
@@ -5329,7 +5364,7 @@
       <c r="N34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O34" s="6" t="n">
+      <c r="O34" s="7" t="n">
         <v>45504.0773148148</v>
       </c>
     </row>
@@ -5370,7 +5405,7 @@
       <c r="N35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O35" s="6" t="n">
+      <c r="O35" s="7" t="n">
         <v>45504.2478240741</v>
       </c>
     </row>
@@ -5411,7 +5446,7 @@
       <c r="N36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O36" s="6" t="n">
+      <c r="O36" s="7" t="n">
         <v>45504.2495949074</v>
       </c>
     </row>
@@ -5452,7 +5487,7 @@
       <c r="N37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O37" s="6" t="n">
+      <c r="O37" s="7" t="n">
         <v>45505.2937384259</v>
       </c>
     </row>
@@ -5493,7 +5528,7 @@
       <c r="N38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O38" s="6" t="n">
+      <c r="O38" s="7" t="n">
         <v>45506.2853125</v>
       </c>
     </row>
@@ -5534,7 +5569,7 @@
       <c r="N39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O39" s="6" t="n">
+      <c r="O39" s="7" t="n">
         <v>45511.3414583333</v>
       </c>
     </row>
@@ -5575,7 +5610,7 @@
       <c r="N40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O40" s="6" t="n">
+      <c r="O40" s="7" t="n">
         <v>45515.2238773148</v>
       </c>
     </row>
@@ -5616,7 +5651,7 @@
       <c r="N41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O41" s="6" t="n">
+      <c r="O41" s="7" t="n">
         <v>45517.9828240741</v>
       </c>
     </row>
@@ -5657,7 +5692,7 @@
       <c r="N42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O42" s="6" t="n">
+      <c r="O42" s="7" t="n">
         <v>45522.1146643519</v>
       </c>
     </row>
@@ -5698,7 +5733,7 @@
       <c r="N43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O43" s="6" t="n">
+      <c r="O43" s="7" t="n">
         <v>45524.0928935185</v>
       </c>
     </row>
@@ -5739,7 +5774,7 @@
       <c r="N44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O44" s="6" t="n">
+      <c r="O44" s="7" t="n">
         <v>45524.0944444444</v>
       </c>
     </row>
@@ -5780,7 +5815,7 @@
       <c r="N45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O45" s="6" t="n">
+      <c r="O45" s="7" t="n">
         <v>45524.096412037</v>
       </c>
     </row>
@@ -5821,7 +5856,7 @@
       <c r="N46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O46" s="6" t="n">
+      <c r="O46" s="7" t="n">
         <v>45529.0077546296</v>
       </c>
     </row>
@@ -5862,7 +5897,7 @@
       <c r="N47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O47" s="6" t="n">
+      <c r="O47" s="7" t="n">
         <v>45530.1879861111</v>
       </c>
     </row>
@@ -5903,7 +5938,7 @@
       <c r="N48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O48" s="6" t="n">
+      <c r="O48" s="7" t="n">
         <v>45531.2145833333</v>
       </c>
     </row>
@@ -5944,7 +5979,7 @@
       <c r="N49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O49" s="6" t="n">
+      <c r="O49" s="7" t="n">
         <v>45532.2722337963</v>
       </c>
     </row>
@@ -5985,7 +6020,7 @@
       <c r="N50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O50" s="6" t="n">
+      <c r="O50" s="7" t="n">
         <v>45533.2443518518</v>
       </c>
     </row>
@@ -6026,7 +6061,7 @@
       <c r="N51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O51" s="6" t="n">
+      <c r="O51" s="7" t="n">
         <v>45534.2372685185</v>
       </c>
     </row>
@@ -6067,7 +6102,7 @@
       <c r="N52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O52" s="6" t="n">
+      <c r="O52" s="7" t="n">
         <v>45535.4447800926</v>
       </c>
     </row>
@@ -6108,7 +6143,7 @@
       <c r="N53" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O53" s="6" t="n">
+      <c r="O53" s="7" t="n">
         <v>45536.5289351852</v>
       </c>
     </row>
@@ -6149,7 +6184,7 @@
       <c r="N54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O54" s="6" t="n">
+      <c r="O54" s="7" t="n">
         <v>45537.36375</v>
       </c>
     </row>
@@ -6190,7 +6225,7 @@
       <c r="N55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O55" s="6" t="n">
+      <c r="O55" s="7" t="n">
         <v>45541.500150463</v>
       </c>
     </row>
@@ -6231,7 +6266,7 @@
       <c r="N56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O56" s="6" t="n">
+      <c r="O56" s="7" t="n">
         <v>45544.0918402778</v>
       </c>
     </row>
@@ -6272,7 +6307,7 @@
       <c r="N57" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O57" s="6" t="n">
+      <c r="O57" s="7" t="n">
         <v>45545.1949652778</v>
       </c>
     </row>
@@ -6313,7 +6348,7 @@
       <c r="N58" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O58" s="6" t="n">
+      <c r="O58" s="7" t="n">
         <v>45545.9927199074</v>
       </c>
     </row>
@@ -6354,7 +6389,7 @@
       <c r="N59" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O59" s="6" t="n">
+      <c r="O59" s="7" t="n">
         <v>45546.5744675926</v>
       </c>
     </row>
@@ -6395,7 +6430,7 @@
       <c r="N60" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O60" s="6" t="n">
+      <c r="O60" s="7" t="n">
         <v>45553.5758449074</v>
       </c>
     </row>
@@ -6436,7 +6471,7 @@
       <c r="N61" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O61" s="6" t="n">
+      <c r="O61" s="7" t="n">
         <v>45555.1149305556</v>
       </c>
     </row>
@@ -6477,7 +6512,7 @@
       <c r="N62" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O62" s="6" t="n">
+      <c r="O62" s="7" t="n">
         <v>45555.1383101852</v>
       </c>
     </row>
@@ -6518,7 +6553,7 @@
       <c r="N63" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O63" s="6" t="n">
+      <c r="O63" s="7" t="n">
         <v>45555.6092361111</v>
       </c>
     </row>
@@ -6559,7 +6594,7 @@
       <c r="N64" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O64" s="6" t="n">
+      <c r="O64" s="7" t="n">
         <v>45555.9724537037</v>
       </c>
     </row>
@@ -6600,7 +6635,7 @@
       <c r="N65" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O65" s="6" t="n">
+      <c r="O65" s="7" t="n">
         <v>45556.2465625</v>
       </c>
     </row>
@@ -6641,7 +6676,7 @@
       <c r="N66" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O66" s="6" t="n">
+      <c r="O66" s="7" t="n">
         <v>45556.3639699074</v>
       </c>
     </row>
@@ -6682,7 +6717,7 @@
       <c r="N67" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O67" s="6" t="n">
+      <c r="O67" s="7" t="n">
         <v>45556.9686458333</v>
       </c>
     </row>

--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -524,22 +524,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.171875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.04296875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="10.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -660,14 +660,14 @@
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>577486.52</v>
+        <v>668794.52</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>25860.51</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">E7-D7</f>
-        <v>-551626.01</v>
+        <v>-642934.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,14 +682,14 @@
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>577486.52</v>
+        <v>668794.52</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>26146.93</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">E8-D8</f>
-        <v>-551339.59</v>
+        <v>-642647.59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,14 +704,14 @@
       </c>
       <c r="D9" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40998.79</v>
+        <v>41025.79</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>28964.52</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">E9-D9</f>
-        <v>-12034.27</v>
+        <v>-12061.27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,14 +726,14 @@
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40998.79</v>
+        <v>41025.79</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>30000</v>
       </c>
       <c r="F10" s="1" t="n">
         <f aca="false">E10-D10</f>
-        <v>-10998.79</v>
+        <v>-11025.79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -748,14 +748,14 @@
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40998.79</v>
+        <v>41025.79</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>29573</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">E11-D11</f>
-        <v>-11425.79</v>
+        <v>-11452.79</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,14 +770,14 @@
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40998.79</v>
+        <v>41025.79</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>28972</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">E12-D12</f>
-        <v>-12026.79</v>
+        <v>-12053.79</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,14 +792,14 @@
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40998.79</v>
+        <v>41025.79</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>30243.83</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">E13-D13</f>
-        <v>-10754.96</v>
+        <v>-10781.96</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -814,14 +814,14 @@
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40998.79</v>
+        <v>41025.79</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>31046.96</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">E14-D14</f>
-        <v>-9951.83</v>
+        <v>-9978.83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -836,14 +836,14 @@
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40998.79</v>
+        <v>41025.79</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>32182.63</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">E15-D15</f>
-        <v>-8816.16</v>
+        <v>-8843.16</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>4564.91</v>
@@ -857,11 +857,11 @@
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-7857.5434</v>
+        <v>-7884.5434</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-7857.5434</v>
+        <v>-7884.5434</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -876,14 +876,14 @@
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40998.79</v>
+        <v>41025.79</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>36761.16</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">E16-D16</f>
-        <v>-4237.63</v>
+        <v>-4264.63</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>5236.63</v>
@@ -897,7 +897,7 @@
       </c>
       <c r="J16" s="1" t="n">
         <f aca="false">I16-D16</f>
-        <v>-2980.8562</v>
+        <v>-3007.8562</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,14 +912,14 @@
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40998.79</v>
+        <v>41025.79</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>38133.54</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">E17-D17</f>
-        <v>-2865.25</v>
+        <v>-2892.25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,14 +934,14 @@
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40998.79</v>
+        <v>41025.79</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>41866.21</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">E18-D18</f>
-        <v>867.419999999998</v>
+        <v>840.419999999998</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -956,14 +956,14 @@
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40998.79</v>
+        <v>41025.79</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>42353.52</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">E19-D19</f>
-        <v>1354.73</v>
+        <v>1327.73</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -978,14 +978,14 @@
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40998.79</v>
+        <v>41025.79</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>44606.52</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">E20-D20</f>
-        <v>3607.73</v>
+        <v>3580.73</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1000,14 +1000,14 @@
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40998.79</v>
+        <v>41025.79</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>44717.5</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">E21-D21</f>
-        <v>3718.71</v>
+        <v>3691.71</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1022,31 +1022,46 @@
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>40998.79</v>
+        <v>41025.79</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>44960.44</v>
       </c>
       <c r="F22" s="1" t="n">
         <f aca="false">E22-D22</f>
-        <v>3961.65</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3934.65</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>1000</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="4" t="n">
+        <v>45654</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>41025.79</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>44747.8</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <f aca="false">E23-D23</f>
+        <v>3722.01</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>1800</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>3615.39</v>
       </c>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
@@ -1457,7 +1472,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5" t="n">
+      <c r="A91" s="4" t="n">
         <v>45650</v>
       </c>
       <c r="B91" s="1" t="n">
@@ -1465,7 +1480,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5" t="n">
+      <c r="A92" s="4" t="n">
         <v>45650</v>
       </c>
       <c r="B92" s="1" t="n">
@@ -1473,7 +1488,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5" t="n">
+      <c r="A93" s="4" t="n">
         <v>45650</v>
       </c>
       <c r="B93" s="1" t="n">
@@ -1481,7 +1496,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="n">
+      <c r="A94" s="4" t="n">
         <v>45650</v>
       </c>
       <c r="B94" s="1" t="n">
@@ -1514,7 +1529,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="5" t="n">
+      <c r="A99" s="4" t="n">
         <v>45651</v>
       </c>
       <c r="B99" s="1" t="n">
@@ -1522,7 +1537,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5" t="n">
+      <c r="A100" s="4" t="n">
         <v>45651</v>
       </c>
       <c r="B100" s="1" t="n">
@@ -1530,7 +1545,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="5" t="n">
+      <c r="A101" s="4" t="n">
         <v>45651</v>
       </c>
       <c r="B101" s="1" t="n">
@@ -1538,7 +1553,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5" t="n">
+      <c r="A102" s="4" t="n">
         <v>45652</v>
       </c>
       <c r="B102" s="1" t="n">
@@ -1546,7 +1561,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5" t="n">
+      <c r="A103" s="4" t="n">
         <v>45652</v>
       </c>
       <c r="B103" s="1" t="n">
@@ -1554,7 +1569,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5" t="n">
+      <c r="A104" s="4" t="n">
         <v>45652</v>
       </c>
       <c r="B104" s="1" t="n">
@@ -1565,7 +1580,7 @@
       <c r="A105" s="4" t="n">
         <v>45653</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B105" s="1" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1573,8 +1588,25 @@
       <c r="A106" s="4" t="n">
         <v>45653</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B106" s="1" t="n">
         <v>500</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="5" t="n">
+        <v>45654</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <f aca="false">-10*7.3</f>
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="5" t="n">
+        <v>45654</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1599,13 +1631,13 @@
       <selection pane="topLeft" activeCell="L64" activeCellId="0" sqref="L64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.05078125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="8.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="8.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="8.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="8.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.26"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="8.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="8.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3962,10 +3994,10 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.05078125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.49"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="8.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="8.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -229,13 +229,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="167" formatCode="yy\年m\月d\日"/>
-    <numFmt numFmtId="168" formatCode="yy\年m\月d\日"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-m\-d\ h:mm"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-m\-d\ h:mm"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -303,7 +302,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -324,15 +323,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -524,22 +519,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.04296875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.9140625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="10.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="10.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -660,14 +655,14 @@
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>668794.52</v>
+        <v>760102.52</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>25860.51</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">E7-D7</f>
-        <v>-642934.01</v>
+        <v>-734242.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,14 +677,14 @@
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>668794.52</v>
+        <v>760102.52</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>26146.93</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">E8-D8</f>
-        <v>-642647.59</v>
+        <v>-733955.59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,14 +699,14 @@
       </c>
       <c r="D9" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41025.79</v>
+        <v>41155.79</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>28964.52</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">E9-D9</f>
-        <v>-12061.27</v>
+        <v>-12191.27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,14 +721,14 @@
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41025.79</v>
+        <v>41155.79</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>30000</v>
       </c>
       <c r="F10" s="1" t="n">
         <f aca="false">E10-D10</f>
-        <v>-11025.79</v>
+        <v>-11155.79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -748,14 +743,14 @@
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41025.79</v>
+        <v>41155.79</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>29573</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">E11-D11</f>
-        <v>-11452.79</v>
+        <v>-11582.79</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,14 +765,14 @@
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41025.79</v>
+        <v>41155.79</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>28972</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">E12-D12</f>
-        <v>-12053.79</v>
+        <v>-12183.79</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,14 +787,14 @@
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41025.79</v>
+        <v>41155.79</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>30243.83</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">E13-D13</f>
-        <v>-10781.96</v>
+        <v>-10911.96</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -814,14 +809,14 @@
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41025.79</v>
+        <v>41155.79</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>31046.96</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">E14-D14</f>
-        <v>-9978.83</v>
+        <v>-10108.83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -836,14 +831,14 @@
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41025.79</v>
+        <v>41155.79</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>32182.63</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">E15-D15</f>
-        <v>-8843.16</v>
+        <v>-8973.16</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>4564.91</v>
@@ -857,11 +852,11 @@
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-7884.5434</v>
+        <v>-8014.5434</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-7884.5434</v>
+        <v>-8014.5434</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -876,14 +871,14 @@
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41025.79</v>
+        <v>41155.79</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>36761.16</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">E16-D16</f>
-        <v>-4264.63</v>
+        <v>-4394.63</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>5236.63</v>
@@ -897,7 +892,7 @@
       </c>
       <c r="J16" s="1" t="n">
         <f aca="false">I16-D16</f>
-        <v>-3007.8562</v>
+        <v>-3137.8562</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,14 +907,14 @@
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41025.79</v>
+        <v>41155.79</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>38133.54</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">E17-D17</f>
-        <v>-2892.25</v>
+        <v>-3022.25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,14 +929,14 @@
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41025.79</v>
+        <v>41155.79</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>41866.21</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">E18-D18</f>
-        <v>840.419999999998</v>
+        <v>710.419999999998</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -956,14 +951,14 @@
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41025.79</v>
+        <v>41155.79</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>42353.52</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">E19-D19</f>
-        <v>1327.73</v>
+        <v>1197.73</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -978,14 +973,14 @@
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41025.79</v>
+        <v>41155.79</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>44606.52</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">E20-D20</f>
-        <v>3580.73</v>
+        <v>3450.73</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1000,14 +995,14 @@
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41025.79</v>
+        <v>41155.79</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>44717.5</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">E21-D21</f>
-        <v>3691.71</v>
+        <v>3561.71</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1022,14 +1017,14 @@
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41025.79</v>
+        <v>41155.79</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>44960.44</v>
       </c>
       <c r="F22" s="1" t="n">
         <f aca="false">E22-D22</f>
-        <v>3934.65</v>
+        <v>3804.65</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1044,17 +1039,17 @@
       </c>
       <c r="D23" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41025.79</v>
+        <v>41155.79</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>44747.8</v>
+        <v>44920.45</v>
       </c>
       <c r="F23" s="1" t="n">
         <f aca="false">E23-D23</f>
-        <v>3722.01</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3764.66</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>1800</v>
       </c>
@@ -1063,7 +1058,7 @@
       </c>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>1200</v>
       </c>
@@ -1071,7 +1066,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>3000</v>
       </c>
@@ -1079,7 +1074,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>2000</v>
       </c>
@@ -1087,7 +1082,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>2000</v>
       </c>
@@ -1095,7 +1090,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>2000</v>
       </c>
@@ -1103,7 +1098,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>100</v>
       </c>
@@ -1111,7 +1106,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>500</v>
       </c>
@@ -1119,7 +1114,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>200</v>
       </c>
@@ -1127,7 +1122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>500</v>
       </c>
@@ -1135,7 +1130,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>200</v>
       </c>
@@ -1143,7 +1138,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>100</v>
       </c>
@@ -1151,7 +1146,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>500</v>
       </c>
@@ -1159,7 +1154,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>3000</v>
       </c>
@@ -1167,7 +1162,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>3000</v>
       </c>
@@ -1175,217 +1170,217 @@
         <v>500</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="n">
         <v>3000</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1" t="n">
         <v>3000</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="n">
         <v>188</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="1" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="n">
         <v>88</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="1" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="1" t="n">
         <v>98.06</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="1" t="n">
         <v>99</v>
       </c>
@@ -1396,7 +1391,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="1" t="n">
         <v>100</v>
       </c>
@@ -1407,7 +1402,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="1" t="n">
         <v>100</v>
       </c>
@@ -1418,7 +1413,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1" t="n">
         <v>100</v>
       </c>
@@ -1429,7 +1424,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="n">
         <v>2000</v>
       </c>
@@ -1440,7 +1435,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="1" t="n">
         <v>500</v>
       </c>
@@ -1451,22 +1446,22 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="1" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="1" t="n">
         <v>100</v>
       </c>
@@ -1593,19 +1588,35 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="5" t="n">
+      <c r="A107" s="4" t="n">
         <v>45654</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B107" s="1" t="n">
         <f aca="false">-10*7.3</f>
         <v>-73</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="5" t="n">
+      <c r="A108" s="4" t="n">
         <v>45654</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B108" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="4" t="n">
+        <v>45654</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4" t="n">
+        <v>45654</v>
+      </c>
+      <c r="B110" s="0" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1631,59 +1642,59 @@
       <selection pane="topLeft" activeCell="L64" activeCellId="0" sqref="L64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.05078125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.921875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="8.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.26"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="8.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="8.05"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="7.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.08"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="7.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.03"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="7.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1724,7 +1735,7 @@
       <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="7" t="n">
+      <c r="O2" s="6" t="n">
         <v>45487.5465625</v>
       </c>
     </row>
@@ -1765,7 +1776,7 @@
       <c r="N3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="7" t="n">
+      <c r="O3" s="6" t="n">
         <v>45487.6104513889</v>
       </c>
     </row>
@@ -1806,7 +1817,7 @@
       <c r="N4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="7" t="n">
+      <c r="O4" s="6" t="n">
         <v>45487.6174884259</v>
       </c>
     </row>
@@ -1847,7 +1858,7 @@
       <c r="N5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>45488.5183796296</v>
       </c>
     </row>
@@ -1888,7 +1899,7 @@
       <c r="N6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="7" t="n">
+      <c r="O6" s="6" t="n">
         <v>45488.633287037</v>
       </c>
     </row>
@@ -1929,7 +1940,7 @@
       <c r="N7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="7" t="n">
+      <c r="O7" s="6" t="n">
         <v>45491.2978356481</v>
       </c>
     </row>
@@ -1970,7 +1981,7 @@
       <c r="N8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="7" t="n">
+      <c r="O8" s="6" t="n">
         <v>45496.0563541667</v>
       </c>
       <c r="Q8" s="1" t="n">
@@ -2014,7 +2025,7 @@
       <c r="N9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>45496.1959375</v>
       </c>
     </row>
@@ -2055,7 +2066,7 @@
       <c r="N10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="7" t="n">
+      <c r="O10" s="6" t="n">
         <v>45496.1993518519</v>
       </c>
     </row>
@@ -2096,7 +2107,7 @@
       <c r="N11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="7" t="n">
+      <c r="O11" s="6" t="n">
         <v>45496.2005439815</v>
       </c>
     </row>
@@ -2137,7 +2148,7 @@
       <c r="N12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="7" t="n">
+      <c r="O12" s="6" t="n">
         <v>45496.2248263889</v>
       </c>
     </row>
@@ -2178,7 +2189,7 @@
       <c r="N13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="7" t="n">
+      <c r="O13" s="6" t="n">
         <v>45496.2274884259</v>
       </c>
     </row>
@@ -2219,7 +2230,7 @@
       <c r="N14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="7" t="n">
+      <c r="O14" s="6" t="n">
         <v>45496.3918055556</v>
       </c>
     </row>
@@ -2260,7 +2271,7 @@
       <c r="N15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="7" t="n">
+      <c r="O15" s="6" t="n">
         <v>45496.5092013889</v>
       </c>
       <c r="Q15" s="1" t="n">
@@ -2304,7 +2315,7 @@
       <c r="N16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="7" t="n">
+      <c r="O16" s="6" t="n">
         <v>45496.5769907407</v>
       </c>
     </row>
@@ -2345,7 +2356,7 @@
       <c r="N17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="7" t="n">
+      <c r="O17" s="6" t="n">
         <v>45497.0155671296</v>
       </c>
     </row>
@@ -2386,7 +2397,7 @@
       <c r="N18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="7" t="n">
+      <c r="O18" s="6" t="n">
         <v>45497.0165393519</v>
       </c>
     </row>
@@ -2427,7 +2438,7 @@
       <c r="N19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O19" s="7" t="n">
+      <c r="O19" s="6" t="n">
         <v>45497.0171990741</v>
       </c>
     </row>
@@ -2468,7 +2479,7 @@
       <c r="N20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="7" t="n">
+      <c r="O20" s="6" t="n">
         <v>45497.0186574074</v>
       </c>
       <c r="Q20" s="1" t="n">
@@ -2512,7 +2523,7 @@
       <c r="N21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="7" t="n">
+      <c r="O21" s="6" t="n">
         <v>45497.1127777778</v>
       </c>
     </row>
@@ -2553,7 +2564,7 @@
       <c r="N22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O22" s="7" t="n">
+      <c r="O22" s="6" t="n">
         <v>45497.2090509259</v>
       </c>
     </row>
@@ -2594,7 +2605,7 @@
       <c r="N23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O23" s="7" t="n">
+      <c r="O23" s="6" t="n">
         <v>45497.2121759259</v>
       </c>
     </row>
@@ -2635,7 +2646,7 @@
       <c r="N24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O24" s="7" t="n">
+      <c r="O24" s="6" t="n">
         <v>45497.2759027778</v>
       </c>
       <c r="Q24" s="1" t="n">
@@ -2679,7 +2690,7 @@
       <c r="N25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O25" s="7" t="n">
+      <c r="O25" s="6" t="n">
         <v>45497.3439583333</v>
       </c>
     </row>
@@ -2720,7 +2731,7 @@
       <c r="N26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="7" t="n">
+      <c r="O26" s="6" t="n">
         <v>45497.377962963</v>
       </c>
     </row>
@@ -2761,7 +2772,7 @@
       <c r="N27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O27" s="7" t="n">
+      <c r="O27" s="6" t="n">
         <v>45497.3847800926</v>
       </c>
       <c r="Q27" s="1" t="n">
@@ -2805,7 +2816,7 @@
       <c r="N28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="7" t="n">
+      <c r="O28" s="6" t="n">
         <v>45497.4968865741</v>
       </c>
     </row>
@@ -2846,7 +2857,7 @@
       <c r="N29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O29" s="7" t="n">
+      <c r="O29" s="6" t="n">
         <v>45497.502037037</v>
       </c>
       <c r="Q29" s="1" t="n">
@@ -2890,7 +2901,7 @@
       <c r="N30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O30" s="7" t="n">
+      <c r="O30" s="6" t="n">
         <v>45498.0432060185</v>
       </c>
     </row>
@@ -2931,7 +2942,7 @@
       <c r="N31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O31" s="7" t="n">
+      <c r="O31" s="6" t="n">
         <v>45498.0474652778</v>
       </c>
     </row>
@@ -2972,7 +2983,7 @@
       <c r="N32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O32" s="7" t="n">
+      <c r="O32" s="6" t="n">
         <v>45498.2356481481</v>
       </c>
     </row>
@@ -3013,7 +3024,7 @@
       <c r="N33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O33" s="7" t="n">
+      <c r="O33" s="6" t="n">
         <v>45498.2371296296</v>
       </c>
     </row>
@@ -3054,7 +3065,7 @@
       <c r="N34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O34" s="7" t="n">
+      <c r="O34" s="6" t="n">
         <v>45498.3136689815</v>
       </c>
     </row>
@@ -3095,7 +3106,7 @@
       <c r="N35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O35" s="7" t="n">
+      <c r="O35" s="6" t="n">
         <v>45499.1188657407</v>
       </c>
     </row>
@@ -3136,7 +3147,7 @@
       <c r="N36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O36" s="7" t="n">
+      <c r="O36" s="6" t="n">
         <v>45500.5775694444</v>
       </c>
       <c r="Q36" s="1" t="n">
@@ -3180,7 +3191,7 @@
       <c r="N37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="7" t="n">
+      <c r="O37" s="6" t="n">
         <v>45500.5832638889</v>
       </c>
       <c r="Q37" s="1" t="n">
@@ -3224,7 +3235,7 @@
       <c r="N38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O38" s="7" t="n">
+      <c r="O38" s="6" t="n">
         <v>45501.1205902778</v>
       </c>
     </row>
@@ -3265,7 +3276,7 @@
       <c r="N39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O39" s="7" t="n">
+      <c r="O39" s="6" t="n">
         <v>45502.0353819444</v>
       </c>
       <c r="Q39" s="1" t="n">
@@ -3309,7 +3320,7 @@
       <c r="N40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O40" s="7" t="n">
+      <c r="O40" s="6" t="n">
         <v>45502.1117824074</v>
       </c>
     </row>
@@ -3350,7 +3361,7 @@
       <c r="N41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O41" s="7" t="n">
+      <c r="O41" s="6" t="n">
         <v>45502.3928356481</v>
       </c>
     </row>
@@ -3391,7 +3402,7 @@
       <c r="N42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O42" s="7" t="n">
+      <c r="O42" s="6" t="n">
         <v>45504.0733217593</v>
       </c>
     </row>
@@ -3432,7 +3443,7 @@
       <c r="N43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O43" s="7" t="n">
+      <c r="O43" s="6" t="n">
         <v>45504.0757060185</v>
       </c>
     </row>
@@ -3473,7 +3484,7 @@
       <c r="N44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O44" s="7" t="n">
+      <c r="O44" s="6" t="n">
         <v>45504.0773148148</v>
       </c>
     </row>
@@ -3514,7 +3525,7 @@
       <c r="N45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O45" s="7" t="n">
+      <c r="O45" s="6" t="n">
         <v>45504.2478240741</v>
       </c>
     </row>
@@ -3555,7 +3566,7 @@
       <c r="N46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O46" s="7" t="n">
+      <c r="O46" s="6" t="n">
         <v>45504.2495949074</v>
       </c>
     </row>
@@ -3596,7 +3607,7 @@
       <c r="N47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O47" s="7" t="n">
+      <c r="O47" s="6" t="n">
         <v>45505.2937384259</v>
       </c>
     </row>
@@ -3637,7 +3648,7 @@
       <c r="N48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O48" s="7" t="n">
+      <c r="O48" s="6" t="n">
         <v>45506.2853125</v>
       </c>
     </row>
@@ -3678,7 +3689,7 @@
       <c r="N49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O49" s="7" t="n">
+      <c r="O49" s="6" t="n">
         <v>45511.3414583333</v>
       </c>
     </row>
@@ -3719,7 +3730,7 @@
       <c r="N50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O50" s="7" t="n">
+      <c r="O50" s="6" t="n">
         <v>45515.2238773148</v>
       </c>
     </row>
@@ -3760,7 +3771,7 @@
       <c r="N51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O51" s="7" t="n">
+      <c r="O51" s="6" t="n">
         <v>45517.9828240741</v>
       </c>
     </row>
@@ -3994,10 +4005,10 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.05078125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.921875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="8.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="7.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4084,7 +4095,7 @@
       <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="7" t="n">
+      <c r="O2" s="6" t="n">
         <v>45487.5465625</v>
       </c>
     </row>
@@ -4125,7 +4136,7 @@
       <c r="N3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="7" t="n">
+      <c r="O3" s="6" t="n">
         <v>45487.6104513889</v>
       </c>
     </row>
@@ -4166,7 +4177,7 @@
       <c r="N4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="7" t="n">
+      <c r="O4" s="6" t="n">
         <v>45487.6174884259</v>
       </c>
     </row>
@@ -4207,7 +4218,7 @@
       <c r="N5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>45488.5183796296</v>
       </c>
     </row>
@@ -4248,7 +4259,7 @@
       <c r="N6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="7" t="n">
+      <c r="O6" s="6" t="n">
         <v>45488.633287037</v>
       </c>
     </row>
@@ -4289,7 +4300,7 @@
       <c r="N7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="7" t="n">
+      <c r="O7" s="6" t="n">
         <v>45491.2978356481</v>
       </c>
     </row>
@@ -4330,7 +4341,7 @@
       <c r="N8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="7" t="n">
+      <c r="O8" s="6" t="n">
         <v>45496.1959375</v>
       </c>
     </row>
@@ -4371,7 +4382,7 @@
       <c r="N9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>45496.1993518519</v>
       </c>
     </row>
@@ -4412,7 +4423,7 @@
       <c r="N10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="7" t="n">
+      <c r="O10" s="6" t="n">
         <v>45496.2005439815</v>
       </c>
     </row>
@@ -4453,7 +4464,7 @@
       <c r="N11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="7" t="n">
+      <c r="O11" s="6" t="n">
         <v>45496.2248263889</v>
       </c>
     </row>
@@ -4494,7 +4505,7 @@
       <c r="N12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="7" t="n">
+      <c r="O12" s="6" t="n">
         <v>45496.2274884259</v>
       </c>
     </row>
@@ -4535,7 +4546,7 @@
       <c r="N13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="7" t="n">
+      <c r="O13" s="6" t="n">
         <v>45496.3918055556</v>
       </c>
     </row>
@@ -4576,7 +4587,7 @@
       <c r="N14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="7" t="n">
+      <c r="O14" s="6" t="n">
         <v>45496.5769907407</v>
       </c>
     </row>
@@ -4617,7 +4628,7 @@
       <c r="N15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="7" t="n">
+      <c r="O15" s="6" t="n">
         <v>45497.0155671296</v>
       </c>
     </row>
@@ -4658,7 +4669,7 @@
       <c r="N16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="7" t="n">
+      <c r="O16" s="6" t="n">
         <v>45497.0165393519</v>
       </c>
     </row>
@@ -4699,7 +4710,7 @@
       <c r="N17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="7" t="n">
+      <c r="O17" s="6" t="n">
         <v>45497.0171990741</v>
       </c>
     </row>
@@ -4740,7 +4751,7 @@
       <c r="N18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="7" t="n">
+      <c r="O18" s="6" t="n">
         <v>45497.1127777778</v>
       </c>
     </row>
@@ -4781,7 +4792,7 @@
       <c r="N19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O19" s="7" t="n">
+      <c r="O19" s="6" t="n">
         <v>45497.2090509259</v>
       </c>
     </row>
@@ -4822,7 +4833,7 @@
       <c r="N20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O20" s="7" t="n">
+      <c r="O20" s="6" t="n">
         <v>45497.2121759259</v>
       </c>
     </row>
@@ -4863,7 +4874,7 @@
       <c r="N21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="7" t="n">
+      <c r="O21" s="6" t="n">
         <v>45497.3439583333</v>
       </c>
     </row>
@@ -4904,7 +4915,7 @@
       <c r="N22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O22" s="7" t="n">
+      <c r="O22" s="6" t="n">
         <v>45497.377962963</v>
       </c>
     </row>
@@ -4945,7 +4956,7 @@
       <c r="N23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O23" s="7" t="n">
+      <c r="O23" s="6" t="n">
         <v>45497.4968865741</v>
       </c>
     </row>
@@ -4986,7 +4997,7 @@
       <c r="N24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O24" s="7" t="n">
+      <c r="O24" s="6" t="n">
         <v>45498.0432060185</v>
       </c>
     </row>
@@ -5027,7 +5038,7 @@
       <c r="N25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O25" s="7" t="n">
+      <c r="O25" s="6" t="n">
         <v>45498.0474652778</v>
       </c>
     </row>
@@ -5068,7 +5079,7 @@
       <c r="N26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="7" t="n">
+      <c r="O26" s="6" t="n">
         <v>45498.2356481481</v>
       </c>
     </row>
@@ -5109,7 +5120,7 @@
       <c r="N27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O27" s="7" t="n">
+      <c r="O27" s="6" t="n">
         <v>45498.2371296296</v>
       </c>
     </row>
@@ -5150,7 +5161,7 @@
       <c r="N28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="7" t="n">
+      <c r="O28" s="6" t="n">
         <v>45498.3136689815</v>
       </c>
     </row>
@@ -5191,7 +5202,7 @@
       <c r="N29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O29" s="7" t="n">
+      <c r="O29" s="6" t="n">
         <v>45499.1188657407</v>
       </c>
     </row>
@@ -5232,7 +5243,7 @@
       <c r="N30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O30" s="7" t="n">
+      <c r="O30" s="6" t="n">
         <v>45501.1205902778</v>
       </c>
     </row>
@@ -5273,7 +5284,7 @@
       <c r="N31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O31" s="7" t="n">
+      <c r="O31" s="6" t="n">
         <v>45502.1117824074</v>
       </c>
     </row>
@@ -5314,7 +5325,7 @@
       <c r="N32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O32" s="7" t="n">
+      <c r="O32" s="6" t="n">
         <v>45502.3928356481</v>
       </c>
     </row>
@@ -5355,7 +5366,7 @@
       <c r="N33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O33" s="7" t="n">
+      <c r="O33" s="6" t="n">
         <v>45504.0733217593</v>
       </c>
     </row>
@@ -5396,7 +5407,7 @@
       <c r="N34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O34" s="7" t="n">
+      <c r="O34" s="6" t="n">
         <v>45504.0773148148</v>
       </c>
     </row>
@@ -5437,7 +5448,7 @@
       <c r="N35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O35" s="7" t="n">
+      <c r="O35" s="6" t="n">
         <v>45504.2478240741</v>
       </c>
     </row>
@@ -5478,7 +5489,7 @@
       <c r="N36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O36" s="7" t="n">
+      <c r="O36" s="6" t="n">
         <v>45504.2495949074</v>
       </c>
     </row>
@@ -5519,7 +5530,7 @@
       <c r="N37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O37" s="7" t="n">
+      <c r="O37" s="6" t="n">
         <v>45505.2937384259</v>
       </c>
     </row>
@@ -5560,7 +5571,7 @@
       <c r="N38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O38" s="7" t="n">
+      <c r="O38" s="6" t="n">
         <v>45506.2853125</v>
       </c>
     </row>
@@ -5601,7 +5612,7 @@
       <c r="N39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O39" s="7" t="n">
+      <c r="O39" s="6" t="n">
         <v>45511.3414583333</v>
       </c>
     </row>
@@ -5642,7 +5653,7 @@
       <c r="N40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O40" s="7" t="n">
+      <c r="O40" s="6" t="n">
         <v>45515.2238773148</v>
       </c>
     </row>
@@ -5683,7 +5694,7 @@
       <c r="N41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O41" s="7" t="n">
+      <c r="O41" s="6" t="n">
         <v>45517.9828240741</v>
       </c>
     </row>
@@ -5724,7 +5735,7 @@
       <c r="N42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O42" s="7" t="n">
+      <c r="O42" s="6" t="n">
         <v>45522.1146643519</v>
       </c>
     </row>
@@ -5765,7 +5776,7 @@
       <c r="N43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O43" s="7" t="n">
+      <c r="O43" s="6" t="n">
         <v>45524.0928935185</v>
       </c>
     </row>
@@ -5806,7 +5817,7 @@
       <c r="N44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O44" s="7" t="n">
+      <c r="O44" s="6" t="n">
         <v>45524.0944444444</v>
       </c>
     </row>
@@ -5847,7 +5858,7 @@
       <c r="N45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O45" s="7" t="n">
+      <c r="O45" s="6" t="n">
         <v>45524.096412037</v>
       </c>
     </row>
@@ -5888,7 +5899,7 @@
       <c r="N46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O46" s="7" t="n">
+      <c r="O46" s="6" t="n">
         <v>45529.0077546296</v>
       </c>
     </row>
@@ -5929,7 +5940,7 @@
       <c r="N47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O47" s="7" t="n">
+      <c r="O47" s="6" t="n">
         <v>45530.1879861111</v>
       </c>
     </row>
@@ -5970,7 +5981,7 @@
       <c r="N48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O48" s="7" t="n">
+      <c r="O48" s="6" t="n">
         <v>45531.2145833333</v>
       </c>
     </row>
@@ -6011,7 +6022,7 @@
       <c r="N49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O49" s="7" t="n">
+      <c r="O49" s="6" t="n">
         <v>45532.2722337963</v>
       </c>
     </row>
@@ -6052,7 +6063,7 @@
       <c r="N50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O50" s="7" t="n">
+      <c r="O50" s="6" t="n">
         <v>45533.2443518518</v>
       </c>
     </row>
@@ -6093,7 +6104,7 @@
       <c r="N51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O51" s="7" t="n">
+      <c r="O51" s="6" t="n">
         <v>45534.2372685185</v>
       </c>
     </row>
@@ -6134,7 +6145,7 @@
       <c r="N52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O52" s="7" t="n">
+      <c r="O52" s="6" t="n">
         <v>45535.4447800926</v>
       </c>
     </row>
@@ -6175,7 +6186,7 @@
       <c r="N53" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O53" s="7" t="n">
+      <c r="O53" s="6" t="n">
         <v>45536.5289351852</v>
       </c>
     </row>
@@ -6216,7 +6227,7 @@
       <c r="N54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O54" s="7" t="n">
+      <c r="O54" s="6" t="n">
         <v>45537.36375</v>
       </c>
     </row>
@@ -6257,7 +6268,7 @@
       <c r="N55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O55" s="7" t="n">
+      <c r="O55" s="6" t="n">
         <v>45541.500150463</v>
       </c>
     </row>
@@ -6298,7 +6309,7 @@
       <c r="N56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O56" s="7" t="n">
+      <c r="O56" s="6" t="n">
         <v>45544.0918402778</v>
       </c>
     </row>
@@ -6339,7 +6350,7 @@
       <c r="N57" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O57" s="7" t="n">
+      <c r="O57" s="6" t="n">
         <v>45545.1949652778</v>
       </c>
     </row>
@@ -6380,7 +6391,7 @@
       <c r="N58" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O58" s="7" t="n">
+      <c r="O58" s="6" t="n">
         <v>45545.9927199074</v>
       </c>
     </row>
@@ -6421,7 +6432,7 @@
       <c r="N59" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O59" s="7" t="n">
+      <c r="O59" s="6" t="n">
         <v>45546.5744675926</v>
       </c>
     </row>
@@ -6462,7 +6473,7 @@
       <c r="N60" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O60" s="7" t="n">
+      <c r="O60" s="6" t="n">
         <v>45553.5758449074</v>
       </c>
     </row>
@@ -6503,7 +6514,7 @@
       <c r="N61" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O61" s="7" t="n">
+      <c r="O61" s="6" t="n">
         <v>45555.1149305556</v>
       </c>
     </row>
@@ -6544,7 +6555,7 @@
       <c r="N62" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O62" s="7" t="n">
+      <c r="O62" s="6" t="n">
         <v>45555.1383101852</v>
       </c>
     </row>
@@ -6585,7 +6596,7 @@
       <c r="N63" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O63" s="7" t="n">
+      <c r="O63" s="6" t="n">
         <v>45555.6092361111</v>
       </c>
     </row>
@@ -6626,7 +6637,7 @@
       <c r="N64" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O64" s="7" t="n">
+      <c r="O64" s="6" t="n">
         <v>45555.9724537037</v>
       </c>
     </row>
@@ -6667,7 +6678,7 @@
       <c r="N65" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O65" s="7" t="n">
+      <c r="O65" s="6" t="n">
         <v>45556.2465625</v>
       </c>
     </row>
@@ -6708,7 +6719,7 @@
       <c r="N66" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O66" s="7" t="n">
+      <c r="O66" s="6" t="n">
         <v>45556.3639699074</v>
       </c>
     </row>
@@ -6749,7 +6760,7 @@
       <c r="N67" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O67" s="7" t="n">
+      <c r="O67" s="6" t="n">
         <v>45556.9686458333</v>
       </c>
     </row>

--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -519,22 +519,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K110"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.9140625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.79296875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="10.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="9.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,14 +655,14 @@
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>760102.52</v>
+        <v>805757.52</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>25860.51</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">E7-D7</f>
-        <v>-734242.01</v>
+        <v>-779897.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,14 +677,14 @@
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>760102.52</v>
+        <v>805757.52</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>26146.93</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">E8-D8</f>
-        <v>-733955.59</v>
+        <v>-779610.59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,14 +699,14 @@
       </c>
       <c r="D9" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41155.79</v>
+        <v>41228.79</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>28964.52</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">E9-D9</f>
-        <v>-12191.27</v>
+        <v>-12264.27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -721,14 +721,14 @@
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41155.79</v>
+        <v>41228.79</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>30000</v>
       </c>
       <c r="F10" s="1" t="n">
         <f aca="false">E10-D10</f>
-        <v>-11155.79</v>
+        <v>-11228.79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -743,14 +743,14 @@
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41155.79</v>
+        <v>41228.79</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>29573</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">E11-D11</f>
-        <v>-11582.79</v>
+        <v>-11655.79</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,14 +765,14 @@
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41155.79</v>
+        <v>41228.79</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>28972</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">E12-D12</f>
-        <v>-12183.79</v>
+        <v>-12256.79</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,14 +787,14 @@
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41155.79</v>
+        <v>41228.79</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>30243.83</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">E13-D13</f>
-        <v>-10911.96</v>
+        <v>-10984.96</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,14 +809,14 @@
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41155.79</v>
+        <v>41228.79</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>31046.96</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">E14-D14</f>
-        <v>-10108.83</v>
+        <v>-10181.83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,14 +831,14 @@
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41155.79</v>
+        <v>41228.79</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>32182.63</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">E15-D15</f>
-        <v>-8973.16</v>
+        <v>-9046.16</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>4564.91</v>
@@ -852,11 +852,11 @@
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-8014.5434</v>
+        <v>-8087.5434</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-8014.5434</v>
+        <v>-8087.5434</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,14 +871,14 @@
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41155.79</v>
+        <v>41228.79</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>36761.16</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">E16-D16</f>
-        <v>-4394.63</v>
+        <v>-4467.63</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>5236.63</v>
@@ -892,7 +892,7 @@
       </c>
       <c r="J16" s="1" t="n">
         <f aca="false">I16-D16</f>
-        <v>-3137.8562</v>
+        <v>-3210.8562</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,14 +907,14 @@
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41155.79</v>
+        <v>41228.79</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>38133.54</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">E17-D17</f>
-        <v>-3022.25</v>
+        <v>-3095.25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -929,14 +929,14 @@
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41155.79</v>
+        <v>41228.79</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>41866.21</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">E18-D18</f>
-        <v>710.419999999998</v>
+        <v>637.419999999998</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -951,14 +951,14 @@
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41155.79</v>
+        <v>41228.79</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>42353.52</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">E19-D19</f>
-        <v>1197.73</v>
+        <v>1124.73</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -973,14 +973,14 @@
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41155.79</v>
+        <v>41228.79</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>44606.52</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">E20-D20</f>
-        <v>3450.73</v>
+        <v>3377.73</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -995,14 +995,14 @@
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41155.79</v>
+        <v>41228.79</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>44717.5</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">E21-D21</f>
-        <v>3561.71</v>
+        <v>3488.71</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1017,14 +1017,14 @@
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41155.79</v>
+        <v>41228.79</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>44960.44</v>
       </c>
       <c r="F22" s="1" t="n">
         <f aca="false">E22-D22</f>
-        <v>3804.65</v>
+        <v>3731.65</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,24 +1039,37 @@
       </c>
       <c r="D23" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41155.79</v>
+        <v>41228.79</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>44920.45</v>
       </c>
       <c r="F23" s="1" t="n">
         <f aca="false">E23-D23</f>
-        <v>3764.66</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3691.66</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>1800</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>3615.39</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="4" t="n">
+        <v>45655</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>41228.79</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>45119.03</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <f aca="false">E24-D24</f>
+        <v>3890.24</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
@@ -1608,7 +1621,7 @@
       <c r="A109" s="4" t="n">
         <v>45654</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B109" s="1" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1616,8 +1629,16 @@
       <c r="A110" s="4" t="n">
         <v>45654</v>
       </c>
-      <c r="B110" s="0" t="n">
-        <v>100</v>
+      <c r="B110" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="4" t="n">
+        <v>45655</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1642,13 +1663,13 @@
       <selection pane="topLeft" activeCell="L64" activeCellId="0" sqref="L64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.921875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.79296875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="7.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.08"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="7.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.03"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="7.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="7.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4005,10 +4026,10 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.921875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.79296875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="7.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="7.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="67">
   <si>
     <t xml:space="preserve">APP上显示BTC等值买入</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t xml:space="preserve">盈亏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
   </si>
   <si>
     <t xml:space="preserve">Order Number</t>
@@ -229,12 +232,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="167" formatCode="yy\年m\月d\日"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-m\-d\ h:mm"/>
+    <numFmt numFmtId="168" formatCode="yy\年m\月d\日"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-m\-d\ h:mm"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -302,7 +306,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -323,11 +327,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -519,13 +527,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.79296875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.80078125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.49"/>
@@ -655,14 +663,14 @@
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>805757.52</v>
+        <v>851415.52</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>25860.51</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">E7-D7</f>
-        <v>-779897.01</v>
+        <v>-825555.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,14 +685,14 @@
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>805757.52</v>
+        <v>851415.52</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>26146.93</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">E8-D8</f>
-        <v>-779610.59</v>
+        <v>-825268.59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,14 +707,14 @@
       </c>
       <c r="D9" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41228.79</v>
+        <v>41728.79</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>28964.52</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">E9-D9</f>
-        <v>-12264.27</v>
+        <v>-12764.27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -721,14 +729,14 @@
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41228.79</v>
+        <v>41728.79</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>30000</v>
       </c>
       <c r="F10" s="1" t="n">
         <f aca="false">E10-D10</f>
-        <v>-11228.79</v>
+        <v>-11728.79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -743,14 +751,14 @@
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41228.79</v>
+        <v>41728.79</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>29573</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">E11-D11</f>
-        <v>-11655.79</v>
+        <v>-12155.79</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,14 +773,14 @@
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41228.79</v>
+        <v>41728.79</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>28972</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">E12-D12</f>
-        <v>-12256.79</v>
+        <v>-12756.79</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,14 +795,14 @@
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41228.79</v>
+        <v>41728.79</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>30243.83</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">E13-D13</f>
-        <v>-10984.96</v>
+        <v>-11484.96</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,14 +817,14 @@
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41228.79</v>
+        <v>41728.79</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>31046.96</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">E14-D14</f>
-        <v>-10181.83</v>
+        <v>-10681.83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,14 +839,14 @@
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41228.79</v>
+        <v>41728.79</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>32182.63</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">E15-D15</f>
-        <v>-9046.16</v>
+        <v>-9546.16</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>4564.91</v>
@@ -852,11 +860,11 @@
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-8087.5434</v>
+        <v>-8587.5434</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-8087.5434</v>
+        <v>-8587.5434</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,14 +879,14 @@
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41228.79</v>
+        <v>41728.79</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>36761.16</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">E16-D16</f>
-        <v>-4467.63</v>
+        <v>-4967.63</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>5236.63</v>
@@ -892,7 +900,7 @@
       </c>
       <c r="J16" s="1" t="n">
         <f aca="false">I16-D16</f>
-        <v>-3210.8562</v>
+        <v>-3710.8562</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,14 +915,14 @@
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41228.79</v>
+        <v>41728.79</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>38133.54</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">E17-D17</f>
-        <v>-3095.25</v>
+        <v>-3595.25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -929,14 +937,14 @@
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41228.79</v>
+        <v>41728.79</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>41866.21</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">E18-D18</f>
-        <v>637.419999999998</v>
+        <v>137.419999999998</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -951,14 +959,14 @@
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41228.79</v>
+        <v>41728.79</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>42353.52</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">E19-D19</f>
-        <v>1124.73</v>
+        <v>624.729999999996</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -973,14 +981,14 @@
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41228.79</v>
+        <v>41728.79</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>44606.52</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">E20-D20</f>
-        <v>3377.73</v>
+        <v>2877.73</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -995,14 +1003,14 @@
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41228.79</v>
+        <v>41728.79</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>44717.5</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">E21-D21</f>
-        <v>3488.71</v>
+        <v>2988.71</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1017,14 +1025,14 @@
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41228.79</v>
+        <v>41728.79</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>44960.44</v>
       </c>
       <c r="F22" s="1" t="n">
         <f aca="false">E22-D22</f>
-        <v>3731.65</v>
+        <v>3231.65</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,14 +1047,14 @@
       </c>
       <c r="D23" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41228.79</v>
+        <v>41728.79</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>44920.45</v>
       </c>
       <c r="F23" s="1" t="n">
         <f aca="false">E23-D23</f>
-        <v>3691.66</v>
+        <v>3191.66</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1061,22 +1069,32 @@
       </c>
       <c r="D24" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41228.79</v>
+        <v>41728.79</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>45119.03</v>
       </c>
       <c r="F24" s="1" t="n">
         <f aca="false">E24-D24</f>
-        <v>3890.24</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3390.24</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>1200</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>1000</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>45658</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>41728.79</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1637,8 +1655,16 @@
       <c r="A111" s="4" t="n">
         <v>45655</v>
       </c>
-      <c r="B111" s="0" t="n">
+      <c r="B111" s="1" t="n">
         <v>73</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="5" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -1663,7 +1689,7 @@
       <selection pane="topLeft" activeCell="L64" activeCellId="0" sqref="L64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.79296875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.7890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="7.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.9"/>
@@ -1673,50 +1699,50 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>21</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1724,13 +1750,13 @@
         <v>2.26457903553286E+019</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>200</v>
@@ -1751,12 +1777,12 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O2" s="7" t="n">
         <v>45487.5465625</v>
       </c>
     </row>
@@ -1765,13 +1791,13 @@
         <v>2.2645813507186E+019</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>200</v>
@@ -1792,12 +1818,12 @@
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O3" s="7" t="n">
         <v>45487.6104513889</v>
       </c>
     </row>
@@ -1806,13 +1832,13 @@
         <v>2.26458160596665E+019</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>100</v>
@@ -1833,12 +1859,12 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O4" s="7" t="n">
         <v>45487.6174884259</v>
       </c>
     </row>
@@ -1847,13 +1873,13 @@
         <v>2.26461425293624E+019</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>720</v>
@@ -1874,12 +1900,12 @@
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O5" s="7" t="n">
         <v>45488.5183796296</v>
       </c>
     </row>
@@ -1888,13 +1914,13 @@
         <v>2.26461841724141E+019</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>14.22</v>
@@ -1915,12 +1941,12 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O6" s="7" t="n">
         <v>45488.633287037</v>
       </c>
     </row>
@@ -1929,13 +1955,13 @@
         <v>2.26471497732688E+019</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>720</v>
@@ -1956,12 +1982,12 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O7" s="7" t="n">
         <v>45491.2978356481</v>
       </c>
     </row>
@@ -1970,13 +1996,13 @@
         <v>2.26488742035339E+019</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>7200</v>
@@ -1997,12 +2023,12 @@
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="O8" s="7" t="n">
         <v>45496.0563541667</v>
       </c>
       <c r="Q8" s="1" t="n">
@@ -2014,13 +2040,13 @@
         <v>2.26489247851185E+019</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>99</v>
@@ -2041,12 +2067,12 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O9" s="7" t="n">
         <v>45496.1959375</v>
       </c>
     </row>
@@ -2055,13 +2081,13 @@
         <v>2.26489260215509E+019</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>99</v>
@@ -2082,12 +2108,12 @@
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O10" s="7" t="n">
         <v>45496.1993518519</v>
       </c>
     </row>
@@ -2096,13 +2122,13 @@
         <v>2.26489264541666E+019</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>99</v>
@@ -2123,12 +2149,12 @@
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O11" s="7" t="n">
         <v>45496.2005439815</v>
       </c>
     </row>
@@ -2137,13 +2163,13 @@
         <v>2.26489352555075E+019</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>100</v>
@@ -2164,12 +2190,12 @@
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O12" s="7" t="n">
         <v>45496.2248263889</v>
       </c>
     </row>
@@ -2178,13 +2204,13 @@
         <v>2.26489362182059E+019</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>33.13</v>
@@ -2205,12 +2231,12 @@
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O13" s="7" t="n">
         <v>45496.2274884259</v>
       </c>
     </row>
@@ -2219,13 +2245,13 @@
         <v>2.26489957638063E+019</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>200</v>
@@ -2246,12 +2272,12 @@
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O14" s="7" t="n">
         <v>45496.3918055556</v>
       </c>
     </row>
@@ -2260,13 +2286,13 @@
         <v>2.26490383095534E+019</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>5000</v>
@@ -2287,12 +2313,12 @@
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O15" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="O15" s="7" t="n">
         <v>45496.5092013889</v>
       </c>
       <c r="Q15" s="1" t="n">
@@ -2304,13 +2330,13 @@
         <v>2.26490628750488E+019</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>300</v>
@@ -2331,12 +2357,12 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O16" s="7" t="n">
         <v>45496.5769907407</v>
       </c>
     </row>
@@ -2345,13 +2371,13 @@
         <v>2.26492218087772E+019</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>99</v>
@@ -2372,12 +2398,12 @@
         <v>0</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O17" s="7" t="n">
         <v>45497.0155671296</v>
       </c>
     </row>
@@ -2386,13 +2412,13 @@
         <v>2.26492221617103E+019</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>99</v>
@@ -2413,12 +2439,12 @@
         <v>0</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O18" s="7" t="n">
         <v>45497.0165393519</v>
       </c>
     </row>
@@ -2427,13 +2453,13 @@
         <v>2.26492224012847E+019</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>99</v>
@@ -2454,12 +2480,12 @@
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O19" s="7" t="n">
         <v>45497.0171990741</v>
       </c>
     </row>
@@ -2468,13 +2494,13 @@
         <v>2.26492229270302E+019</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>3000</v>
@@ -2495,12 +2521,12 @@
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O20" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="O20" s="7" t="n">
         <v>45497.0186574074</v>
       </c>
       <c r="Q20" s="1" t="n">
@@ -2512,13 +2538,13 @@
         <v>2.26492570373715E+019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>99</v>
@@ -2539,12 +2565,12 @@
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O21" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O21" s="7" t="n">
         <v>45497.1127777778</v>
       </c>
     </row>
@@ -2553,13 +2579,13 @@
         <v>2.26492919251334E+019</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>200</v>
@@ -2580,12 +2606,12 @@
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O22" s="7" t="n">
         <v>45497.2090509259</v>
       </c>
     </row>
@@ -2594,13 +2620,13 @@
         <v>2.26492930573904E+019</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>200</v>
@@ -2621,12 +2647,12 @@
         <v>0</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O23" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O23" s="7" t="n">
         <v>45497.2121759259</v>
       </c>
     </row>
@@ -2635,13 +2661,13 @@
         <v>2.26493161527767E+019</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>200</v>
@@ -2662,12 +2688,12 @@
         <v>0</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="O24" s="7" t="n">
         <v>45497.2759027778</v>
       </c>
       <c r="Q24" s="1" t="n">
@@ -2679,13 +2705,13 @@
         <v>2.26493408156092E+019</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>300</v>
@@ -2706,12 +2732,12 @@
         <v>0</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O25" s="7" t="n">
         <v>45497.3439583333</v>
       </c>
     </row>
@@ -2720,13 +2746,13 @@
         <v>2.26493531366563E+019</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>90</v>
@@ -2747,12 +2773,12 @@
         <v>0</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O26" s="7" t="n">
         <v>45497.377962963</v>
       </c>
     </row>
@@ -2761,13 +2787,13 @@
         <v>2.26493556078438E+019</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>100</v>
@@ -2788,12 +2814,12 @@
         <v>0</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O27" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="O27" s="7" t="n">
         <v>45497.3847800926</v>
       </c>
       <c r="Q27" s="1" t="n">
@@ -2805,13 +2831,13 @@
         <v>2.26493962354185E+019</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>100</v>
@@ -2832,12 +2858,12 @@
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O28" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O28" s="7" t="n">
         <v>45497.4968865741</v>
       </c>
     </row>
@@ -2846,13 +2872,13 @@
         <v>2.26493981011837E+019</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>8000</v>
@@ -2873,12 +2899,12 @@
         <v>0</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O29" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="O29" s="7" t="n">
         <v>45497.502037037</v>
       </c>
       <c r="Q29" s="1" t="n">
@@ -2890,13 +2916,13 @@
         <v>2.264959421403E+019</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>1000</v>
@@ -2917,12 +2943,12 @@
         <v>0</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O30" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O30" s="7" t="n">
         <v>45498.0432060185</v>
       </c>
     </row>
@@ -2931,13 +2957,13 @@
         <v>2.26495957578282E+019</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>3615.39</v>
@@ -2958,12 +2984,12 @@
         <v>0</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O31" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O31" s="7" t="n">
         <v>45498.0474652778</v>
       </c>
     </row>
@@ -2972,13 +2998,13 @@
         <v>2.26496639519491E+019</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>1000</v>
@@ -2999,12 +3025,12 @@
         <v>0</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O32" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O32" s="7" t="n">
         <v>45498.2356481481</v>
       </c>
     </row>
@@ -3013,13 +3039,13 @@
         <v>2.26496644878763E+019</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>1800</v>
@@ -3040,12 +3066,12 @@
         <v>0</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O33" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O33" s="7" t="n">
         <v>45498.2371296296</v>
       </c>
     </row>
@@ -3054,13 +3080,13 @@
         <v>2.26496922238053E+019</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>1200</v>
@@ -3081,12 +3107,12 @@
         <v>0</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O34" s="7" t="n">
         <v>45498.3136689815</v>
       </c>
     </row>
@@ -3095,13 +3121,13 @@
         <v>2.26499840208225E+019</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>3000</v>
@@ -3122,12 +3148,12 @@
         <v>0</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O35" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O35" s="7" t="n">
         <v>45499.1188657407</v>
       </c>
     </row>
@@ -3136,13 +3162,13 @@
         <v>2.26505126337098E+019</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>4000</v>
@@ -3163,12 +3189,12 @@
         <v>0</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O36" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="O36" s="7" t="n">
         <v>45500.5775694444</v>
       </c>
       <c r="Q36" s="1" t="n">
@@ -3180,13 +3206,13 @@
         <v>2.26505146993534E+019</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>3000</v>
@@ -3207,12 +3233,12 @@
         <v>0</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O37" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="O37" s="7" t="n">
         <v>45500.5832638889</v>
       </c>
       <c r="Q37" s="1" t="n">
@@ -3224,13 +3250,13 @@
         <v>2.26507094185224E+019</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E38" s="1" t="n">
         <v>2000</v>
@@ -3251,12 +3277,12 @@
         <v>0</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O38" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O38" s="7" t="n">
         <v>45501.1205902778</v>
       </c>
     </row>
@@ -3265,13 +3291,13 @@
         <v>2.26510409305626E+019</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E39" s="1" t="n">
         <v>2000</v>
@@ -3292,12 +3318,12 @@
         <v>0</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O39" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="O39" s="7" t="n">
         <v>45502.0353819444</v>
       </c>
       <c r="Q39" s="1" t="n">
@@ -3309,13 +3335,13 @@
         <v>2.26510686145479E+019</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E40" s="1" t="n">
         <v>2000</v>
@@ -3336,12 +3362,12 @@
         <v>0</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O40" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O40" s="7" t="n">
         <v>45502.1117824074</v>
       </c>
     </row>
@@ -3350,13 +3376,13 @@
         <v>2.26511704641749E+019</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E41" s="1" t="n">
         <v>2000</v>
@@ -3377,12 +3403,12 @@
         <v>0</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O41" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O41" s="7" t="n">
         <v>45502.3928356481</v>
       </c>
     </row>
@@ -3391,13 +3417,13 @@
         <v>2.2651779452296E+019</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>100</v>
@@ -3418,12 +3444,12 @@
         <v>0</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O42" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O42" s="7" t="n">
         <v>45504.0733217593</v>
       </c>
     </row>
@@ -3432,13 +3458,13 @@
         <v>2.26517803163915E+019</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E43" s="1" t="n">
         <v>100</v>
@@ -3459,12 +3485,12 @@
         <v>0</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O43" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="O43" s="7" t="n">
         <v>45504.0757060185</v>
       </c>
     </row>
@@ -3473,13 +3499,13 @@
         <v>2.26517809025698E+019</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E44" s="1" t="n">
         <v>500</v>
@@ -3500,12 +3526,12 @@
         <v>0</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O44" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O44" s="7" t="n">
         <v>45504.0773148148</v>
       </c>
     </row>
@@ -3514,13 +3540,13 @@
         <v>2.26518426895708E+019</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>200</v>
@@ -3541,12 +3567,12 @@
         <v>0</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O45" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O45" s="7" t="n">
         <v>45504.2478240741</v>
       </c>
     </row>
@@ -3555,13 +3581,13 @@
         <v>2.26518433346472E+019</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E46" s="1" t="n">
         <v>500</v>
@@ -3582,12 +3608,12 @@
         <v>0</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O46" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O46" s="7" t="n">
         <v>45504.2495949074</v>
       </c>
     </row>
@@ -3596,13 +3622,13 @@
         <v>2.26522217164686E+019</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E47" s="1" t="n">
         <v>200</v>
@@ -3623,12 +3649,12 @@
         <v>0</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O47" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O47" s="7" t="n">
         <v>45505.2937384259</v>
       </c>
     </row>
@@ -3637,13 +3663,13 @@
         <v>2.26525810520272E+019</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E48" s="1" t="n">
         <v>100</v>
@@ -3664,12 +3690,12 @@
         <v>0</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O48" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O48" s="7" t="n">
         <v>45506.2853125</v>
       </c>
     </row>
@@ -3678,13 +3704,13 @@
         <v>2.26544133401604E+019</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E49" s="1" t="n">
         <v>500</v>
@@ -3705,12 +3731,12 @@
         <v>0</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O49" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O49" s="7" t="n">
         <v>45511.3414583333</v>
       </c>
     </row>
@@ -3719,13 +3745,13 @@
         <v>2.26558202789191E+019</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E50" s="1" t="n">
         <v>3000</v>
@@ -3746,12 +3772,12 @@
         <v>0</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O50" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O50" s="7" t="n">
         <v>45515.2238773148</v>
       </c>
     </row>
@@ -3760,13 +3786,13 @@
         <v>2.26568200888441E+019</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E51" s="1" t="n">
         <v>3000</v>
@@ -3787,12 +3813,12 @@
         <v>0</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O51" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O51" s="7" t="n">
         <v>45517.9828240741</v>
       </c>
     </row>
@@ -4026,7 +4052,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.79296875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.7890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.9"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="7.79"/>
@@ -4034,49 +4060,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4084,13 +4110,13 @@
         <v>2.26457903553286E+019</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>200</v>
@@ -4111,12 +4137,12 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O2" s="7" t="n">
         <v>45487.5465625</v>
       </c>
     </row>
@@ -4125,13 +4151,13 @@
         <v>2.2645813507186E+019</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>200</v>
@@ -4152,12 +4178,12 @@
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O3" s="7" t="n">
         <v>45487.6104513889</v>
       </c>
     </row>
@@ -4166,13 +4192,13 @@
         <v>2.26458160596665E+019</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>100</v>
@@ -4193,12 +4219,12 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O4" s="7" t="n">
         <v>45487.6174884259</v>
       </c>
     </row>
@@ -4207,13 +4233,13 @@
         <v>2.26461425293624E+019</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>720</v>
@@ -4234,12 +4260,12 @@
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O5" s="7" t="n">
         <v>45488.5183796296</v>
       </c>
     </row>
@@ -4248,13 +4274,13 @@
         <v>2.26461841724141E+019</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>14.22</v>
@@ -4275,12 +4301,12 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O6" s="7" t="n">
         <v>45488.633287037</v>
       </c>
     </row>
@@ -4289,13 +4315,13 @@
         <v>2.26471497732688E+019</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>720</v>
@@ -4316,12 +4342,12 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O7" s="7" t="n">
         <v>45491.2978356481</v>
       </c>
     </row>
@@ -4330,13 +4356,13 @@
         <v>2.26489247851185E+019</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>99</v>
@@ -4357,12 +4383,12 @@
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O8" s="7" t="n">
         <v>45496.1959375</v>
       </c>
     </row>
@@ -4371,13 +4397,13 @@
         <v>2.26489260215509E+019</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>99</v>
@@ -4398,12 +4424,12 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O9" s="7" t="n">
         <v>45496.1993518519</v>
       </c>
     </row>
@@ -4412,13 +4438,13 @@
         <v>2.26489264541666E+019</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>99</v>
@@ -4439,12 +4465,12 @@
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O10" s="7" t="n">
         <v>45496.2005439815</v>
       </c>
     </row>
@@ -4453,13 +4479,13 @@
         <v>2.26489352555075E+019</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>100</v>
@@ -4480,12 +4506,12 @@
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O11" s="7" t="n">
         <v>45496.2248263889</v>
       </c>
     </row>
@@ -4494,13 +4520,13 @@
         <v>2.26489362182059E+019</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>33.13</v>
@@ -4521,12 +4547,12 @@
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O12" s="7" t="n">
         <v>45496.2274884259</v>
       </c>
     </row>
@@ -4535,13 +4561,13 @@
         <v>2.26489957638063E+019</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>200</v>
@@ -4562,12 +4588,12 @@
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O13" s="7" t="n">
         <v>45496.3918055556</v>
       </c>
     </row>
@@ -4576,13 +4602,13 @@
         <v>2.26490628750488E+019</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>300</v>
@@ -4603,12 +4629,12 @@
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O14" s="7" t="n">
         <v>45496.5769907407</v>
       </c>
     </row>
@@ -4617,13 +4643,13 @@
         <v>2.26492218087772E+019</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>99</v>
@@ -4644,12 +4670,12 @@
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O15" s="7" t="n">
         <v>45497.0155671296</v>
       </c>
     </row>
@@ -4658,13 +4684,13 @@
         <v>2.26492221617103E+019</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>99</v>
@@ -4685,12 +4711,12 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O16" s="7" t="n">
         <v>45497.0165393519</v>
       </c>
     </row>
@@ -4699,13 +4725,13 @@
         <v>2.26492224012847E+019</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>99</v>
@@ -4726,12 +4752,12 @@
         <v>0</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O17" s="7" t="n">
         <v>45497.0171990741</v>
       </c>
     </row>
@@ -4740,13 +4766,13 @@
         <v>2.26492570373715E+019</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>99</v>
@@ -4767,12 +4793,12 @@
         <v>0</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O18" s="7" t="n">
         <v>45497.1127777778</v>
       </c>
     </row>
@@ -4781,13 +4807,13 @@
         <v>2.26492919251334E+019</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>200</v>
@@ -4808,12 +4834,12 @@
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O19" s="7" t="n">
         <v>45497.2090509259</v>
       </c>
     </row>
@@ -4822,13 +4848,13 @@
         <v>2.26492930573904E+019</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>200</v>
@@ -4849,12 +4875,12 @@
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O20" s="7" t="n">
         <v>45497.2121759259</v>
       </c>
     </row>
@@ -4863,13 +4889,13 @@
         <v>2.26493408156092E+019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>300</v>
@@ -4890,12 +4916,12 @@
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O21" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O21" s="7" t="n">
         <v>45497.3439583333</v>
       </c>
     </row>
@@ -4904,13 +4930,13 @@
         <v>2.26493531366563E+019</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>90</v>
@@ -4931,12 +4957,12 @@
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O22" s="7" t="n">
         <v>45497.377962963</v>
       </c>
     </row>
@@ -4945,13 +4971,13 @@
         <v>2.26493962354185E+019</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>100</v>
@@ -4972,12 +4998,12 @@
         <v>0</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O23" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O23" s="7" t="n">
         <v>45497.4968865741</v>
       </c>
     </row>
@@ -4986,13 +5012,13 @@
         <v>2.264959421403E+019</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>1000</v>
@@ -5013,12 +5039,12 @@
         <v>0</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O24" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O24" s="7" t="n">
         <v>45498.0432060185</v>
       </c>
     </row>
@@ -5027,13 +5053,13 @@
         <v>2.26495957578282E+019</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>3615.39</v>
@@ -5054,12 +5080,12 @@
         <v>0</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O25" s="7" t="n">
         <v>45498.0474652778</v>
       </c>
     </row>
@@ -5068,13 +5094,13 @@
         <v>2.26496639519491E+019</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>1000</v>
@@ -5095,12 +5121,12 @@
         <v>0</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O26" s="7" t="n">
         <v>45498.2356481481</v>
       </c>
     </row>
@@ -5109,13 +5135,13 @@
         <v>2.26496644878763E+019</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>1800</v>
@@ -5136,12 +5162,12 @@
         <v>0</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O27" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O27" s="7" t="n">
         <v>45498.2371296296</v>
       </c>
     </row>
@@ -5150,13 +5176,13 @@
         <v>2.26496922238053E+019</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>1200</v>
@@ -5177,12 +5203,12 @@
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O28" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O28" s="7" t="n">
         <v>45498.3136689815</v>
       </c>
     </row>
@@ -5191,13 +5217,13 @@
         <v>2.26499840208225E+019</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>3000</v>
@@ -5218,12 +5244,12 @@
         <v>0</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O29" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O29" s="7" t="n">
         <v>45499.1188657407</v>
       </c>
     </row>
@@ -5232,13 +5258,13 @@
         <v>2.26507094185224E+019</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>2000</v>
@@ -5259,12 +5285,12 @@
         <v>0</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O30" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O30" s="7" t="n">
         <v>45501.1205902778</v>
       </c>
     </row>
@@ -5273,13 +5299,13 @@
         <v>2.26510686145479E+019</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>2000</v>
@@ -5300,12 +5326,12 @@
         <v>0</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O31" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O31" s="7" t="n">
         <v>45502.1117824074</v>
       </c>
     </row>
@@ -5314,13 +5340,13 @@
         <v>2.26511704641749E+019</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>2000</v>
@@ -5341,12 +5367,12 @@
         <v>0</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O32" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O32" s="7" t="n">
         <v>45502.3928356481</v>
       </c>
     </row>
@@ -5355,13 +5381,13 @@
         <v>2.2651779452296E+019</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>100</v>
@@ -5382,12 +5408,12 @@
         <v>0</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O33" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O33" s="7" t="n">
         <v>45504.0733217593</v>
       </c>
     </row>
@@ -5396,13 +5422,13 @@
         <v>2.26517809025698E+019</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>500</v>
@@ -5423,12 +5449,12 @@
         <v>0</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O34" s="7" t="n">
         <v>45504.0773148148</v>
       </c>
     </row>
@@ -5437,13 +5463,13 @@
         <v>2.26518426895708E+019</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>200</v>
@@ -5464,12 +5490,12 @@
         <v>0</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O35" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O35" s="7" t="n">
         <v>45504.2478240741</v>
       </c>
     </row>
@@ -5478,13 +5504,13 @@
         <v>2.26518433346472E+019</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>500</v>
@@ -5505,12 +5531,12 @@
         <v>0</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O36" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O36" s="7" t="n">
         <v>45504.2495949074</v>
       </c>
     </row>
@@ -5519,13 +5545,13 @@
         <v>2.26522217164686E+019</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>200</v>
@@ -5546,12 +5572,12 @@
         <v>0</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O37" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O37" s="7" t="n">
         <v>45505.2937384259</v>
       </c>
     </row>
@@ -5560,13 +5586,13 @@
         <v>2.26525810520272E+019</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E38" s="1" t="n">
         <v>100</v>
@@ -5587,12 +5613,12 @@
         <v>0</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O38" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O38" s="7" t="n">
         <v>45506.2853125</v>
       </c>
     </row>
@@ -5601,13 +5627,13 @@
         <v>2.26544133401604E+019</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E39" s="1" t="n">
         <v>500</v>
@@ -5628,12 +5654,12 @@
         <v>0</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O39" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O39" s="7" t="n">
         <v>45511.3414583333</v>
       </c>
     </row>
@@ -5642,13 +5668,13 @@
         <v>2.26558202789191E+019</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E40" s="1" t="n">
         <v>3000</v>
@@ -5669,12 +5695,12 @@
         <v>0</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O40" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O40" s="7" t="n">
         <v>45515.2238773148</v>
       </c>
     </row>
@@ -5683,13 +5709,13 @@
         <v>2.26568200888441E+019</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E41" s="1" t="n">
         <v>3000</v>
@@ -5710,12 +5736,12 @@
         <v>0</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O41" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O41" s="7" t="n">
         <v>45517.9828240741</v>
       </c>
     </row>
@@ -5724,13 +5750,13 @@
         <v>2.26583174158601E+019</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>100</v>
@@ -5751,12 +5777,12 @@
         <v>0</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O42" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O42" s="7" t="n">
         <v>45522.1146643519</v>
       </c>
     </row>
@@ -5765,13 +5791,13 @@
         <v>2.26590343042923E+019</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E43" s="1" t="n">
         <v>72</v>
@@ -5792,12 +5818,12 @@
         <v>0</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O43" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O43" s="7" t="n">
         <v>45524.0928935185</v>
       </c>
     </row>
@@ -5806,13 +5832,13 @@
         <v>2.26590348673141E+019</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E44" s="1" t="n">
         <v>100</v>
@@ -5833,12 +5859,12 @@
         <v>0</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O44" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O44" s="7" t="n">
         <v>45524.0944444444</v>
       </c>
     </row>
@@ -5847,13 +5873,13 @@
         <v>2.26590355767863E+019</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>90</v>
@@ -5874,12 +5900,12 @@
         <v>0</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O45" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O45" s="7" t="n">
         <v>45524.096412037</v>
       </c>
     </row>
@@ -5888,13 +5914,13 @@
         <v>2.26608153887382E+019</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E46" s="1" t="n">
         <v>188</v>
@@ -5915,12 +5941,12 @@
         <v>0</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O46" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O46" s="7" t="n">
         <v>45529.0077546296</v>
       </c>
     </row>
@@ -5929,13 +5955,13 @@
         <v>2.26612430915019E+019</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E47" s="1" t="n">
         <v>72</v>
@@ -5956,12 +5982,12 @@
         <v>0</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O47" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O47" s="7" t="n">
         <v>45530.1879861111</v>
       </c>
     </row>
@@ -5970,13 +5996,13 @@
         <v>2.2661615116264E+019</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E48" s="1" t="n">
         <v>72</v>
@@ -5997,12 +6023,12 @@
         <v>0</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O48" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O48" s="7" t="n">
         <v>45531.2145833333</v>
       </c>
     </row>
@@ -6011,13 +6037,13 @@
         <v>2.2661998398442E+019</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E49" s="1" t="n">
         <v>100</v>
@@ -6038,12 +6064,12 @@
         <v>0</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O49" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O49" s="7" t="n">
         <v>45532.2722337963</v>
       </c>
     </row>
@@ -6052,13 +6078,13 @@
         <v>2.26623506820396E+019</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E50" s="1" t="n">
         <v>72</v>
@@ -6079,12 +6105,12 @@
         <v>0</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O50" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O50" s="7" t="n">
         <v>45533.2443518518</v>
       </c>
     </row>
@@ -6093,13 +6119,13 @@
         <v>2.26627105017994E+019</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E51" s="1" t="n">
         <v>72</v>
@@ -6120,12 +6146,12 @@
         <v>0</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O51" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O51" s="7" t="n">
         <v>45534.2372685185</v>
       </c>
     </row>
@@ -6134,13 +6160,13 @@
         <v>2.26631480875883E+019</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E52" s="1" t="n">
         <v>72</v>
@@ -6161,12 +6187,12 @@
         <v>0</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O52" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O52" s="7" t="n">
         <v>45535.4447800926</v>
       </c>
     </row>
@@ -6175,13 +6201,13 @@
         <v>2.2663540974717E+019</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E53" s="1" t="n">
         <v>100</v>
@@ -6202,12 +6228,12 @@
         <v>0</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O53" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O53" s="7" t="n">
         <v>45536.5289351852</v>
       </c>
     </row>
@@ -6216,13 +6242,13 @@
         <v>2.26638435014616E+019</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E54" s="1" t="n">
         <v>100</v>
@@ -6243,12 +6269,12 @@
         <v>0</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O54" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O54" s="7" t="n">
         <v>45537.36375</v>
       </c>
     </row>
@@ -6257,13 +6283,13 @@
         <v>2.26653424838444E+019</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E55" s="1" t="n">
         <v>130</v>
@@ -6284,12 +6310,12 @@
         <v>0</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O55" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O55" s="7" t="n">
         <v>45541.500150463</v>
       </c>
     </row>
@@ -6298,13 +6324,13 @@
         <v>2.26662816792244E+019</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E56" s="1" t="n">
         <v>100</v>
@@ -6325,12 +6351,12 @@
         <v>0</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O56" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O56" s="7" t="n">
         <v>45544.0918402778</v>
       </c>
     </row>
@@ -6339,13 +6365,13 @@
         <v>2.26666814373519E+019</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E57" s="1" t="n">
         <v>88</v>
@@ -6366,12 +6392,12 @@
         <v>0</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O57" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O57" s="7" t="n">
         <v>45545.1949652778</v>
       </c>
     </row>
@@ -6380,13 +6406,13 @@
         <v>2.26669705331676E+019</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E58" s="1" t="n">
         <v>100</v>
@@ -6407,12 +6433,12 @@
         <v>0</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O58" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O58" s="7" t="n">
         <v>45545.9927199074</v>
       </c>
     </row>
@@ -6421,13 +6447,13 @@
         <v>2.26671813527355E+019</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E59" s="1" t="n">
         <v>100</v>
@@ -6448,12 +6474,12 @@
         <v>0</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O59" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O59" s="7" t="n">
         <v>45546.5744675926</v>
       </c>
     </row>
@@ -6462,13 +6488,13 @@
         <v>2.26697185652291E+019</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E60" s="1" t="n">
         <v>72</v>
@@ -6489,12 +6515,12 @@
         <v>0</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O60" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O60" s="7" t="n">
         <v>45553.5758449074</v>
       </c>
     </row>
@@ -6503,13 +6529,13 @@
         <v>2.26702763141248E+019</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E61" s="1" t="n">
         <v>100</v>
@@ -6530,12 +6556,12 @@
         <v>0</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O61" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O61" s="7" t="n">
         <v>45555.1149305556</v>
       </c>
     </row>
@@ -6544,13 +6570,13 @@
         <v>2.26702847850628E+019</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E62" s="1" t="n">
         <v>100</v>
@@ -6571,12 +6597,12 @@
         <v>0</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O62" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O62" s="7" t="n">
         <v>45555.1383101852</v>
       </c>
     </row>
@@ -6585,13 +6611,13 @@
         <v>2.26704554452279E+019</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E63" s="1" t="n">
         <v>100</v>
@@ -6612,12 +6638,12 @@
         <v>0</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O63" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O63" s="7" t="n">
         <v>45555.6092361111</v>
       </c>
     </row>
@@ -6626,13 +6652,13 @@
         <v>2.26705870706876E+019</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E64" s="1" t="n">
         <v>100</v>
@@ -6653,12 +6679,12 @@
         <v>0</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O64" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O64" s="7" t="n">
         <v>45555.9724537037</v>
       </c>
     </row>
@@ -6667,13 +6693,13 @@
         <v>2.26706864033593E+019</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E65" s="1" t="n">
         <v>100</v>
@@ -6694,12 +6720,12 @@
         <v>0</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O65" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O65" s="7" t="n">
         <v>45556.2465625</v>
       </c>
     </row>
@@ -6708,13 +6734,13 @@
         <v>2.26707289483397E+019</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E66" s="1" t="n">
         <v>200</v>
@@ -6735,12 +6761,12 @@
         <v>0</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O66" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O66" s="7" t="n">
         <v>45556.3639699074</v>
       </c>
     </row>
@@ -6749,13 +6775,13 @@
         <v>2.26709480767333E+019</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E67" s="1" t="n">
         <v>100</v>
@@ -6776,12 +6802,12 @@
         <v>0</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O67" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O67" s="7" t="n">
         <v>45556.9686458333</v>
       </c>
     </row>

--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -232,13 +232,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="167" formatCode="yy\年m\月d\日"/>
-    <numFmt numFmtId="168" formatCode="yy\年m\月d\日"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-m\-d\ h:mm"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-m\-d\ h:mm"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -306,7 +305,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -327,15 +326,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -530,7 +525,7 @@
   <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.80078125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1086,12 +1081,19 @@
       <c r="B25" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="4" t="n">
         <v>45658</v>
       </c>
       <c r="D25" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
         <v>41728.79</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>45422.35</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <f aca="false">E25-D25</f>
+        <v>3693.56</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>7</v>
@@ -1659,11 +1661,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="5" t="n">
+    <row r="112" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="4" t="n">
         <v>45658</v>
       </c>
-      <c r="B112" s="0" t="n">
+      <c r="B112" s="1" t="n">
         <v>500</v>
       </c>
     </row>
@@ -1699,49 +1701,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1782,7 +1784,7 @@
       <c r="N2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="7" t="n">
+      <c r="O2" s="6" t="n">
         <v>45487.5465625</v>
       </c>
     </row>
@@ -1823,7 +1825,7 @@
       <c r="N3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="7" t="n">
+      <c r="O3" s="6" t="n">
         <v>45487.6104513889</v>
       </c>
     </row>
@@ -1864,7 +1866,7 @@
       <c r="N4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="7" t="n">
+      <c r="O4" s="6" t="n">
         <v>45487.6174884259</v>
       </c>
     </row>
@@ -1905,7 +1907,7 @@
       <c r="N5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>45488.5183796296</v>
       </c>
     </row>
@@ -1946,7 +1948,7 @@
       <c r="N6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="7" t="n">
+      <c r="O6" s="6" t="n">
         <v>45488.633287037</v>
       </c>
     </row>
@@ -1987,7 +1989,7 @@
       <c r="N7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="7" t="n">
+      <c r="O7" s="6" t="n">
         <v>45491.2978356481</v>
       </c>
     </row>
@@ -2028,7 +2030,7 @@
       <c r="N8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="7" t="n">
+      <c r="O8" s="6" t="n">
         <v>45496.0563541667</v>
       </c>
       <c r="Q8" s="1" t="n">
@@ -2072,7 +2074,7 @@
       <c r="N9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>45496.1959375</v>
       </c>
     </row>
@@ -2113,7 +2115,7 @@
       <c r="N10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="7" t="n">
+      <c r="O10" s="6" t="n">
         <v>45496.1993518519</v>
       </c>
     </row>
@@ -2154,7 +2156,7 @@
       <c r="N11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="7" t="n">
+      <c r="O11" s="6" t="n">
         <v>45496.2005439815</v>
       </c>
     </row>
@@ -2195,7 +2197,7 @@
       <c r="N12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="7" t="n">
+      <c r="O12" s="6" t="n">
         <v>45496.2248263889</v>
       </c>
     </row>
@@ -2236,7 +2238,7 @@
       <c r="N13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="7" t="n">
+      <c r="O13" s="6" t="n">
         <v>45496.2274884259</v>
       </c>
     </row>
@@ -2277,7 +2279,7 @@
       <c r="N14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="7" t="n">
+      <c r="O14" s="6" t="n">
         <v>45496.3918055556</v>
       </c>
     </row>
@@ -2318,7 +2320,7 @@
       <c r="N15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="7" t="n">
+      <c r="O15" s="6" t="n">
         <v>45496.5092013889</v>
       </c>
       <c r="Q15" s="1" t="n">
@@ -2362,7 +2364,7 @@
       <c r="N16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="7" t="n">
+      <c r="O16" s="6" t="n">
         <v>45496.5769907407</v>
       </c>
     </row>
@@ -2403,7 +2405,7 @@
       <c r="N17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O17" s="7" t="n">
+      <c r="O17" s="6" t="n">
         <v>45497.0155671296</v>
       </c>
     </row>
@@ -2444,7 +2446,7 @@
       <c r="N18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="7" t="n">
+      <c r="O18" s="6" t="n">
         <v>45497.0165393519</v>
       </c>
     </row>
@@ -2485,7 +2487,7 @@
       <c r="N19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="7" t="n">
+      <c r="O19" s="6" t="n">
         <v>45497.0171990741</v>
       </c>
     </row>
@@ -2526,7 +2528,7 @@
       <c r="N20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O20" s="7" t="n">
+      <c r="O20" s="6" t="n">
         <v>45497.0186574074</v>
       </c>
       <c r="Q20" s="1" t="n">
@@ -2570,7 +2572,7 @@
       <c r="N21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O21" s="7" t="n">
+      <c r="O21" s="6" t="n">
         <v>45497.1127777778</v>
       </c>
     </row>
@@ -2611,7 +2613,7 @@
       <c r="N22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O22" s="7" t="n">
+      <c r="O22" s="6" t="n">
         <v>45497.2090509259</v>
       </c>
     </row>
@@ -2652,7 +2654,7 @@
       <c r="N23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O23" s="7" t="n">
+      <c r="O23" s="6" t="n">
         <v>45497.2121759259</v>
       </c>
     </row>
@@ -2693,7 +2695,7 @@
       <c r="N24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O24" s="7" t="n">
+      <c r="O24" s="6" t="n">
         <v>45497.2759027778</v>
       </c>
       <c r="Q24" s="1" t="n">
@@ -2737,7 +2739,7 @@
       <c r="N25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O25" s="7" t="n">
+      <c r="O25" s="6" t="n">
         <v>45497.3439583333</v>
       </c>
     </row>
@@ -2778,7 +2780,7 @@
       <c r="N26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O26" s="7" t="n">
+      <c r="O26" s="6" t="n">
         <v>45497.377962963</v>
       </c>
     </row>
@@ -2819,7 +2821,7 @@
       <c r="N27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O27" s="7" t="n">
+      <c r="O27" s="6" t="n">
         <v>45497.3847800926</v>
       </c>
       <c r="Q27" s="1" t="n">
@@ -2863,7 +2865,7 @@
       <c r="N28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O28" s="7" t="n">
+      <c r="O28" s="6" t="n">
         <v>45497.4968865741</v>
       </c>
     </row>
@@ -2904,7 +2906,7 @@
       <c r="N29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O29" s="7" t="n">
+      <c r="O29" s="6" t="n">
         <v>45497.502037037</v>
       </c>
       <c r="Q29" s="1" t="n">
@@ -2948,7 +2950,7 @@
       <c r="N30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O30" s="7" t="n">
+      <c r="O30" s="6" t="n">
         <v>45498.0432060185</v>
       </c>
     </row>
@@ -2989,7 +2991,7 @@
       <c r="N31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O31" s="7" t="n">
+      <c r="O31" s="6" t="n">
         <v>45498.0474652778</v>
       </c>
     </row>
@@ -3030,7 +3032,7 @@
       <c r="N32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O32" s="7" t="n">
+      <c r="O32" s="6" t="n">
         <v>45498.2356481481</v>
       </c>
     </row>
@@ -3071,7 +3073,7 @@
       <c r="N33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O33" s="7" t="n">
+      <c r="O33" s="6" t="n">
         <v>45498.2371296296</v>
       </c>
     </row>
@@ -3112,7 +3114,7 @@
       <c r="N34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O34" s="7" t="n">
+      <c r="O34" s="6" t="n">
         <v>45498.3136689815</v>
       </c>
     </row>
@@ -3153,7 +3155,7 @@
       <c r="N35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O35" s="7" t="n">
+      <c r="O35" s="6" t="n">
         <v>45499.1188657407</v>
       </c>
     </row>
@@ -3194,7 +3196,7 @@
       <c r="N36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O36" s="7" t="n">
+      <c r="O36" s="6" t="n">
         <v>45500.5775694444</v>
       </c>
       <c r="Q36" s="1" t="n">
@@ -3238,7 +3240,7 @@
       <c r="N37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O37" s="7" t="n">
+      <c r="O37" s="6" t="n">
         <v>45500.5832638889</v>
       </c>
       <c r="Q37" s="1" t="n">
@@ -3282,7 +3284,7 @@
       <c r="N38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O38" s="7" t="n">
+      <c r="O38" s="6" t="n">
         <v>45501.1205902778</v>
       </c>
     </row>
@@ -3323,7 +3325,7 @@
       <c r="N39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O39" s="7" t="n">
+      <c r="O39" s="6" t="n">
         <v>45502.0353819444</v>
       </c>
       <c r="Q39" s="1" t="n">
@@ -3367,7 +3369,7 @@
       <c r="N40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O40" s="7" t="n">
+      <c r="O40" s="6" t="n">
         <v>45502.1117824074</v>
       </c>
     </row>
@@ -3408,7 +3410,7 @@
       <c r="N41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O41" s="7" t="n">
+      <c r="O41" s="6" t="n">
         <v>45502.3928356481</v>
       </c>
     </row>
@@ -3449,7 +3451,7 @@
       <c r="N42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O42" s="7" t="n">
+      <c r="O42" s="6" t="n">
         <v>45504.0733217593</v>
       </c>
     </row>
@@ -3490,7 +3492,7 @@
       <c r="N43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O43" s="7" t="n">
+      <c r="O43" s="6" t="n">
         <v>45504.0757060185</v>
       </c>
     </row>
@@ -3531,7 +3533,7 @@
       <c r="N44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O44" s="7" t="n">
+      <c r="O44" s="6" t="n">
         <v>45504.0773148148</v>
       </c>
     </row>
@@ -3572,7 +3574,7 @@
       <c r="N45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O45" s="7" t="n">
+      <c r="O45" s="6" t="n">
         <v>45504.2478240741</v>
       </c>
     </row>
@@ -3613,7 +3615,7 @@
       <c r="N46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O46" s="7" t="n">
+      <c r="O46" s="6" t="n">
         <v>45504.2495949074</v>
       </c>
     </row>
@@ -3654,7 +3656,7 @@
       <c r="N47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O47" s="7" t="n">
+      <c r="O47" s="6" t="n">
         <v>45505.2937384259</v>
       </c>
     </row>
@@ -3695,7 +3697,7 @@
       <c r="N48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O48" s="7" t="n">
+      <c r="O48" s="6" t="n">
         <v>45506.2853125</v>
       </c>
     </row>
@@ -3736,7 +3738,7 @@
       <c r="N49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O49" s="7" t="n">
+      <c r="O49" s="6" t="n">
         <v>45511.3414583333</v>
       </c>
     </row>
@@ -3777,7 +3779,7 @@
       <c r="N50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O50" s="7" t="n">
+      <c r="O50" s="6" t="n">
         <v>45515.2238773148</v>
       </c>
     </row>
@@ -3818,7 +3820,7 @@
       <c r="N51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O51" s="7" t="n">
+      <c r="O51" s="6" t="n">
         <v>45517.9828240741</v>
       </c>
     </row>
@@ -4142,7 +4144,7 @@
       <c r="N2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="7" t="n">
+      <c r="O2" s="6" t="n">
         <v>45487.5465625</v>
       </c>
     </row>
@@ -4183,7 +4185,7 @@
       <c r="N3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="7" t="n">
+      <c r="O3" s="6" t="n">
         <v>45487.6104513889</v>
       </c>
     </row>
@@ -4224,7 +4226,7 @@
       <c r="N4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="7" t="n">
+      <c r="O4" s="6" t="n">
         <v>45487.6174884259</v>
       </c>
     </row>
@@ -4265,7 +4267,7 @@
       <c r="N5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>45488.5183796296</v>
       </c>
     </row>
@@ -4306,7 +4308,7 @@
       <c r="N6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="7" t="n">
+      <c r="O6" s="6" t="n">
         <v>45488.633287037</v>
       </c>
     </row>
@@ -4347,7 +4349,7 @@
       <c r="N7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="7" t="n">
+      <c r="O7" s="6" t="n">
         <v>45491.2978356481</v>
       </c>
     </row>
@@ -4388,7 +4390,7 @@
       <c r="N8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="7" t="n">
+      <c r="O8" s="6" t="n">
         <v>45496.1959375</v>
       </c>
     </row>
@@ -4429,7 +4431,7 @@
       <c r="N9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>45496.1993518519</v>
       </c>
     </row>
@@ -4470,7 +4472,7 @@
       <c r="N10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="7" t="n">
+      <c r="O10" s="6" t="n">
         <v>45496.2005439815</v>
       </c>
     </row>
@@ -4511,7 +4513,7 @@
       <c r="N11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="7" t="n">
+      <c r="O11" s="6" t="n">
         <v>45496.2248263889</v>
       </c>
     </row>
@@ -4552,7 +4554,7 @@
       <c r="N12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="7" t="n">
+      <c r="O12" s="6" t="n">
         <v>45496.2274884259</v>
       </c>
     </row>
@@ -4593,7 +4595,7 @@
       <c r="N13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="7" t="n">
+      <c r="O13" s="6" t="n">
         <v>45496.3918055556</v>
       </c>
     </row>
@@ -4634,7 +4636,7 @@
       <c r="N14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="7" t="n">
+      <c r="O14" s="6" t="n">
         <v>45496.5769907407</v>
       </c>
     </row>
@@ -4675,7 +4677,7 @@
       <c r="N15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O15" s="7" t="n">
+      <c r="O15" s="6" t="n">
         <v>45497.0155671296</v>
       </c>
     </row>
@@ -4716,7 +4718,7 @@
       <c r="N16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="7" t="n">
+      <c r="O16" s="6" t="n">
         <v>45497.0165393519</v>
       </c>
     </row>
@@ -4757,7 +4759,7 @@
       <c r="N17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O17" s="7" t="n">
+      <c r="O17" s="6" t="n">
         <v>45497.0171990741</v>
       </c>
     </row>
@@ -4798,7 +4800,7 @@
       <c r="N18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="7" t="n">
+      <c r="O18" s="6" t="n">
         <v>45497.1127777778</v>
       </c>
     </row>
@@ -4839,7 +4841,7 @@
       <c r="N19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="7" t="n">
+      <c r="O19" s="6" t="n">
         <v>45497.2090509259</v>
       </c>
     </row>
@@ -4880,7 +4882,7 @@
       <c r="N20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O20" s="7" t="n">
+      <c r="O20" s="6" t="n">
         <v>45497.2121759259</v>
       </c>
     </row>
@@ -4921,7 +4923,7 @@
       <c r="N21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O21" s="7" t="n">
+      <c r="O21" s="6" t="n">
         <v>45497.3439583333</v>
       </c>
     </row>
@@ -4962,7 +4964,7 @@
       <c r="N22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O22" s="7" t="n">
+      <c r="O22" s="6" t="n">
         <v>45497.377962963</v>
       </c>
     </row>
@@ -5003,7 +5005,7 @@
       <c r="N23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O23" s="7" t="n">
+      <c r="O23" s="6" t="n">
         <v>45497.4968865741</v>
       </c>
     </row>
@@ -5044,7 +5046,7 @@
       <c r="N24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O24" s="7" t="n">
+      <c r="O24" s="6" t="n">
         <v>45498.0432060185</v>
       </c>
     </row>
@@ -5085,7 +5087,7 @@
       <c r="N25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O25" s="7" t="n">
+      <c r="O25" s="6" t="n">
         <v>45498.0474652778</v>
       </c>
     </row>
@@ -5126,7 +5128,7 @@
       <c r="N26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O26" s="7" t="n">
+      <c r="O26" s="6" t="n">
         <v>45498.2356481481</v>
       </c>
     </row>
@@ -5167,7 +5169,7 @@
       <c r="N27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O27" s="7" t="n">
+      <c r="O27" s="6" t="n">
         <v>45498.2371296296</v>
       </c>
     </row>
@@ -5208,7 +5210,7 @@
       <c r="N28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O28" s="7" t="n">
+      <c r="O28" s="6" t="n">
         <v>45498.3136689815</v>
       </c>
     </row>
@@ -5249,7 +5251,7 @@
       <c r="N29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O29" s="7" t="n">
+      <c r="O29" s="6" t="n">
         <v>45499.1188657407</v>
       </c>
     </row>
@@ -5290,7 +5292,7 @@
       <c r="N30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O30" s="7" t="n">
+      <c r="O30" s="6" t="n">
         <v>45501.1205902778</v>
       </c>
     </row>
@@ -5331,7 +5333,7 @@
       <c r="N31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O31" s="7" t="n">
+      <c r="O31" s="6" t="n">
         <v>45502.1117824074</v>
       </c>
     </row>
@@ -5372,7 +5374,7 @@
       <c r="N32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O32" s="7" t="n">
+      <c r="O32" s="6" t="n">
         <v>45502.3928356481</v>
       </c>
     </row>
@@ -5413,7 +5415,7 @@
       <c r="N33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O33" s="7" t="n">
+      <c r="O33" s="6" t="n">
         <v>45504.0733217593</v>
       </c>
     </row>
@@ -5454,7 +5456,7 @@
       <c r="N34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O34" s="7" t="n">
+      <c r="O34" s="6" t="n">
         <v>45504.0773148148</v>
       </c>
     </row>
@@ -5495,7 +5497,7 @@
       <c r="N35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O35" s="7" t="n">
+      <c r="O35" s="6" t="n">
         <v>45504.2478240741</v>
       </c>
     </row>
@@ -5536,7 +5538,7 @@
       <c r="N36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O36" s="7" t="n">
+      <c r="O36" s="6" t="n">
         <v>45504.2495949074</v>
       </c>
     </row>
@@ -5577,7 +5579,7 @@
       <c r="N37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O37" s="7" t="n">
+      <c r="O37" s="6" t="n">
         <v>45505.2937384259</v>
       </c>
     </row>
@@ -5618,7 +5620,7 @@
       <c r="N38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O38" s="7" t="n">
+      <c r="O38" s="6" t="n">
         <v>45506.2853125</v>
       </c>
     </row>
@@ -5659,7 +5661,7 @@
       <c r="N39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O39" s="7" t="n">
+      <c r="O39" s="6" t="n">
         <v>45511.3414583333</v>
       </c>
     </row>
@@ -5700,7 +5702,7 @@
       <c r="N40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O40" s="7" t="n">
+      <c r="O40" s="6" t="n">
         <v>45515.2238773148</v>
       </c>
     </row>
@@ -5741,7 +5743,7 @@
       <c r="N41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O41" s="7" t="n">
+      <c r="O41" s="6" t="n">
         <v>45517.9828240741</v>
       </c>
     </row>
@@ -5782,7 +5784,7 @@
       <c r="N42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O42" s="7" t="n">
+      <c r="O42" s="6" t="n">
         <v>45522.1146643519</v>
       </c>
     </row>
@@ -5823,7 +5825,7 @@
       <c r="N43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O43" s="7" t="n">
+      <c r="O43" s="6" t="n">
         <v>45524.0928935185</v>
       </c>
     </row>
@@ -5864,7 +5866,7 @@
       <c r="N44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O44" s="7" t="n">
+      <c r="O44" s="6" t="n">
         <v>45524.0944444444</v>
       </c>
     </row>
@@ -5905,7 +5907,7 @@
       <c r="N45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O45" s="7" t="n">
+      <c r="O45" s="6" t="n">
         <v>45524.096412037</v>
       </c>
     </row>
@@ -5946,7 +5948,7 @@
       <c r="N46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O46" s="7" t="n">
+      <c r="O46" s="6" t="n">
         <v>45529.0077546296</v>
       </c>
     </row>
@@ -5987,7 +5989,7 @@
       <c r="N47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O47" s="7" t="n">
+      <c r="O47" s="6" t="n">
         <v>45530.1879861111</v>
       </c>
     </row>
@@ -6028,7 +6030,7 @@
       <c r="N48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O48" s="7" t="n">
+      <c r="O48" s="6" t="n">
         <v>45531.2145833333</v>
       </c>
     </row>
@@ -6069,7 +6071,7 @@
       <c r="N49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O49" s="7" t="n">
+      <c r="O49" s="6" t="n">
         <v>45532.2722337963</v>
       </c>
     </row>
@@ -6110,7 +6112,7 @@
       <c r="N50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O50" s="7" t="n">
+      <c r="O50" s="6" t="n">
         <v>45533.2443518518</v>
       </c>
     </row>
@@ -6151,7 +6153,7 @@
       <c r="N51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O51" s="7" t="n">
+      <c r="O51" s="6" t="n">
         <v>45534.2372685185</v>
       </c>
     </row>
@@ -6192,7 +6194,7 @@
       <c r="N52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O52" s="7" t="n">
+      <c r="O52" s="6" t="n">
         <v>45535.4447800926</v>
       </c>
     </row>
@@ -6233,7 +6235,7 @@
       <c r="N53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O53" s="7" t="n">
+      <c r="O53" s="6" t="n">
         <v>45536.5289351852</v>
       </c>
     </row>
@@ -6274,7 +6276,7 @@
       <c r="N54" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O54" s="7" t="n">
+      <c r="O54" s="6" t="n">
         <v>45537.36375</v>
       </c>
     </row>
@@ -6315,7 +6317,7 @@
       <c r="N55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O55" s="7" t="n">
+      <c r="O55" s="6" t="n">
         <v>45541.500150463</v>
       </c>
     </row>
@@ -6356,7 +6358,7 @@
       <c r="N56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O56" s="7" t="n">
+      <c r="O56" s="6" t="n">
         <v>45544.0918402778</v>
       </c>
     </row>
@@ -6397,7 +6399,7 @@
       <c r="N57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O57" s="7" t="n">
+      <c r="O57" s="6" t="n">
         <v>45545.1949652778</v>
       </c>
     </row>
@@ -6438,7 +6440,7 @@
       <c r="N58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O58" s="7" t="n">
+      <c r="O58" s="6" t="n">
         <v>45545.9927199074</v>
       </c>
     </row>
@@ -6479,7 +6481,7 @@
       <c r="N59" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O59" s="7" t="n">
+      <c r="O59" s="6" t="n">
         <v>45546.5744675926</v>
       </c>
     </row>
@@ -6520,7 +6522,7 @@
       <c r="N60" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O60" s="7" t="n">
+      <c r="O60" s="6" t="n">
         <v>45553.5758449074</v>
       </c>
     </row>
@@ -6561,7 +6563,7 @@
       <c r="N61" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O61" s="7" t="n">
+      <c r="O61" s="6" t="n">
         <v>45555.1149305556</v>
       </c>
     </row>
@@ -6602,7 +6604,7 @@
       <c r="N62" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O62" s="7" t="n">
+      <c r="O62" s="6" t="n">
         <v>45555.1383101852</v>
       </c>
     </row>
@@ -6643,7 +6645,7 @@
       <c r="N63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O63" s="7" t="n">
+      <c r="O63" s="6" t="n">
         <v>45555.6092361111</v>
       </c>
     </row>
@@ -6684,7 +6686,7 @@
       <c r="N64" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O64" s="7" t="n">
+      <c r="O64" s="6" t="n">
         <v>45555.9724537037</v>
       </c>
     </row>
@@ -6725,7 +6727,7 @@
       <c r="N65" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O65" s="7" t="n">
+      <c r="O65" s="6" t="n">
         <v>45556.2465625</v>
       </c>
     </row>
@@ -6766,7 +6768,7 @@
       <c r="N66" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O66" s="7" t="n">
+      <c r="O66" s="6" t="n">
         <v>45556.3639699074</v>
       </c>
     </row>
@@ -6807,7 +6809,7 @@
       <c r="N67" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O67" s="7" t="n">
+      <c r="O67" s="6" t="n">
         <v>45556.9686458333</v>
       </c>
     </row>

--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -232,12 +232,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="167" formatCode="yy\年m\月d\日"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-m\-d\ h:mm"/>
+    <numFmt numFmtId="168" formatCode="yy\年m\月d\日"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-m\-d\ h:mm"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -305,7 +306,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -326,11 +327,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -522,22 +527,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.80078125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.6796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="9.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.97"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,14 +663,14 @@
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>851415.52</v>
+        <v>1079717.52</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>25860.51</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">E7-D7</f>
-        <v>-825555.01</v>
+        <v>-1053857.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,14 +685,14 @@
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>851415.52</v>
+        <v>1079717.52</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>26146.93</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">E8-D8</f>
-        <v>-825268.59</v>
+        <v>-1053570.59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,14 +707,14 @@
       </c>
       <c r="D9" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41728.79</v>
+        <v>42037.19</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>28964.52</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">E9-D9</f>
-        <v>-12764.27</v>
+        <v>-13072.67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,14 +729,14 @@
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41728.79</v>
+        <v>42037.19</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>30000</v>
       </c>
       <c r="F10" s="1" t="n">
         <f aca="false">E10-D10</f>
-        <v>-11728.79</v>
+        <v>-12037.19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,14 +751,14 @@
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41728.79</v>
+        <v>42037.19</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>29573</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">E11-D11</f>
-        <v>-12155.79</v>
+        <v>-12464.19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,14 +773,14 @@
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41728.79</v>
+        <v>42037.19</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>28972</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">E12-D12</f>
-        <v>-12756.79</v>
+        <v>-13065.19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,14 +795,14 @@
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41728.79</v>
+        <v>42037.19</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>30243.83</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">E13-D13</f>
-        <v>-11484.96</v>
+        <v>-11793.36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,14 +817,14 @@
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41728.79</v>
+        <v>42037.19</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>31046.96</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">E14-D14</f>
-        <v>-10681.83</v>
+        <v>-10990.23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -834,14 +839,14 @@
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41728.79</v>
+        <v>42037.19</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>32182.63</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">E15-D15</f>
-        <v>-9546.16</v>
+        <v>-9854.56</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>4564.91</v>
@@ -855,11 +860,11 @@
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-8587.5434</v>
+        <v>-8895.9434</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-8587.5434</v>
+        <v>-8895.9434</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -874,14 +879,14 @@
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41728.79</v>
+        <v>42037.19</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>36761.16</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">E16-D16</f>
-        <v>-4967.63</v>
+        <v>-5276.03</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>5236.63</v>
@@ -895,7 +900,7 @@
       </c>
       <c r="J16" s="1" t="n">
         <f aca="false">I16-D16</f>
-        <v>-3710.8562</v>
+        <v>-4019.2562</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -910,14 +915,14 @@
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41728.79</v>
+        <v>42037.19</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>38133.54</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">E17-D17</f>
-        <v>-3595.25</v>
+        <v>-3903.65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -932,14 +937,14 @@
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41728.79</v>
+        <v>42037.19</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>41866.21</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">E18-D18</f>
-        <v>137.419999999998</v>
+        <v>-170.980000000003</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -954,14 +959,14 @@
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41728.79</v>
+        <v>42037.19</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>42353.52</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">E19-D19</f>
-        <v>624.729999999996</v>
+        <v>316.329999999994</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -976,14 +981,14 @@
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41728.79</v>
+        <v>42037.19</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>44606.52</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">E20-D20</f>
-        <v>2877.73</v>
+        <v>2569.32999999999</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -998,14 +1003,14 @@
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41728.79</v>
+        <v>42037.19</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>44717.5</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">E21-D21</f>
-        <v>2988.71</v>
+        <v>2680.31</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1020,14 +1025,14 @@
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41728.79</v>
+        <v>42037.19</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>44960.44</v>
       </c>
       <c r="F22" s="1" t="n">
         <f aca="false">E22-D22</f>
-        <v>3231.65</v>
+        <v>2923.25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1042,14 +1047,14 @@
       </c>
       <c r="D23" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41728.79</v>
+        <v>42037.19</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>44920.45</v>
       </c>
       <c r="F23" s="1" t="n">
         <f aca="false">E23-D23</f>
-        <v>3191.66</v>
+        <v>2883.25999999999</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1064,14 +1069,14 @@
       </c>
       <c r="D24" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41728.79</v>
+        <v>42037.19</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>45119.03</v>
       </c>
       <c r="F24" s="1" t="n">
         <f aca="false">E24-D24</f>
-        <v>3390.24</v>
+        <v>3081.84</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1086,25 +1091,39 @@
       </c>
       <c r="D25" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>41728.79</v>
+        <v>42037.19</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>45422.35</v>
       </c>
       <c r="F25" s="1" t="n">
         <f aca="false">E25-D25</f>
-        <v>3693.56</v>
+        <v>3385.16</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>3000</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>1800</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>45661</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>42037.19</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>46603.55</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <f aca="false">E26-D26</f>
+        <v>4566.36</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,6 +1686,48 @@
       </c>
       <c r="B112" s="1" t="n">
         <v>500</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="5" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="5" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="5" t="n">
+        <v>45661</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="5" t="n">
+        <v>45661</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <f aca="false">-92*7.3</f>
+        <v>-671.6</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="5" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <f aca="false">-10*7.3</f>
+        <v>-73</v>
       </c>
     </row>
   </sheetData>
@@ -1691,59 +1752,59 @@
       <selection pane="topLeft" activeCell="L64" activeCellId="0" sqref="L64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.7890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="7.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="7.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="7.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="7.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.73"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="7.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="7.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1784,7 +1845,7 @@
       <c r="N2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="7" t="n">
         <v>45487.5465625</v>
       </c>
     </row>
@@ -1825,7 +1886,7 @@
       <c r="N3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="6" t="n">
+      <c r="O3" s="7" t="n">
         <v>45487.6104513889</v>
       </c>
     </row>
@@ -1866,7 +1927,7 @@
       <c r="N4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="6" t="n">
+      <c r="O4" s="7" t="n">
         <v>45487.6174884259</v>
       </c>
     </row>
@@ -1907,7 +1968,7 @@
       <c r="N5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>45488.5183796296</v>
       </c>
     </row>
@@ -1948,7 +2009,7 @@
       <c r="N6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="6" t="n">
+      <c r="O6" s="7" t="n">
         <v>45488.633287037</v>
       </c>
     </row>
@@ -1989,7 +2050,7 @@
       <c r="N7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="6" t="n">
+      <c r="O7" s="7" t="n">
         <v>45491.2978356481</v>
       </c>
     </row>
@@ -2030,7 +2091,7 @@
       <c r="N8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="6" t="n">
+      <c r="O8" s="7" t="n">
         <v>45496.0563541667</v>
       </c>
       <c r="Q8" s="1" t="n">
@@ -2074,7 +2135,7 @@
       <c r="N9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="O9" s="7" t="n">
         <v>45496.1959375</v>
       </c>
     </row>
@@ -2115,7 +2176,7 @@
       <c r="N10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="6" t="n">
+      <c r="O10" s="7" t="n">
         <v>45496.1993518519</v>
       </c>
     </row>
@@ -2156,7 +2217,7 @@
       <c r="N11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="6" t="n">
+      <c r="O11" s="7" t="n">
         <v>45496.2005439815</v>
       </c>
     </row>
@@ -2197,7 +2258,7 @@
       <c r="N12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="6" t="n">
+      <c r="O12" s="7" t="n">
         <v>45496.2248263889</v>
       </c>
     </row>
@@ -2238,7 +2299,7 @@
       <c r="N13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="6" t="n">
+      <c r="O13" s="7" t="n">
         <v>45496.2274884259</v>
       </c>
     </row>
@@ -2279,7 +2340,7 @@
       <c r="N14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="6" t="n">
+      <c r="O14" s="7" t="n">
         <v>45496.3918055556</v>
       </c>
     </row>
@@ -2320,7 +2381,7 @@
       <c r="N15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="6" t="n">
+      <c r="O15" s="7" t="n">
         <v>45496.5092013889</v>
       </c>
       <c r="Q15" s="1" t="n">
@@ -2364,7 +2425,7 @@
       <c r="N16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="6" t="n">
+      <c r="O16" s="7" t="n">
         <v>45496.5769907407</v>
       </c>
     </row>
@@ -2405,7 +2466,7 @@
       <c r="N17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O17" s="6" t="n">
+      <c r="O17" s="7" t="n">
         <v>45497.0155671296</v>
       </c>
     </row>
@@ -2446,7 +2507,7 @@
       <c r="N18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="6" t="n">
+      <c r="O18" s="7" t="n">
         <v>45497.0165393519</v>
       </c>
     </row>
@@ -2487,7 +2548,7 @@
       <c r="N19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="6" t="n">
+      <c r="O19" s="7" t="n">
         <v>45497.0171990741</v>
       </c>
     </row>
@@ -2528,7 +2589,7 @@
       <c r="N20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O20" s="6" t="n">
+      <c r="O20" s="7" t="n">
         <v>45497.0186574074</v>
       </c>
       <c r="Q20" s="1" t="n">
@@ -2572,7 +2633,7 @@
       <c r="N21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O21" s="6" t="n">
+      <c r="O21" s="7" t="n">
         <v>45497.1127777778</v>
       </c>
     </row>
@@ -2613,7 +2674,7 @@
       <c r="N22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O22" s="6" t="n">
+      <c r="O22" s="7" t="n">
         <v>45497.2090509259</v>
       </c>
     </row>
@@ -2654,7 +2715,7 @@
       <c r="N23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O23" s="6" t="n">
+      <c r="O23" s="7" t="n">
         <v>45497.2121759259</v>
       </c>
     </row>
@@ -2695,7 +2756,7 @@
       <c r="N24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O24" s="6" t="n">
+      <c r="O24" s="7" t="n">
         <v>45497.2759027778</v>
       </c>
       <c r="Q24" s="1" t="n">
@@ -2739,7 +2800,7 @@
       <c r="N25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O25" s="6" t="n">
+      <c r="O25" s="7" t="n">
         <v>45497.3439583333</v>
       </c>
     </row>
@@ -2780,7 +2841,7 @@
       <c r="N26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O26" s="6" t="n">
+      <c r="O26" s="7" t="n">
         <v>45497.377962963</v>
       </c>
     </row>
@@ -2821,7 +2882,7 @@
       <c r="N27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O27" s="6" t="n">
+      <c r="O27" s="7" t="n">
         <v>45497.3847800926</v>
       </c>
       <c r="Q27" s="1" t="n">
@@ -2865,7 +2926,7 @@
       <c r="N28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O28" s="6" t="n">
+      <c r="O28" s="7" t="n">
         <v>45497.4968865741</v>
       </c>
     </row>
@@ -2906,7 +2967,7 @@
       <c r="N29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O29" s="6" t="n">
+      <c r="O29" s="7" t="n">
         <v>45497.502037037</v>
       </c>
       <c r="Q29" s="1" t="n">
@@ -2950,7 +3011,7 @@
       <c r="N30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O30" s="6" t="n">
+      <c r="O30" s="7" t="n">
         <v>45498.0432060185</v>
       </c>
     </row>
@@ -2991,7 +3052,7 @@
       <c r="N31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O31" s="6" t="n">
+      <c r="O31" s="7" t="n">
         <v>45498.0474652778</v>
       </c>
     </row>
@@ -3032,7 +3093,7 @@
       <c r="N32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O32" s="6" t="n">
+      <c r="O32" s="7" t="n">
         <v>45498.2356481481</v>
       </c>
     </row>
@@ -3073,7 +3134,7 @@
       <c r="N33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O33" s="6" t="n">
+      <c r="O33" s="7" t="n">
         <v>45498.2371296296</v>
       </c>
     </row>
@@ -3114,7 +3175,7 @@
       <c r="N34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O34" s="6" t="n">
+      <c r="O34" s="7" t="n">
         <v>45498.3136689815</v>
       </c>
     </row>
@@ -3155,7 +3216,7 @@
       <c r="N35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O35" s="6" t="n">
+      <c r="O35" s="7" t="n">
         <v>45499.1188657407</v>
       </c>
     </row>
@@ -3196,7 +3257,7 @@
       <c r="N36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O36" s="6" t="n">
+      <c r="O36" s="7" t="n">
         <v>45500.5775694444</v>
       </c>
       <c r="Q36" s="1" t="n">
@@ -3240,7 +3301,7 @@
       <c r="N37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O37" s="6" t="n">
+      <c r="O37" s="7" t="n">
         <v>45500.5832638889</v>
       </c>
       <c r="Q37" s="1" t="n">
@@ -3284,7 +3345,7 @@
       <c r="N38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O38" s="6" t="n">
+      <c r="O38" s="7" t="n">
         <v>45501.1205902778</v>
       </c>
     </row>
@@ -3325,7 +3386,7 @@
       <c r="N39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O39" s="6" t="n">
+      <c r="O39" s="7" t="n">
         <v>45502.0353819444</v>
       </c>
       <c r="Q39" s="1" t="n">
@@ -3369,7 +3430,7 @@
       <c r="N40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O40" s="6" t="n">
+      <c r="O40" s="7" t="n">
         <v>45502.1117824074</v>
       </c>
     </row>
@@ -3410,7 +3471,7 @@
       <c r="N41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O41" s="6" t="n">
+      <c r="O41" s="7" t="n">
         <v>45502.3928356481</v>
       </c>
     </row>
@@ -3451,7 +3512,7 @@
       <c r="N42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O42" s="6" t="n">
+      <c r="O42" s="7" t="n">
         <v>45504.0733217593</v>
       </c>
     </row>
@@ -3492,7 +3553,7 @@
       <c r="N43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O43" s="6" t="n">
+      <c r="O43" s="7" t="n">
         <v>45504.0757060185</v>
       </c>
     </row>
@@ -3533,7 +3594,7 @@
       <c r="N44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O44" s="6" t="n">
+      <c r="O44" s="7" t="n">
         <v>45504.0773148148</v>
       </c>
     </row>
@@ -3574,7 +3635,7 @@
       <c r="N45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O45" s="6" t="n">
+      <c r="O45" s="7" t="n">
         <v>45504.2478240741</v>
       </c>
     </row>
@@ -3615,7 +3676,7 @@
       <c r="N46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O46" s="6" t="n">
+      <c r="O46" s="7" t="n">
         <v>45504.2495949074</v>
       </c>
     </row>
@@ -3656,7 +3717,7 @@
       <c r="N47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O47" s="6" t="n">
+      <c r="O47" s="7" t="n">
         <v>45505.2937384259</v>
       </c>
     </row>
@@ -3697,7 +3758,7 @@
       <c r="N48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O48" s="6" t="n">
+      <c r="O48" s="7" t="n">
         <v>45506.2853125</v>
       </c>
     </row>
@@ -3738,7 +3799,7 @@
       <c r="N49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O49" s="6" t="n">
+      <c r="O49" s="7" t="n">
         <v>45511.3414583333</v>
       </c>
     </row>
@@ -3779,7 +3840,7 @@
       <c r="N50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O50" s="6" t="n">
+      <c r="O50" s="7" t="n">
         <v>45515.2238773148</v>
       </c>
     </row>
@@ -3820,7 +3881,7 @@
       <c r="N51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O51" s="6" t="n">
+      <c r="O51" s="7" t="n">
         <v>45517.9828240741</v>
       </c>
     </row>
@@ -4054,10 +4115,10 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.7890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="7.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4144,7 +4205,7 @@
       <c r="N2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="7" t="n">
         <v>45487.5465625</v>
       </c>
     </row>
@@ -4185,7 +4246,7 @@
       <c r="N3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="6" t="n">
+      <c r="O3" s="7" t="n">
         <v>45487.6104513889</v>
       </c>
     </row>
@@ -4226,7 +4287,7 @@
       <c r="N4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="6" t="n">
+      <c r="O4" s="7" t="n">
         <v>45487.6174884259</v>
       </c>
     </row>
@@ -4267,7 +4328,7 @@
       <c r="N5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>45488.5183796296</v>
       </c>
     </row>
@@ -4308,7 +4369,7 @@
       <c r="N6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="6" t="n">
+      <c r="O6" s="7" t="n">
         <v>45488.633287037</v>
       </c>
     </row>
@@ -4349,7 +4410,7 @@
       <c r="N7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="6" t="n">
+      <c r="O7" s="7" t="n">
         <v>45491.2978356481</v>
       </c>
     </row>
@@ -4390,7 +4451,7 @@
       <c r="N8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="6" t="n">
+      <c r="O8" s="7" t="n">
         <v>45496.1959375</v>
       </c>
     </row>
@@ -4431,7 +4492,7 @@
       <c r="N9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="O9" s="7" t="n">
         <v>45496.1993518519</v>
       </c>
     </row>
@@ -4472,7 +4533,7 @@
       <c r="N10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="6" t="n">
+      <c r="O10" s="7" t="n">
         <v>45496.2005439815</v>
       </c>
     </row>
@@ -4513,7 +4574,7 @@
       <c r="N11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="6" t="n">
+      <c r="O11" s="7" t="n">
         <v>45496.2248263889</v>
       </c>
     </row>
@@ -4554,7 +4615,7 @@
       <c r="N12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="6" t="n">
+      <c r="O12" s="7" t="n">
         <v>45496.2274884259</v>
       </c>
     </row>
@@ -4595,7 +4656,7 @@
       <c r="N13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="6" t="n">
+      <c r="O13" s="7" t="n">
         <v>45496.3918055556</v>
       </c>
     </row>
@@ -4636,7 +4697,7 @@
       <c r="N14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="6" t="n">
+      <c r="O14" s="7" t="n">
         <v>45496.5769907407</v>
       </c>
     </row>
@@ -4677,7 +4738,7 @@
       <c r="N15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O15" s="6" t="n">
+      <c r="O15" s="7" t="n">
         <v>45497.0155671296</v>
       </c>
     </row>
@@ -4718,7 +4779,7 @@
       <c r="N16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="6" t="n">
+      <c r="O16" s="7" t="n">
         <v>45497.0165393519</v>
       </c>
     </row>
@@ -4759,7 +4820,7 @@
       <c r="N17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O17" s="6" t="n">
+      <c r="O17" s="7" t="n">
         <v>45497.0171990741</v>
       </c>
     </row>
@@ -4800,7 +4861,7 @@
       <c r="N18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="6" t="n">
+      <c r="O18" s="7" t="n">
         <v>45497.1127777778</v>
       </c>
     </row>
@@ -4841,7 +4902,7 @@
       <c r="N19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="6" t="n">
+      <c r="O19" s="7" t="n">
         <v>45497.2090509259</v>
       </c>
     </row>
@@ -4882,7 +4943,7 @@
       <c r="N20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O20" s="6" t="n">
+      <c r="O20" s="7" t="n">
         <v>45497.2121759259</v>
       </c>
     </row>
@@ -4923,7 +4984,7 @@
       <c r="N21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O21" s="6" t="n">
+      <c r="O21" s="7" t="n">
         <v>45497.3439583333</v>
       </c>
     </row>
@@ -4964,7 +5025,7 @@
       <c r="N22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O22" s="6" t="n">
+      <c r="O22" s="7" t="n">
         <v>45497.377962963</v>
       </c>
     </row>
@@ -5005,7 +5066,7 @@
       <c r="N23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O23" s="6" t="n">
+      <c r="O23" s="7" t="n">
         <v>45497.4968865741</v>
       </c>
     </row>
@@ -5046,7 +5107,7 @@
       <c r="N24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O24" s="6" t="n">
+      <c r="O24" s="7" t="n">
         <v>45498.0432060185</v>
       </c>
     </row>
@@ -5087,7 +5148,7 @@
       <c r="N25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O25" s="6" t="n">
+      <c r="O25" s="7" t="n">
         <v>45498.0474652778</v>
       </c>
     </row>
@@ -5128,7 +5189,7 @@
       <c r="N26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O26" s="6" t="n">
+      <c r="O26" s="7" t="n">
         <v>45498.2356481481</v>
       </c>
     </row>
@@ -5169,7 +5230,7 @@
       <c r="N27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O27" s="6" t="n">
+      <c r="O27" s="7" t="n">
         <v>45498.2371296296</v>
       </c>
     </row>
@@ -5210,7 +5271,7 @@
       <c r="N28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O28" s="6" t="n">
+      <c r="O28" s="7" t="n">
         <v>45498.3136689815</v>
       </c>
     </row>
@@ -5251,7 +5312,7 @@
       <c r="N29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O29" s="6" t="n">
+      <c r="O29" s="7" t="n">
         <v>45499.1188657407</v>
       </c>
     </row>
@@ -5292,7 +5353,7 @@
       <c r="N30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O30" s="6" t="n">
+      <c r="O30" s="7" t="n">
         <v>45501.1205902778</v>
       </c>
     </row>
@@ -5333,7 +5394,7 @@
       <c r="N31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O31" s="6" t="n">
+      <c r="O31" s="7" t="n">
         <v>45502.1117824074</v>
       </c>
     </row>
@@ -5374,7 +5435,7 @@
       <c r="N32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O32" s="6" t="n">
+      <c r="O32" s="7" t="n">
         <v>45502.3928356481</v>
       </c>
     </row>
@@ -5415,7 +5476,7 @@
       <c r="N33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O33" s="6" t="n">
+      <c r="O33" s="7" t="n">
         <v>45504.0733217593</v>
       </c>
     </row>
@@ -5456,7 +5517,7 @@
       <c r="N34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O34" s="6" t="n">
+      <c r="O34" s="7" t="n">
         <v>45504.0773148148</v>
       </c>
     </row>
@@ -5497,7 +5558,7 @@
       <c r="N35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O35" s="6" t="n">
+      <c r="O35" s="7" t="n">
         <v>45504.2478240741</v>
       </c>
     </row>
@@ -5538,7 +5599,7 @@
       <c r="N36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O36" s="6" t="n">
+      <c r="O36" s="7" t="n">
         <v>45504.2495949074</v>
       </c>
     </row>
@@ -5579,7 +5640,7 @@
       <c r="N37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O37" s="6" t="n">
+      <c r="O37" s="7" t="n">
         <v>45505.2937384259</v>
       </c>
     </row>
@@ -5620,7 +5681,7 @@
       <c r="N38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O38" s="6" t="n">
+      <c r="O38" s="7" t="n">
         <v>45506.2853125</v>
       </c>
     </row>
@@ -5661,7 +5722,7 @@
       <c r="N39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O39" s="6" t="n">
+      <c r="O39" s="7" t="n">
         <v>45511.3414583333</v>
       </c>
     </row>
@@ -5702,7 +5763,7 @@
       <c r="N40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O40" s="6" t="n">
+      <c r="O40" s="7" t="n">
         <v>45515.2238773148</v>
       </c>
     </row>
@@ -5743,7 +5804,7 @@
       <c r="N41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O41" s="6" t="n">
+      <c r="O41" s="7" t="n">
         <v>45517.9828240741</v>
       </c>
     </row>
@@ -5784,7 +5845,7 @@
       <c r="N42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O42" s="6" t="n">
+      <c r="O42" s="7" t="n">
         <v>45522.1146643519</v>
       </c>
     </row>
@@ -5825,7 +5886,7 @@
       <c r="N43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O43" s="6" t="n">
+      <c r="O43" s="7" t="n">
         <v>45524.0928935185</v>
       </c>
     </row>
@@ -5866,7 +5927,7 @@
       <c r="N44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O44" s="6" t="n">
+      <c r="O44" s="7" t="n">
         <v>45524.0944444444</v>
       </c>
     </row>
@@ -5907,7 +5968,7 @@
       <c r="N45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O45" s="6" t="n">
+      <c r="O45" s="7" t="n">
         <v>45524.096412037</v>
       </c>
     </row>
@@ -5948,7 +6009,7 @@
       <c r="N46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O46" s="6" t="n">
+      <c r="O46" s="7" t="n">
         <v>45529.0077546296</v>
       </c>
     </row>
@@ -5989,7 +6050,7 @@
       <c r="N47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O47" s="6" t="n">
+      <c r="O47" s="7" t="n">
         <v>45530.1879861111</v>
       </c>
     </row>
@@ -6030,7 +6091,7 @@
       <c r="N48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O48" s="6" t="n">
+      <c r="O48" s="7" t="n">
         <v>45531.2145833333</v>
       </c>
     </row>
@@ -6071,7 +6132,7 @@
       <c r="N49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O49" s="6" t="n">
+      <c r="O49" s="7" t="n">
         <v>45532.2722337963</v>
       </c>
     </row>
@@ -6112,7 +6173,7 @@
       <c r="N50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O50" s="6" t="n">
+      <c r="O50" s="7" t="n">
         <v>45533.2443518518</v>
       </c>
     </row>
@@ -6153,7 +6214,7 @@
       <c r="N51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O51" s="6" t="n">
+      <c r="O51" s="7" t="n">
         <v>45534.2372685185</v>
       </c>
     </row>
@@ -6194,7 +6255,7 @@
       <c r="N52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O52" s="6" t="n">
+      <c r="O52" s="7" t="n">
         <v>45535.4447800926</v>
       </c>
     </row>
@@ -6235,7 +6296,7 @@
       <c r="N53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O53" s="6" t="n">
+      <c r="O53" s="7" t="n">
         <v>45536.5289351852</v>
       </c>
     </row>
@@ -6276,7 +6337,7 @@
       <c r="N54" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O54" s="6" t="n">
+      <c r="O54" s="7" t="n">
         <v>45537.36375</v>
       </c>
     </row>
@@ -6317,7 +6378,7 @@
       <c r="N55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O55" s="6" t="n">
+      <c r="O55" s="7" t="n">
         <v>45541.500150463</v>
       </c>
     </row>
@@ -6358,7 +6419,7 @@
       <c r="N56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O56" s="6" t="n">
+      <c r="O56" s="7" t="n">
         <v>45544.0918402778</v>
       </c>
     </row>
@@ -6399,7 +6460,7 @@
       <c r="N57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O57" s="6" t="n">
+      <c r="O57" s="7" t="n">
         <v>45545.1949652778</v>
       </c>
     </row>
@@ -6440,7 +6501,7 @@
       <c r="N58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O58" s="6" t="n">
+      <c r="O58" s="7" t="n">
         <v>45545.9927199074</v>
       </c>
     </row>
@@ -6481,7 +6542,7 @@
       <c r="N59" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O59" s="6" t="n">
+      <c r="O59" s="7" t="n">
         <v>45546.5744675926</v>
       </c>
     </row>
@@ -6522,7 +6583,7 @@
       <c r="N60" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O60" s="6" t="n">
+      <c r="O60" s="7" t="n">
         <v>45553.5758449074</v>
       </c>
     </row>
@@ -6563,7 +6624,7 @@
       <c r="N61" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O61" s="6" t="n">
+      <c r="O61" s="7" t="n">
         <v>45555.1149305556</v>
       </c>
     </row>
@@ -6604,7 +6665,7 @@
       <c r="N62" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O62" s="6" t="n">
+      <c r="O62" s="7" t="n">
         <v>45555.1383101852</v>
       </c>
     </row>
@@ -6645,7 +6706,7 @@
       <c r="N63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O63" s="6" t="n">
+      <c r="O63" s="7" t="n">
         <v>45555.6092361111</v>
       </c>
     </row>
@@ -6686,7 +6747,7 @@
       <c r="N64" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O64" s="6" t="n">
+      <c r="O64" s="7" t="n">
         <v>45555.9724537037</v>
       </c>
     </row>
@@ -6727,7 +6788,7 @@
       <c r="N65" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O65" s="6" t="n">
+      <c r="O65" s="7" t="n">
         <v>45556.2465625</v>
       </c>
     </row>
@@ -6768,7 +6829,7 @@
       <c r="N66" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O66" s="6" t="n">
+      <c r="O66" s="7" t="n">
         <v>45556.3639699074</v>
       </c>
     </row>
@@ -6809,7 +6870,7 @@
       <c r="N67" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O67" s="6" t="n">
+      <c r="O67" s="7" t="n">
         <v>45556.9686458333</v>
       </c>
     </row>

--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -527,22 +527,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.6796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.55859375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="9.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="9.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,14 +663,14 @@
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>1079717.52</v>
+        <v>1125380.52</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>25860.51</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">E7-D7</f>
-        <v>-1053857.01</v>
+        <v>-1099520.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,14 +685,14 @@
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>1079717.52</v>
+        <v>1125380.52</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>26146.93</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">E8-D8</f>
-        <v>-1053570.59</v>
+        <v>-1099233.59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -707,14 +707,14 @@
       </c>
       <c r="D9" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>42037.19</v>
+        <v>43037.19</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>28964.52</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">E9-D9</f>
-        <v>-13072.67</v>
+        <v>-14072.67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,14 +729,14 @@
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>42037.19</v>
+        <v>43037.19</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>30000</v>
       </c>
       <c r="F10" s="1" t="n">
         <f aca="false">E10-D10</f>
-        <v>-12037.19</v>
+        <v>-13037.19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,14 +751,14 @@
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>42037.19</v>
+        <v>43037.19</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>29573</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">E11-D11</f>
-        <v>-12464.19</v>
+        <v>-13464.19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -773,14 +773,14 @@
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>42037.19</v>
+        <v>43037.19</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>28972</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">E12-D12</f>
-        <v>-13065.19</v>
+        <v>-14065.19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,14 +795,14 @@
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>42037.19</v>
+        <v>43037.19</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>30243.83</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">E13-D13</f>
-        <v>-11793.36</v>
+        <v>-12793.36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -817,14 +817,14 @@
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>42037.19</v>
+        <v>43037.19</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>31046.96</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">E14-D14</f>
-        <v>-10990.23</v>
+        <v>-11990.23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -839,14 +839,14 @@
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>42037.19</v>
+        <v>43037.19</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>32182.63</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">E15-D15</f>
-        <v>-9854.56</v>
+        <v>-10854.56</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>4564.91</v>
@@ -860,11 +860,11 @@
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-8895.9434</v>
+        <v>-9895.9434</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-8895.9434</v>
+        <v>-9895.9434</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -879,14 +879,14 @@
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>42037.19</v>
+        <v>43037.19</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>36761.16</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">E16-D16</f>
-        <v>-5276.03</v>
+        <v>-6276.03</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>5236.63</v>
@@ -900,7 +900,7 @@
       </c>
       <c r="J16" s="1" t="n">
         <f aca="false">I16-D16</f>
-        <v>-4019.2562</v>
+        <v>-5019.2562</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -915,14 +915,14 @@
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>42037.19</v>
+        <v>43037.19</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>38133.54</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">E17-D17</f>
-        <v>-3903.65</v>
+        <v>-4903.65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,14 +937,14 @@
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>42037.19</v>
+        <v>43037.19</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>41866.21</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">E18-D18</f>
-        <v>-170.980000000003</v>
+        <v>-1170.98</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -959,14 +959,14 @@
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>42037.19</v>
+        <v>43037.19</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>42353.52</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">E19-D19</f>
-        <v>316.329999999994</v>
+        <v>-683.670000000006</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -981,14 +981,14 @@
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>42037.19</v>
+        <v>43037.19</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>44606.52</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">E20-D20</f>
-        <v>2569.32999999999</v>
+        <v>1569.32999999999</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>42037.19</v>
+        <v>43037.19</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>44717.5</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">E21-D21</f>
-        <v>2680.31</v>
+        <v>1680.31</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1025,14 +1025,14 @@
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>42037.19</v>
+        <v>43037.19</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>44960.44</v>
       </c>
       <c r="F22" s="1" t="n">
         <f aca="false">E22-D22</f>
-        <v>2923.25</v>
+        <v>1923.25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="D23" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>42037.19</v>
+        <v>43037.19</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>44920.45</v>
       </c>
       <c r="F23" s="1" t="n">
         <f aca="false">E23-D23</f>
-        <v>2883.25999999999</v>
+        <v>1883.25999999999</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1069,14 +1069,14 @@
       </c>
       <c r="D24" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>42037.19</v>
+        <v>43037.19</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>45119.03</v>
       </c>
       <c r="F24" s="1" t="n">
         <f aca="false">E24-D24</f>
-        <v>3081.84</v>
+        <v>2081.84</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="D25" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>42037.19</v>
+        <v>43037.19</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>45422.35</v>
       </c>
       <c r="F25" s="1" t="n">
         <f aca="false">E25-D25</f>
-        <v>3385.16</v>
+        <v>2385.16</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>7</v>
@@ -1111,27 +1111,41 @@
       <c r="B26" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" s="4" t="n">
         <v>45661</v>
       </c>
       <c r="D26" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>42037.19</v>
+        <v>43037.19</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>46603.55</v>
       </c>
       <c r="F26" s="1" t="n">
         <f aca="false">E26-D26</f>
-        <v>4566.36</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3566.36</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>1200</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>45663</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43037.19</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>48043.68</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <f aca="false">E27-D27</f>
+        <v>5006.49</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1688,47 +1702,61 @@
         <v>500</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="5" t="n">
+    <row r="113" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="4" t="n">
         <v>45660</v>
       </c>
-      <c r="B113" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="5" t="n">
+      <c r="B113" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="4" t="n">
         <v>45660</v>
       </c>
-      <c r="B114" s="0" t="n">
+      <c r="B114" s="1" t="n">
         <v>73</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="5" t="n">
+    <row r="115" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="4" t="n">
         <v>45661</v>
       </c>
-      <c r="B115" s="0" t="n">
+      <c r="B115" s="1" t="n">
         <v>880</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="5" t="n">
+    <row r="116" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="n">
         <v>45661</v>
       </c>
-      <c r="B116" s="0" t="n">
+      <c r="B116" s="1" t="n">
         <f aca="false">-92*7.3</f>
         <v>-671.6</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="5" t="n">
+    <row r="117" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4" t="n">
         <v>45660</v>
       </c>
-      <c r="B117" s="0" t="n">
+      <c r="B117" s="1" t="n">
         <f aca="false">-10*7.3</f>
         <v>-73</v>
       </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="5" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="5"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1752,13 +1780,13 @@
       <selection pane="topLeft" activeCell="L64" activeCellId="0" sqref="L64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.54296875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="7.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.73"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="7.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.55"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="7.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="7.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="7.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="7.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4115,10 +4143,10 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.54296875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="7.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="7.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="BTC" sheetId="1" state="visible" r:id="rId3"/>
@@ -160,7 +160,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -333,20 +333,20 @@
   </sheetPr>
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.4375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.31640625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="9.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="9.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -467,14 +467,14 @@
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>1125380.52</v>
+        <v>1216708.52</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>25860.51</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">E7-D7</f>
-        <v>-1099520.01</v>
+        <v>-1190848.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -489,14 +489,14 @@
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>1125380.52</v>
+        <v>1216708.52</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>26146.93</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">E8-D8</f>
-        <v>-1099233.59</v>
+        <v>-1190561.59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -511,14 +511,14 @@
       </c>
       <c r="D9" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>43037.19</v>
+        <v>44037.19</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>28964.52</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">E9-D9</f>
-        <v>-14072.67</v>
+        <v>-15072.67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -533,14 +533,14 @@
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>43037.19</v>
+        <v>44037.19</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>30000</v>
       </c>
       <c r="F10" s="1" t="n">
         <f aca="false">E10-D10</f>
-        <v>-13037.19</v>
+        <v>-14037.19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -555,14 +555,14 @@
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>43037.19</v>
+        <v>44037.19</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>29573</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">E11-D11</f>
-        <v>-13464.19</v>
+        <v>-14464.19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,14 +577,14 @@
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>43037.19</v>
+        <v>44037.19</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>28972</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">E12-D12</f>
-        <v>-14065.19</v>
+        <v>-15065.19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -599,14 +599,14 @@
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>43037.19</v>
+        <v>44037.19</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>30243.83</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">E13-D13</f>
-        <v>-12793.36</v>
+        <v>-13793.36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,14 +621,14 @@
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>43037.19</v>
+        <v>44037.19</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>31046.96</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">E14-D14</f>
-        <v>-11990.23</v>
+        <v>-12990.23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,14 +643,14 @@
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>43037.19</v>
+        <v>44037.19</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>32182.63</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">E15-D15</f>
-        <v>-10854.56</v>
+        <v>-11854.56</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>4564.91</v>
@@ -664,11 +664,11 @@
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-9895.9434</v>
+        <v>-10895.9434</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-9895.9434</v>
+        <v>-10895.9434</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -683,14 +683,14 @@
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>43037.19</v>
+        <v>44037.19</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>36761.16</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">E16-D16</f>
-        <v>-6276.03</v>
+        <v>-7276.03</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>5236.63</v>
@@ -704,7 +704,7 @@
       </c>
       <c r="J16" s="1" t="n">
         <f aca="false">I16-D16</f>
-        <v>-5019.2562</v>
+        <v>-6019.2562</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -719,14 +719,14 @@
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>43037.19</v>
+        <v>44037.19</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>38133.54</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">E17-D17</f>
-        <v>-4903.65</v>
+        <v>-5903.65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -741,14 +741,14 @@
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>43037.19</v>
+        <v>44037.19</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>41866.21</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">E18-D18</f>
-        <v>-1170.98</v>
+        <v>-2170.98</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -763,14 +763,14 @@
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>43037.19</v>
+        <v>44037.19</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>42353.52</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">E19-D19</f>
-        <v>-683.670000000006</v>
+        <v>-1683.67000000001</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,14 +785,14 @@
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>43037.19</v>
+        <v>44037.19</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>44606.52</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">E20-D20</f>
-        <v>1569.32999999999</v>
+        <v>569.329999999995</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,14 +807,14 @@
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>43037.19</v>
+        <v>44037.19</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>44717.5</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">E21-D21</f>
-        <v>1680.31</v>
+        <v>680.309999999998</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,14 +829,14 @@
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>43037.19</v>
+        <v>44037.19</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>44960.44</v>
       </c>
       <c r="F22" s="1" t="n">
         <f aca="false">E22-D22</f>
-        <v>1923.25</v>
+        <v>923.25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -851,14 +851,14 @@
       </c>
       <c r="D23" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>43037.19</v>
+        <v>44037.19</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>44920.45</v>
       </c>
       <c r="F23" s="1" t="n">
         <f aca="false">E23-D23</f>
-        <v>1883.25999999999</v>
+        <v>883.259999999995</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,14 +873,14 @@
       </c>
       <c r="D24" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>43037.19</v>
+        <v>44037.19</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>45119.03</v>
       </c>
       <c r="F24" s="1" t="n">
         <f aca="false">E24-D24</f>
-        <v>2081.84</v>
+        <v>1081.84</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -895,14 +895,14 @@
       </c>
       <c r="D25" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>43037.19</v>
+        <v>44037.19</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>45422.35</v>
       </c>
       <c r="F25" s="1" t="n">
         <f aca="false">E25-D25</f>
-        <v>2385.16</v>
+        <v>1385.16</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>7</v>
@@ -920,14 +920,14 @@
       </c>
       <c r="D26" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>43037.19</v>
+        <v>44037.19</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>46603.55</v>
       </c>
       <c r="F26" s="1" t="n">
         <f aca="false">E26-D26</f>
-        <v>3566.36</v>
+        <v>2566.36</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -942,22 +942,36 @@
       </c>
       <c r="D27" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>43037.19</v>
+        <v>44037.19</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>48043.68</v>
       </c>
       <c r="F27" s="1" t="n">
         <f aca="false">E27-D27</f>
-        <v>5006.49</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4006.49</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>3000</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>45665</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44037.19</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>48405.71</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <f aca="false">E28-D28</f>
+        <v>4368.52</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1556,11 +1570,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4"/>
-    </row>
-    <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="4"/>
+    <row r="119" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>500</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1580,72 +1604,72 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.32421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="4" t="n">
         <v>45643</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="4" t="n">
         <v>45663</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
         <v>2839</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>2834.26</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <f aca="false">E3-D3</f>
         <v>-4.73999999999978</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="4" t="n">
         <v>45659</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>1814</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="4" t="n">
         <v>45660</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>25</v>
       </c>
     </row>

--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -331,22 +331,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.31640625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.203125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="9.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="9.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -467,14 +467,14 @@
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>1216708.52</v>
+        <v>1308040.52</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>25860.51</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">E7-D7</f>
-        <v>-1190848.01</v>
+        <v>-1282180.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -489,14 +489,14 @@
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>1216708.52</v>
+        <v>1308040.52</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>26146.93</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">E8-D8</f>
-        <v>-1190561.59</v>
+        <v>-1281893.59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -511,14 +511,14 @@
       </c>
       <c r="D9" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44037.19</v>
+        <v>44026.167</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>28964.52</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">E9-D9</f>
-        <v>-15072.67</v>
+        <v>-15061.647</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -533,14 +533,14 @@
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44037.19</v>
+        <v>44026.167</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>30000</v>
       </c>
       <c r="F10" s="1" t="n">
         <f aca="false">E10-D10</f>
-        <v>-14037.19</v>
+        <v>-14026.167</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -555,14 +555,14 @@
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44037.19</v>
+        <v>44026.167</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>29573</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">E11-D11</f>
-        <v>-14464.19</v>
+        <v>-14453.167</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,14 +577,14 @@
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44037.19</v>
+        <v>44026.167</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>28972</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">E12-D12</f>
-        <v>-15065.19</v>
+        <v>-15054.167</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -599,14 +599,14 @@
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44037.19</v>
+        <v>44026.167</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>30243.83</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">E13-D13</f>
-        <v>-13793.36</v>
+        <v>-13782.337</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,14 +621,14 @@
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44037.19</v>
+        <v>44026.167</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>31046.96</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">E14-D14</f>
-        <v>-12990.23</v>
+        <v>-12979.207</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,14 +643,14 @@
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44037.19</v>
+        <v>44026.167</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>32182.63</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">E15-D15</f>
-        <v>-11854.56</v>
+        <v>-11843.537</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>4564.91</v>
@@ -664,11 +664,11 @@
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-10895.9434</v>
+        <v>-10884.9204</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-10895.9434</v>
+        <v>-10884.9204</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -683,14 +683,14 @@
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44037.19</v>
+        <v>44026.167</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>36761.16</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">E16-D16</f>
-        <v>-7276.03</v>
+        <v>-7265.007</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>5236.63</v>
@@ -704,7 +704,7 @@
       </c>
       <c r="J16" s="1" t="n">
         <f aca="false">I16-D16</f>
-        <v>-6019.2562</v>
+        <v>-6008.2332</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -719,14 +719,14 @@
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44037.19</v>
+        <v>44026.167</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>38133.54</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">E17-D17</f>
-        <v>-5903.65</v>
+        <v>-5892.627</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -741,14 +741,14 @@
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44037.19</v>
+        <v>44026.167</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>41866.21</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">E18-D18</f>
-        <v>-2170.98</v>
+        <v>-2159.957</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -763,14 +763,14 @@
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44037.19</v>
+        <v>44026.167</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>42353.52</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">E19-D19</f>
-        <v>-1683.67000000001</v>
+        <v>-1672.647</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,14 +785,14 @@
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44037.19</v>
+        <v>44026.167</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>44606.52</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">E20-D20</f>
-        <v>569.329999999995</v>
+        <v>580.352999999996</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,14 +807,14 @@
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44037.19</v>
+        <v>44026.167</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>44717.5</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">E21-D21</f>
-        <v>680.309999999998</v>
+        <v>691.332999999999</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,14 +829,14 @@
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44037.19</v>
+        <v>44026.167</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>44960.44</v>
       </c>
       <c r="F22" s="1" t="n">
         <f aca="false">E22-D22</f>
-        <v>923.25</v>
+        <v>934.273000000001</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -851,14 +851,14 @@
       </c>
       <c r="D23" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44037.19</v>
+        <v>44026.167</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>44920.45</v>
       </c>
       <c r="F23" s="1" t="n">
         <f aca="false">E23-D23</f>
-        <v>883.259999999995</v>
+        <v>894.282999999996</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,14 +873,14 @@
       </c>
       <c r="D24" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44037.19</v>
+        <v>44026.167</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>45119.03</v>
       </c>
       <c r="F24" s="1" t="n">
         <f aca="false">E24-D24</f>
-        <v>1081.84</v>
+        <v>1092.863</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -895,14 +895,14 @@
       </c>
       <c r="D25" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44037.19</v>
+        <v>44026.167</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>45422.35</v>
       </c>
       <c r="F25" s="1" t="n">
         <f aca="false">E25-D25</f>
-        <v>1385.16</v>
+        <v>1396.183</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>7</v>
@@ -920,14 +920,14 @@
       </c>
       <c r="D26" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44037.19</v>
+        <v>44026.167</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>46603.55</v>
       </c>
       <c r="F26" s="1" t="n">
         <f aca="false">E26-D26</f>
-        <v>2566.36</v>
+        <v>2577.383</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -942,14 +942,14 @@
       </c>
       <c r="D27" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44037.19</v>
+        <v>44026.167</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>48043.68</v>
       </c>
       <c r="F27" s="1" t="n">
         <f aca="false">E27-D27</f>
-        <v>4006.49</v>
+        <v>4017.513</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -959,27 +959,41 @@
       <c r="B28" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C28" s="4" t="n">
         <v>45665</v>
       </c>
       <c r="D28" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44037.19</v>
+        <v>44026.167</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>48405.71</v>
       </c>
       <c r="F28" s="1" t="n">
         <f aca="false">E28-D28</f>
-        <v>4368.52</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4379.543</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>2000</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>45666</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44026.167</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>47862.61</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <f aca="false">E29-D29</f>
+        <v>3836.443</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1574,7 +1588,7 @@
       <c r="A119" s="4" t="n">
         <v>45664</v>
       </c>
-      <c r="B119" s="0" t="n">
+      <c r="B119" s="1" t="n">
         <v>500</v>
       </c>
     </row>
@@ -1582,8 +1596,25 @@
       <c r="A120" s="4" t="n">
         <v>45664</v>
       </c>
-      <c r="B120" s="0" t="n">
+      <c r="B120" s="1" t="n">
         <v>500</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="5" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <f aca="false">-11.51*7.3</f>
+        <v>-84.023</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="5" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1608,9 +1639,9 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BTC" sheetId="1" state="visible" r:id="rId3"/>
@@ -160,7 +160,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -333,20 +333,20 @@
   </sheetPr>
   <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.203125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.08984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="9.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -981,7 +981,7 @@
       <c r="B29" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" s="4" t="n">
         <v>45666</v>
       </c>
       <c r="D29" s="1" t="n">
@@ -1600,20 +1600,20 @@
         <v>500</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="5" t="n">
+    <row r="121" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="n">
         <v>45666</v>
       </c>
-      <c r="B121" s="0" t="n">
+      <c r="B121" s="1" t="n">
         <f aca="false">-11.51*7.3</f>
         <v>-84.023</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="5" t="n">
+    <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="4" t="n">
         <v>45666</v>
       </c>
-      <c r="B122" s="0" t="n">
+      <c r="B122" s="1" t="n">
         <v>73</v>
       </c>
     </row>
@@ -1635,13 +1635,14 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1694,6 +1695,20 @@
       </c>
       <c r="B4" s="1" t="n">
         <v>1814</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>45668</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>2839</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2841.69</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <f aca="false">E4-D4</f>
+        <v>2.69000000000005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="BTC" sheetId="1" state="visible" r:id="rId3"/>
@@ -66,12 +66,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="167" formatCode="yy\年m\月d\日"/>
     <numFmt numFmtId="168" formatCode="yy\年m\月d\日"/>
+    <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -97,12 +98,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -139,7 +146,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -160,7 +167,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -331,22 +346,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.08984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.9765625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -467,14 +482,14 @@
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>1308040.52</v>
+        <v>1490719.52</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>25860.51</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">E7-D7</f>
-        <v>-1282180.01</v>
+        <v>-1464859.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -489,14 +504,14 @@
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>1308040.52</v>
+        <v>1490719.52</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>26146.93</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">E8-D8</f>
-        <v>-1281893.59</v>
+        <v>-1464572.59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -511,14 +526,14 @@
       </c>
       <c r="D9" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44026.167</v>
+        <v>47188.167</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>28964.52</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">E9-D9</f>
-        <v>-15061.647</v>
+        <v>-18223.647</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -533,14 +548,14 @@
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44026.167</v>
+        <v>47188.167</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>30000</v>
       </c>
       <c r="F10" s="1" t="n">
         <f aca="false">E10-D10</f>
-        <v>-14026.167</v>
+        <v>-17188.167</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -555,14 +570,14 @@
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44026.167</v>
+        <v>47188.167</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>29573</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">E11-D11</f>
-        <v>-14453.167</v>
+        <v>-17615.167</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,14 +592,14 @@
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44026.167</v>
+        <v>47188.167</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>28972</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">E12-D12</f>
-        <v>-15054.167</v>
+        <v>-18216.167</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -599,14 +614,14 @@
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44026.167</v>
+        <v>47188.167</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>30243.83</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">E13-D13</f>
-        <v>-13782.337</v>
+        <v>-16944.337</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,14 +636,14 @@
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44026.167</v>
+        <v>47188.167</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>31046.96</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">E14-D14</f>
-        <v>-12979.207</v>
+        <v>-16141.207</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,14 +658,14 @@
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44026.167</v>
+        <v>47188.167</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>32182.63</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">E15-D15</f>
-        <v>-11843.537</v>
+        <v>-15005.537</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>4564.91</v>
@@ -664,11 +679,11 @@
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-10884.9204</v>
+        <v>-14046.9204</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-10884.9204</v>
+        <v>-14046.9204</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -683,14 +698,14 @@
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44026.167</v>
+        <v>47188.167</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>36761.16</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">E16-D16</f>
-        <v>-7265.007</v>
+        <v>-10427.007</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>5236.63</v>
@@ -704,7 +719,7 @@
       </c>
       <c r="J16" s="1" t="n">
         <f aca="false">I16-D16</f>
-        <v>-6008.2332</v>
+        <v>-9170.2332</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -719,14 +734,14 @@
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44026.167</v>
+        <v>47188.167</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>38133.54</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">E17-D17</f>
-        <v>-5892.627</v>
+        <v>-9054.627</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -741,14 +756,14 @@
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44026.167</v>
+        <v>47188.167</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>41866.21</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">E18-D18</f>
-        <v>-2159.957</v>
+        <v>-5321.957</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -763,14 +778,14 @@
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44026.167</v>
+        <v>47188.167</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>42353.52</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">E19-D19</f>
-        <v>-1672.647</v>
+        <v>-4834.647</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,14 +800,14 @@
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44026.167</v>
+        <v>47188.167</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>44606.52</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">E20-D20</f>
-        <v>580.352999999996</v>
+        <v>-2581.647</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,14 +822,14 @@
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44026.167</v>
+        <v>47188.167</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>44717.5</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">E21-D21</f>
-        <v>691.332999999999</v>
+        <v>-2470.667</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,14 +844,14 @@
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44026.167</v>
+        <v>47188.167</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>44960.44</v>
       </c>
       <c r="F22" s="1" t="n">
         <f aca="false">E22-D22</f>
-        <v>934.273000000001</v>
+        <v>-2227.727</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -851,14 +866,14 @@
       </c>
       <c r="D23" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44026.167</v>
+        <v>47188.167</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>44920.45</v>
       </c>
       <c r="F23" s="1" t="n">
         <f aca="false">E23-D23</f>
-        <v>894.282999999996</v>
+        <v>-2267.717</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,14 +888,14 @@
       </c>
       <c r="D24" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44026.167</v>
+        <v>47188.167</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>45119.03</v>
       </c>
       <c r="F24" s="1" t="n">
         <f aca="false">E24-D24</f>
-        <v>1092.863</v>
+        <v>-2069.137</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -895,14 +910,14 @@
       </c>
       <c r="D25" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44026.167</v>
+        <v>47188.167</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>45422.35</v>
       </c>
       <c r="F25" s="1" t="n">
         <f aca="false">E25-D25</f>
-        <v>1396.183</v>
+        <v>-1765.817</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>7</v>
@@ -920,14 +935,14 @@
       </c>
       <c r="D26" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44026.167</v>
+        <v>47188.167</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>46603.55</v>
       </c>
       <c r="F26" s="1" t="n">
         <f aca="false">E26-D26</f>
-        <v>2577.383</v>
+        <v>-584.616999999998</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -942,14 +957,14 @@
       </c>
       <c r="D27" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44026.167</v>
+        <v>47188.167</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>48043.68</v>
       </c>
       <c r="F27" s="1" t="n">
         <f aca="false">E27-D27</f>
-        <v>4017.513</v>
+        <v>855.512999999999</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,14 +979,14 @@
       </c>
       <c r="D28" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44026.167</v>
+        <v>47188.167</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>48405.71</v>
       </c>
       <c r="F28" s="1" t="n">
         <f aca="false">E28-D28</f>
-        <v>4379.543</v>
+        <v>1217.543</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -986,22 +1001,36 @@
       </c>
       <c r="D29" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44026.167</v>
+        <v>47188.167</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>47862.61</v>
       </c>
       <c r="F29" s="1" t="n">
         <f aca="false">E29-D29</f>
-        <v>3836.443</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>674.442999999999</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>2000</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>45671</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>47188.167</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>50895.56</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <f aca="false">E30-D30</f>
+        <v>3707.393</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1615,6 +1644,38 @@
       </c>
       <c r="B122" s="1" t="n">
         <v>73</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="7" t="n">
+        <v>45669</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="7" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="7" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="7" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -1635,14 +1696,14 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1696,14 +1757,14 @@
       <c r="B4" s="1" t="n">
         <v>1814</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="4" t="n">
         <v>45668</v>
       </c>
       <c r="D4" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
         <v>2839</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>2841.69</v>
       </c>
       <c r="F4" s="1" t="n">

--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -71,8 +71,8 @@
     <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="167" formatCode="yy\年m\月d\日"/>
-    <numFmt numFmtId="168" formatCode="yy\年m\月d\日"/>
-    <numFmt numFmtId="169" formatCode="General"/>
+    <numFmt numFmtId="168" formatCode="General"/>
+    <numFmt numFmtId="169" formatCode="yy\年m\月d\日"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -167,15 +167,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -346,22 +346,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.9765625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.86328125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -482,14 +482,14 @@
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>1490719.52</v>
+        <v>1673427.52</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>25860.51</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">E7-D7</f>
-        <v>-1464859.01</v>
+        <v>-1647567.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,14 +504,14 @@
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>1490719.52</v>
+        <v>1673427.52</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>26146.93</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">E8-D8</f>
-        <v>-1464572.59</v>
+        <v>-1647280.59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,14 +526,14 @@
       </c>
       <c r="D9" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47188.167</v>
+        <v>47224.167</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>28964.52</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">E9-D9</f>
-        <v>-18223.647</v>
+        <v>-18259.647</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,14 +548,14 @@
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47188.167</v>
+        <v>47224.167</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>30000</v>
       </c>
       <c r="F10" s="1" t="n">
         <f aca="false">E10-D10</f>
-        <v>-17188.167</v>
+        <v>-17224.167</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -570,14 +570,14 @@
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47188.167</v>
+        <v>47224.167</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>29573</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">E11-D11</f>
-        <v>-17615.167</v>
+        <v>-17651.167</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,14 +592,14 @@
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47188.167</v>
+        <v>47224.167</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>28972</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">E12-D12</f>
-        <v>-18216.167</v>
+        <v>-18252.167</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,14 +614,14 @@
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47188.167</v>
+        <v>47224.167</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>30243.83</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">E13-D13</f>
-        <v>-16944.337</v>
+        <v>-16980.337</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,14 +636,14 @@
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47188.167</v>
+        <v>47224.167</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>31046.96</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">E14-D14</f>
-        <v>-16141.207</v>
+        <v>-16177.207</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,14 +658,14 @@
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47188.167</v>
+        <v>47224.167</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>32182.63</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">E15-D15</f>
-        <v>-15005.537</v>
+        <v>-15041.537</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>4564.91</v>
@@ -679,11 +679,11 @@
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-14046.9204</v>
+        <v>-14082.9204</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-14046.9204</v>
+        <v>-14082.9204</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,14 +698,14 @@
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47188.167</v>
+        <v>47224.167</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>36761.16</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">E16-D16</f>
-        <v>-10427.007</v>
+        <v>-10463.007</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>5236.63</v>
@@ -719,7 +719,7 @@
       </c>
       <c r="J16" s="1" t="n">
         <f aca="false">I16-D16</f>
-        <v>-9170.2332</v>
+        <v>-9206.2332</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -734,14 +734,14 @@
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47188.167</v>
+        <v>47224.167</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>38133.54</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">E17-D17</f>
-        <v>-9054.627</v>
+        <v>-9090.627</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,14 +756,14 @@
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47188.167</v>
+        <v>47224.167</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>41866.21</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">E18-D18</f>
-        <v>-5321.957</v>
+        <v>-5357.957</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,14 +778,14 @@
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47188.167</v>
+        <v>47224.167</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>42353.52</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">E19-D19</f>
-        <v>-4834.647</v>
+        <v>-4870.647</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -800,14 +800,14 @@
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47188.167</v>
+        <v>47224.167</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>44606.52</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">E20-D20</f>
-        <v>-2581.647</v>
+        <v>-2617.647</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -822,14 +822,14 @@
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47188.167</v>
+        <v>47224.167</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>44717.5</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">E21-D21</f>
-        <v>-2470.667</v>
+        <v>-2506.667</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,14 +844,14 @@
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47188.167</v>
+        <v>47224.167</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>44960.44</v>
       </c>
       <c r="F22" s="1" t="n">
         <f aca="false">E22-D22</f>
-        <v>-2227.727</v>
+        <v>-2263.727</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,14 +866,14 @@
       </c>
       <c r="D23" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47188.167</v>
+        <v>47224.167</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>44920.45</v>
       </c>
       <c r="F23" s="1" t="n">
         <f aca="false">E23-D23</f>
-        <v>-2267.717</v>
+        <v>-2303.717</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -888,14 +888,14 @@
       </c>
       <c r="D24" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47188.167</v>
+        <v>47224.167</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>45119.03</v>
       </c>
       <c r="F24" s="1" t="n">
         <f aca="false">E24-D24</f>
-        <v>-2069.137</v>
+        <v>-2105.137</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -910,14 +910,14 @@
       </c>
       <c r="D25" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47188.167</v>
+        <v>47224.167</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>45422.35</v>
       </c>
       <c r="F25" s="1" t="n">
         <f aca="false">E25-D25</f>
-        <v>-1765.817</v>
+        <v>-1801.817</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>7</v>
@@ -935,14 +935,14 @@
       </c>
       <c r="D26" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47188.167</v>
+        <v>47224.167</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>46603.55</v>
       </c>
       <c r="F26" s="1" t="n">
         <f aca="false">E26-D26</f>
-        <v>-584.616999999998</v>
+        <v>-620.616999999998</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,14 +957,14 @@
       </c>
       <c r="D27" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47188.167</v>
+        <v>47224.167</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>48043.68</v>
       </c>
       <c r="F27" s="1" t="n">
         <f aca="false">E27-D27</f>
-        <v>855.512999999999</v>
+        <v>819.512999999999</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,14 +979,14 @@
       </c>
       <c r="D28" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47188.167</v>
+        <v>47224.167</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>48405.71</v>
       </c>
       <c r="F28" s="1" t="n">
         <f aca="false">E28-D28</f>
-        <v>1217.543</v>
+        <v>1181.543</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1001,14 +1001,14 @@
       </c>
       <c r="D29" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47188.167</v>
+        <v>47224.167</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>47862.61</v>
       </c>
       <c r="F29" s="1" t="n">
         <f aca="false">E29-D29</f>
-        <v>674.442999999999</v>
+        <v>638.442999999999</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,22 +1023,36 @@
       </c>
       <c r="D30" s="6" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47188.167</v>
+        <v>47224.167</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>50895.56</v>
       </c>
       <c r="F30" s="6" t="n">
         <f aca="false">E30-D30</f>
-        <v>3707.393</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3671.393</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>500</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>2000</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <v>45672</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>47224.167</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>51943.59</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <f aca="false">E31-D31</f>
+        <v>4719.423</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1646,36 +1660,69 @@
         <v>73</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="7" t="n">
+    <row r="123" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="n">
         <v>45669</v>
       </c>
-      <c r="B123" s="0" t="n">
+      <c r="B123" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="7" t="n">
+    <row r="124" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="n">
         <v>45670</v>
       </c>
-      <c r="B124" s="0" t="n">
+      <c r="B124" s="1" t="n">
         <v>413</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="7" t="n">
+    <row r="125" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="n">
         <v>45670</v>
       </c>
-      <c r="B125" s="0" t="n">
+      <c r="B125" s="1" t="n">
         <v>750</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="7" t="n">
+    <row r="126" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4" t="n">
         <v>45670</v>
       </c>
-      <c r="B126" s="0" t="n">
+      <c r="B126" s="1" t="n">
         <v>999</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="7" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="7" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="7" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="7" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <f aca="false">-680*7.3</f>
+        <v>-4964</v>
       </c>
     </row>
   </sheetData>
@@ -1700,10 +1747,10 @@
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.52734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -346,22 +346,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K130"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.86328125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.75390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -482,14 +482,14 @@
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>1673427.52</v>
+        <v>2038848.52</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>25860.51</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">E7-D7</f>
-        <v>-1647567.01</v>
+        <v>-2012988.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,14 +504,14 @@
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>1673427.52</v>
+        <v>2038848.52</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>26146.93</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">E8-D8</f>
-        <v>-1647280.59</v>
+        <v>-2012701.59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,14 +526,14 @@
       </c>
       <c r="D9" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47224.167</v>
+        <v>47694.54</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>28964.52</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">E9-D9</f>
-        <v>-18259.647</v>
+        <v>-18730.02</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,14 +548,14 @@
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47224.167</v>
+        <v>47694.54</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>30000</v>
       </c>
       <c r="F10" s="1" t="n">
         <f aca="false">E10-D10</f>
-        <v>-17224.167</v>
+        <v>-17694.54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -570,14 +570,14 @@
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47224.167</v>
+        <v>47694.54</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>29573</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">E11-D11</f>
-        <v>-17651.167</v>
+        <v>-18121.54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,14 +592,14 @@
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47224.167</v>
+        <v>47694.54</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>28972</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">E12-D12</f>
-        <v>-18252.167</v>
+        <v>-18722.54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,14 +614,14 @@
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47224.167</v>
+        <v>47694.54</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>30243.83</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">E13-D13</f>
-        <v>-16980.337</v>
+        <v>-17450.71</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,14 +636,14 @@
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47224.167</v>
+        <v>47694.54</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>31046.96</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">E14-D14</f>
-        <v>-16177.207</v>
+        <v>-16647.58</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,14 +658,14 @@
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47224.167</v>
+        <v>47694.54</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>32182.63</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">E15-D15</f>
-        <v>-15041.537</v>
+        <v>-15511.91</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>4564.91</v>
@@ -679,11 +679,11 @@
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-14082.9204</v>
+        <v>-14553.2934</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-14082.9204</v>
+        <v>-14553.2934</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,14 +698,14 @@
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47224.167</v>
+        <v>47694.54</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>36761.16</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">E16-D16</f>
-        <v>-10463.007</v>
+        <v>-10933.38</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>5236.63</v>
@@ -719,7 +719,7 @@
       </c>
       <c r="J16" s="1" t="n">
         <f aca="false">I16-D16</f>
-        <v>-9206.2332</v>
+        <v>-9676.6062</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -734,14 +734,14 @@
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47224.167</v>
+        <v>47694.54</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>38133.54</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">E17-D17</f>
-        <v>-9090.627</v>
+        <v>-9561</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,14 +756,14 @@
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47224.167</v>
+        <v>47694.54</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>41866.21</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">E18-D18</f>
-        <v>-5357.957</v>
+        <v>-5828.33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,14 +778,14 @@
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47224.167</v>
+        <v>47694.54</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>42353.52</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">E19-D19</f>
-        <v>-4870.647</v>
+        <v>-5341.02</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -800,14 +800,14 @@
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47224.167</v>
+        <v>47694.54</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>44606.52</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">E20-D20</f>
-        <v>-2617.647</v>
+        <v>-3088.02</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -822,14 +822,14 @@
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47224.167</v>
+        <v>47694.54</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>44717.5</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">E21-D21</f>
-        <v>-2506.667</v>
+        <v>-2977.04</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,14 +844,14 @@
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47224.167</v>
+        <v>47694.54</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>44960.44</v>
       </c>
       <c r="F22" s="1" t="n">
         <f aca="false">E22-D22</f>
-        <v>-2263.727</v>
+        <v>-2734.1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,14 +866,14 @@
       </c>
       <c r="D23" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47224.167</v>
+        <v>47694.54</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>44920.45</v>
       </c>
       <c r="F23" s="1" t="n">
         <f aca="false">E23-D23</f>
-        <v>-2303.717</v>
+        <v>-2774.09</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -888,14 +888,14 @@
       </c>
       <c r="D24" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47224.167</v>
+        <v>47694.54</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>45119.03</v>
       </c>
       <c r="F24" s="1" t="n">
         <f aca="false">E24-D24</f>
-        <v>-2105.137</v>
+        <v>-2575.51</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -910,14 +910,14 @@
       </c>
       <c r="D25" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47224.167</v>
+        <v>47694.54</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>45422.35</v>
       </c>
       <c r="F25" s="1" t="n">
         <f aca="false">E25-D25</f>
-        <v>-1801.817</v>
+        <v>-2272.19</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>7</v>
@@ -935,14 +935,14 @@
       </c>
       <c r="D26" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47224.167</v>
+        <v>47694.54</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>46603.55</v>
       </c>
       <c r="F26" s="1" t="n">
         <f aca="false">E26-D26</f>
-        <v>-620.616999999998</v>
+        <v>-1090.99</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,14 +957,14 @@
       </c>
       <c r="D27" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47224.167</v>
+        <v>47694.54</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>48043.68</v>
       </c>
       <c r="F27" s="1" t="n">
         <f aca="false">E27-D27</f>
-        <v>819.512999999999</v>
+        <v>349.139999999999</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,14 +979,14 @@
       </c>
       <c r="D28" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47224.167</v>
+        <v>47694.54</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>48405.71</v>
       </c>
       <c r="F28" s="1" t="n">
         <f aca="false">E28-D28</f>
-        <v>1181.543</v>
+        <v>711.169999999998</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1001,14 +1001,14 @@
       </c>
       <c r="D29" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47224.167</v>
+        <v>47694.54</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>47862.61</v>
       </c>
       <c r="F29" s="1" t="n">
         <f aca="false">E29-D29</f>
-        <v>638.442999999999</v>
+        <v>168.07</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,14 +1023,14 @@
       </c>
       <c r="D30" s="6" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47224.167</v>
+        <v>47694.54</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>50895.56</v>
       </c>
       <c r="F30" s="6" t="n">
         <f aca="false">E30-D30</f>
-        <v>3671.393</v>
+        <v>3201.02</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1040,27 +1040,41 @@
       <c r="B31" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="C31" s="7" t="n">
+      <c r="C31" s="4" t="n">
         <v>45672</v>
       </c>
       <c r="D31" s="6" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47224.167</v>
+        <v>47694.54</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>51943.59</v>
       </c>
       <c r="F31" s="6" t="n">
         <f aca="false">E31-D31</f>
-        <v>4719.423</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4249.05</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>100</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <v>45678</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>47694.54</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>52406.28</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <f aca="false">E32-D32</f>
+        <v>4711.74</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1325,66 +1339,30 @@
       <c r="B81" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="E81" s="1" t="n">
-        <v>2805.89</v>
-      </c>
-      <c r="F81" s="1" t="n">
-        <v>20000</v>
-      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E82" s="1" t="n">
-        <v>2793.29</v>
-      </c>
-      <c r="F82" s="1" t="n">
-        <v>20000</v>
-      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E83" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F83" s="1" t="n">
-        <v>7000</v>
-      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1" t="n">
         <v>100</v>
-      </c>
-      <c r="E84" s="1" t="n">
-        <v>1434.72</v>
-      </c>
-      <c r="F84" s="1" t="n">
-        <v>10000</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="E85" s="1" t="n">
-        <v>721.5</v>
-      </c>
-      <c r="F85" s="1" t="n">
-        <v>5000</v>
-      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="1" t="n">
         <v>500</v>
-      </c>
-      <c r="E86" s="1" t="n">
-        <v>257.87</v>
-      </c>
-      <c r="F86" s="1" t="n">
-        <v>1800</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1693,38 +1671,106 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="7" t="n">
+      <c r="A127" s="4" t="n">
         <v>45677</v>
       </c>
-      <c r="B127" s="0" t="n">
+      <c r="B127" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="7" t="n">
+      <c r="A128" s="4" t="n">
         <v>45677</v>
       </c>
-      <c r="B128" s="0" t="n">
+      <c r="B128" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="7" t="n">
+      <c r="A129" s="4" t="n">
         <v>45677</v>
       </c>
-      <c r="B129" s="0" t="n">
+      <c r="B129" s="1" t="n">
         <v>3000</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="7" t="n">
+      <c r="A130" s="4" t="n">
         <v>45677</v>
       </c>
-      <c r="B130" s="0" t="n">
+      <c r="B130" s="1" t="n">
         <f aca="false">-680*7.3</f>
         <v>-4964</v>
       </c>
     </row>
+    <row r="131" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="7" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="7" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="7" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <f aca="false">-276*7.3</f>
+        <v>-2014.8</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="7" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="7" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="7" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="7" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <f aca="false">-276*7.3</f>
+        <v>-2014.8</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="7" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <f aca="false">-136.99*7.3</f>
+        <v>-1000.027</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1747,10 +1793,10 @@
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.52734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -348,20 +348,20 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.75390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.6484375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -482,14 +482,14 @@
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>2038848.52</v>
+        <v>2130205.52</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>25860.51</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">E7-D7</f>
-        <v>-2012988.01</v>
+        <v>-2104345.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,14 +504,14 @@
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>2038848.52</v>
+        <v>2130205.52</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>26146.93</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">E8-D8</f>
-        <v>-2012701.59</v>
+        <v>-2104058.59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,14 +526,14 @@
       </c>
       <c r="D9" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>28964.52</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">E9-D9</f>
-        <v>-18730.02</v>
+        <v>-21730.02</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,14 +548,14 @@
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>30000</v>
       </c>
       <c r="F10" s="1" t="n">
         <f aca="false">E10-D10</f>
-        <v>-17694.54</v>
+        <v>-20694.54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -570,14 +570,14 @@
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>29573</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">E11-D11</f>
-        <v>-18121.54</v>
+        <v>-21121.54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,14 +592,14 @@
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>28972</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">E12-D12</f>
-        <v>-18722.54</v>
+        <v>-21722.54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,14 +614,14 @@
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>30243.83</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">E13-D13</f>
-        <v>-17450.71</v>
+        <v>-20450.71</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,14 +636,14 @@
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>31046.96</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">E14-D14</f>
-        <v>-16647.58</v>
+        <v>-19647.58</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,14 +658,14 @@
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>32182.63</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">E15-D15</f>
-        <v>-15511.91</v>
+        <v>-18511.91</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>4564.91</v>
@@ -679,11 +679,11 @@
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-14553.2934</v>
+        <v>-17553.2934</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-14553.2934</v>
+        <v>-17553.2934</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,14 +698,14 @@
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>36761.16</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">E16-D16</f>
-        <v>-10933.38</v>
+        <v>-13933.38</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>5236.63</v>
@@ -719,7 +719,7 @@
       </c>
       <c r="J16" s="1" t="n">
         <f aca="false">I16-D16</f>
-        <v>-9676.6062</v>
+        <v>-12676.6062</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -734,14 +734,14 @@
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>38133.54</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">E17-D17</f>
-        <v>-9561</v>
+        <v>-12561</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,14 +756,14 @@
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>41866.21</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">E18-D18</f>
-        <v>-5828.33</v>
+        <v>-8828.33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,14 +778,14 @@
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>42353.52</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">E19-D19</f>
-        <v>-5341.02</v>
+        <v>-8341.02</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -800,14 +800,14 @@
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>44606.52</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">E20-D20</f>
-        <v>-3088.02</v>
+        <v>-6088.02</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -822,14 +822,14 @@
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>44717.5</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">E21-D21</f>
-        <v>-2977.04</v>
+        <v>-5977.04</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,14 +844,14 @@
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>44960.44</v>
       </c>
       <c r="F22" s="1" t="n">
         <f aca="false">E22-D22</f>
-        <v>-2734.1</v>
+        <v>-5734.1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,14 +866,14 @@
       </c>
       <c r="D23" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>44920.45</v>
       </c>
       <c r="F23" s="1" t="n">
         <f aca="false">E23-D23</f>
-        <v>-2774.09</v>
+        <v>-5774.09</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -888,14 +888,14 @@
       </c>
       <c r="D24" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>45119.03</v>
       </c>
       <c r="F24" s="1" t="n">
         <f aca="false">E24-D24</f>
-        <v>-2575.51</v>
+        <v>-5575.51</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -910,14 +910,14 @@
       </c>
       <c r="D25" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>45422.35</v>
       </c>
       <c r="F25" s="1" t="n">
         <f aca="false">E25-D25</f>
-        <v>-2272.19</v>
+        <v>-5272.19</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>7</v>
@@ -935,14 +935,14 @@
       </c>
       <c r="D26" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>46603.55</v>
       </c>
       <c r="F26" s="1" t="n">
         <f aca="false">E26-D26</f>
-        <v>-1090.99</v>
+        <v>-4090.99</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,14 +957,14 @@
       </c>
       <c r="D27" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>48043.68</v>
       </c>
       <c r="F27" s="1" t="n">
         <f aca="false">E27-D27</f>
-        <v>349.139999999999</v>
+        <v>-2650.86</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,14 +979,14 @@
       </c>
       <c r="D28" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>48405.71</v>
       </c>
       <c r="F28" s="1" t="n">
         <f aca="false">E28-D28</f>
-        <v>711.169999999998</v>
+        <v>-2288.83</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1001,14 +1001,14 @@
       </c>
       <c r="D29" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>47862.61</v>
       </c>
       <c r="F29" s="1" t="n">
         <f aca="false">E29-D29</f>
-        <v>168.07</v>
+        <v>-2831.93</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,14 +1023,14 @@
       </c>
       <c r="D30" s="6" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>50895.56</v>
       </c>
       <c r="F30" s="6" t="n">
         <f aca="false">E30-D30</f>
-        <v>3201.02</v>
+        <v>201.019999999997</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,14 +1045,14 @@
       </c>
       <c r="D31" s="6" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>51943.59</v>
       </c>
       <c r="F31" s="6" t="n">
         <f aca="false">E31-D31</f>
-        <v>4249.05</v>
+        <v>1249.05</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1062,27 +1062,41 @@
       <c r="B32" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C32" s="7" t="n">
+      <c r="C32" s="4" t="n">
         <v>45678</v>
       </c>
       <c r="D32" s="6" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>47694.54</v>
+        <v>50694.54</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>52406.28</v>
       </c>
       <c r="F32" s="6" t="n">
         <f aca="false">E32-D32</f>
-        <v>4711.74</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1711.74</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>500</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>500</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <v>45679</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>50694.54</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>55544.17</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <f aca="false">E33-D33</f>
+        <v>4849.63</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1704,70 +1718,86 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="7" t="n">
+      <c r="A131" s="4" t="n">
         <v>45677</v>
       </c>
-      <c r="B131" s="0" t="n">
+      <c r="B131" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="7" t="n">
+      <c r="A132" s="4" t="n">
         <v>45677</v>
       </c>
-      <c r="B132" s="0" t="n">
+      <c r="B132" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="7" t="n">
+    <row r="133" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="4" t="n">
         <v>45677</v>
       </c>
-      <c r="B133" s="0" t="n">
+      <c r="B133" s="1" t="n">
         <f aca="false">-276*7.3</f>
         <v>-2014.8</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="7" t="n">
+      <c r="A134" s="4" t="n">
         <v>45678</v>
       </c>
-      <c r="B134" s="0" t="n">
+      <c r="B134" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="7" t="n">
+      <c r="A135" s="4" t="n">
         <v>45678</v>
       </c>
-      <c r="B135" s="0" t="n">
+      <c r="B135" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="7" t="n">
+      <c r="A136" s="4" t="n">
         <v>45678</v>
       </c>
-      <c r="B136" s="0" t="n">
+      <c r="B136" s="1" t="n">
         <v>1500</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="7" t="n">
+    <row r="137" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="4" t="n">
         <v>45678</v>
       </c>
-      <c r="B137" s="0" t="n">
+      <c r="B137" s="1" t="n">
         <f aca="false">-276*7.3</f>
         <v>-2014.8</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="7" t="n">
+    <row r="138" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="4" t="n">
         <v>45678</v>
       </c>
-      <c r="B138" s="0" t="n">
+      <c r="B138" s="1" t="n">
         <f aca="false">-136.99*7.3</f>
         <v>-1000.027</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="7" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="7" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1793,10 +1823,10 @@
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -146,7 +146,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -176,6 +176,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -348,11 +352,11 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C144" activeCellId="0" sqref="C144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.6484375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.65234375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.9"/>
@@ -482,14 +486,14 @@
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>2130205.52</v>
+        <v>2175884.52</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>25860.51</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">E7-D7</f>
-        <v>-2104345.01</v>
+        <v>-2150024.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,14 +508,14 @@
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>2130205.52</v>
+        <v>2175884.52</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>26146.93</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">E8-D8</f>
-        <v>-2104058.59</v>
+        <v>-2149737.59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,14 +530,14 @@
       </c>
       <c r="D9" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>28964.52</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">E9-D9</f>
-        <v>-21730.02</v>
+        <v>-21357.136</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,14 +552,14 @@
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>30000</v>
       </c>
       <c r="F10" s="1" t="n">
         <f aca="false">E10-D10</f>
-        <v>-20694.54</v>
+        <v>-20321.656</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -570,14 +574,14 @@
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>29573</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">E11-D11</f>
-        <v>-21121.54</v>
+        <v>-20748.656</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,14 +596,14 @@
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>28972</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">E12-D12</f>
-        <v>-21722.54</v>
+        <v>-21349.656</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,14 +618,14 @@
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>30243.83</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">E13-D13</f>
-        <v>-20450.71</v>
+        <v>-20077.826</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,14 +640,14 @@
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>31046.96</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">E14-D14</f>
-        <v>-19647.58</v>
+        <v>-19274.696</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,14 +662,14 @@
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>32182.63</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">E15-D15</f>
-        <v>-18511.91</v>
+        <v>-18139.026</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>4564.91</v>
@@ -679,11 +683,11 @@
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-17553.2934</v>
+        <v>-17180.4094</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-17553.2934</v>
+        <v>-17180.4094</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,14 +702,14 @@
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>36761.16</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">E16-D16</f>
-        <v>-13933.38</v>
+        <v>-13560.496</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>5236.63</v>
@@ -719,7 +723,7 @@
       </c>
       <c r="J16" s="1" t="n">
         <f aca="false">I16-D16</f>
-        <v>-12676.6062</v>
+        <v>-12303.7222</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -734,14 +738,14 @@
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>38133.54</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">E17-D17</f>
-        <v>-12561</v>
+        <v>-12188.116</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,14 +760,14 @@
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>41866.21</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">E18-D18</f>
-        <v>-8828.33</v>
+        <v>-8455.446</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,14 +782,14 @@
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>42353.52</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">E19-D19</f>
-        <v>-8341.02</v>
+        <v>-7968.13600000001</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -800,14 +804,14 @@
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>44606.52</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">E20-D20</f>
-        <v>-6088.02</v>
+        <v>-5715.13600000001</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -822,14 +826,14 @@
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>44717.5</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">E21-D21</f>
-        <v>-5977.04</v>
+        <v>-5604.156</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,14 +848,14 @@
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>44960.44</v>
       </c>
       <c r="F22" s="1" t="n">
         <f aca="false">E22-D22</f>
-        <v>-5734.1</v>
+        <v>-5361.216</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,14 +870,14 @@
       </c>
       <c r="D23" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>44920.45</v>
       </c>
       <c r="F23" s="1" t="n">
         <f aca="false">E23-D23</f>
-        <v>-5774.09</v>
+        <v>-5401.20600000001</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -888,14 +892,14 @@
       </c>
       <c r="D24" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>45119.03</v>
       </c>
       <c r="F24" s="1" t="n">
         <f aca="false">E24-D24</f>
-        <v>-5575.51</v>
+        <v>-5202.626</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -910,14 +914,14 @@
       </c>
       <c r="D25" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>45422.35</v>
       </c>
       <c r="F25" s="1" t="n">
         <f aca="false">E25-D25</f>
-        <v>-5272.19</v>
+        <v>-4899.306</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>7</v>
@@ -935,14 +939,14 @@
       </c>
       <c r="D26" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>46603.55</v>
       </c>
       <c r="F26" s="1" t="n">
         <f aca="false">E26-D26</f>
-        <v>-4090.99</v>
+        <v>-3718.106</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,14 +961,14 @@
       </c>
       <c r="D27" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>48043.68</v>
       </c>
       <c r="F27" s="1" t="n">
         <f aca="false">E27-D27</f>
-        <v>-2650.86</v>
+        <v>-2277.976</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,14 +983,14 @@
       </c>
       <c r="D28" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>48405.71</v>
       </c>
       <c r="F28" s="1" t="n">
         <f aca="false">E28-D28</f>
-        <v>-2288.83</v>
+        <v>-1915.946</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1001,14 +1005,14 @@
       </c>
       <c r="D29" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>47862.61</v>
       </c>
       <c r="F29" s="1" t="n">
         <f aca="false">E29-D29</f>
-        <v>-2831.93</v>
+        <v>-2459.046</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,14 +1027,14 @@
       </c>
       <c r="D30" s="6" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>50895.56</v>
       </c>
       <c r="F30" s="6" t="n">
         <f aca="false">E30-D30</f>
-        <v>201.019999999997</v>
+        <v>573.903999999995</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,14 +1049,14 @@
       </c>
       <c r="D31" s="6" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>51943.59</v>
       </c>
       <c r="F31" s="6" t="n">
         <f aca="false">E31-D31</f>
-        <v>1249.05</v>
+        <v>1621.93399999999</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,14 +1071,14 @@
       </c>
       <c r="D32" s="6" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>52406.28</v>
       </c>
       <c r="F32" s="6" t="n">
         <f aca="false">E32-D32</f>
-        <v>1711.74</v>
+        <v>2084.624</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1084,27 +1088,41 @@
       <c r="B33" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="C33" s="7" t="n">
+      <c r="C33" s="4" t="n">
         <v>45679</v>
       </c>
       <c r="D33" s="6" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50694.54</v>
+        <v>50321.656</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>55544.17</v>
       </c>
       <c r="F33" s="6" t="n">
         <f aca="false">E33-D33</f>
-        <v>4849.63</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5222.514</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>200</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>45679</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>50321.656</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>55078.89</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <f aca="false">E34-D34</f>
+        <v>4757.234</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1784,20 +1802,29 @@
         <v>-1000.027</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="7" t="n">
+    <row r="139" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="4" t="n">
         <v>45678</v>
       </c>
-      <c r="B139" s="0" t="n">
+      <c r="B139" s="1" t="n">
         <v>2000</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="7" t="n">
+    <row r="140" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="4" t="n">
         <v>45679</v>
       </c>
-      <c r="B140" s="0" t="n">
+      <c r="B140" s="1" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="7" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B141" s="8" t="n">
+        <f aca="false">-51.08*7.3</f>
+        <v>-372.884</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1823,7 +1850,7 @@
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.3"/>
@@ -1908,8 +1935,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -352,8 +352,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C144" activeCellId="0" sqref="C144"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.65234375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -486,14 +486,14 @@
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>2175884.52</v>
+        <v>4734115.52</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>25860.51</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">E7-D7</f>
-        <v>-2150024.01</v>
+        <v>-4708255.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -508,14 +508,14 @@
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>2175884.52</v>
+        <v>4734115.52</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>26146.93</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">E8-D8</f>
-        <v>-2149737.59</v>
+        <v>-4707968.59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -530,14 +530,14 @@
       </c>
       <c r="D9" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>28964.52</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">E9-D9</f>
-        <v>-21357.136</v>
+        <v>-22317.48882</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -552,14 +552,14 @@
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>30000</v>
       </c>
       <c r="F10" s="1" t="n">
         <f aca="false">E10-D10</f>
-        <v>-20321.656</v>
+        <v>-21282.00882</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -574,14 +574,14 @@
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>29573</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">E11-D11</f>
-        <v>-20748.656</v>
+        <v>-21709.00882</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -596,14 +596,14 @@
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>28972</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">E12-D12</f>
-        <v>-21349.656</v>
+        <v>-22310.00882</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,14 +618,14 @@
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>30243.83</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">E13-D13</f>
-        <v>-20077.826</v>
+        <v>-21038.17882</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,14 +640,14 @@
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>31046.96</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">E14-D14</f>
-        <v>-19274.696</v>
+        <v>-20235.04882</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -662,14 +662,14 @@
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>32182.63</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">E15-D15</f>
-        <v>-18139.026</v>
+        <v>-19099.37882</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>4564.91</v>
@@ -683,11 +683,11 @@
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-17180.4094</v>
+        <v>-18140.76222</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-17180.4094</v>
+        <v>-18140.76222</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,14 +702,14 @@
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>36761.16</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">E16-D16</f>
-        <v>-13560.496</v>
+        <v>-14520.84882</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>5236.63</v>
@@ -723,7 +723,7 @@
       </c>
       <c r="J16" s="1" t="n">
         <f aca="false">I16-D16</f>
-        <v>-12303.7222</v>
+        <v>-13264.07502</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -738,14 +738,14 @@
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>38133.54</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">E17-D17</f>
-        <v>-12188.116</v>
+        <v>-13148.46882</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -760,14 +760,14 @@
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>41866.21</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">E18-D18</f>
-        <v>-8455.446</v>
+        <v>-9415.79882</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,14 +782,14 @@
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>42353.52</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">E19-D19</f>
-        <v>-7968.13600000001</v>
+        <v>-8928.48882000001</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -804,14 +804,14 @@
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>44606.52</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">E20-D20</f>
-        <v>-5715.13600000001</v>
+        <v>-6675.48882000001</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -826,14 +826,14 @@
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>44717.5</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">E21-D21</f>
-        <v>-5604.156</v>
+        <v>-6564.50882</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -848,14 +848,14 @@
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>44960.44</v>
       </c>
       <c r="F22" s="1" t="n">
         <f aca="false">E22-D22</f>
-        <v>-5361.216</v>
+        <v>-6321.56882</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -870,14 +870,14 @@
       </c>
       <c r="D23" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>44920.45</v>
       </c>
       <c r="F23" s="1" t="n">
         <f aca="false">E23-D23</f>
-        <v>-5401.20600000001</v>
+        <v>-6361.55882000001</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -892,14 +892,14 @@
       </c>
       <c r="D24" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>45119.03</v>
       </c>
       <c r="F24" s="1" t="n">
         <f aca="false">E24-D24</f>
-        <v>-5202.626</v>
+        <v>-6162.97882</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -914,14 +914,14 @@
       </c>
       <c r="D25" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>45422.35</v>
       </c>
       <c r="F25" s="1" t="n">
         <f aca="false">E25-D25</f>
-        <v>-4899.306</v>
+        <v>-5859.65882</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>7</v>
@@ -939,14 +939,14 @@
       </c>
       <c r="D26" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>46603.55</v>
       </c>
       <c r="F26" s="1" t="n">
         <f aca="false">E26-D26</f>
-        <v>-3718.106</v>
+        <v>-4678.45882</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -961,14 +961,14 @@
       </c>
       <c r="D27" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>48043.68</v>
       </c>
       <c r="F27" s="1" t="n">
         <f aca="false">E27-D27</f>
-        <v>-2277.976</v>
+        <v>-3238.32882</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -983,14 +983,14 @@
       </c>
       <c r="D28" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>48405.71</v>
       </c>
       <c r="F28" s="1" t="n">
         <f aca="false">E28-D28</f>
-        <v>-1915.946</v>
+        <v>-2876.29882</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,14 +1005,14 @@
       </c>
       <c r="D29" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>47862.61</v>
       </c>
       <c r="F29" s="1" t="n">
         <f aca="false">E29-D29</f>
-        <v>-2459.046</v>
+        <v>-3419.39882</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1027,14 +1027,14 @@
       </c>
       <c r="D30" s="6" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>50895.56</v>
       </c>
       <c r="F30" s="6" t="n">
         <f aca="false">E30-D30</f>
-        <v>573.903999999995</v>
+        <v>-386.448820000005</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,14 +1049,14 @@
       </c>
       <c r="D31" s="6" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>51943.59</v>
       </c>
       <c r="F31" s="6" t="n">
         <f aca="false">E31-D31</f>
-        <v>1621.93399999999</v>
+        <v>661.581179999994</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,14 +1071,14 @@
       </c>
       <c r="D32" s="6" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>52406.28</v>
       </c>
       <c r="F32" s="6" t="n">
         <f aca="false">E32-D32</f>
-        <v>2084.624</v>
+        <v>1124.27118</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1093,14 +1093,14 @@
       </c>
       <c r="D33" s="6" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>55544.17</v>
       </c>
       <c r="F33" s="6" t="n">
         <f aca="false">E33-D33</f>
-        <v>5222.514</v>
+        <v>4262.16118</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,27 +1110,41 @@
       <c r="B34" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="C34" s="7" t="n">
+      <c r="C34" s="4" t="n">
         <v>45679</v>
       </c>
       <c r="D34" s="6" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>50321.656</v>
+        <v>51282.00882</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>55078.89</v>
       </c>
       <c r="F34" s="6" t="n">
         <f aca="false">E34-D34</f>
-        <v>4757.234</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3796.88118</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>500</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="D35" s="6" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>51282.00882</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>55790.43</v>
+      </c>
+      <c r="F35" s="6" t="n">
+        <f aca="false">E35-D35</f>
+        <v>4508.42118</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,15 +1832,469 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="7" t="n">
+    <row r="141" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="4" t="n">
         <v>45679</v>
       </c>
-      <c r="B141" s="8" t="n">
+      <c r="B141" s="1" t="n">
         <f aca="false">-51.08*7.3</f>
         <v>-372.884</v>
       </c>
     </row>
+    <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="7" t="n">
+        <v>45682</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="7" t="n">
+        <v>45682</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="7" t="n">
+        <v>45682</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="7" t="n">
+        <v>45682</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="7" t="n">
+        <v>45682</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="7" t="n">
+        <v>45682</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="7" t="n">
+        <v>45682</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="7" t="n">
+        <v>45682</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="7" t="n">
+        <v>45682</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="7" t="n">
+        <v>45682</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="7" t="n">
+        <v>45682</v>
+      </c>
+      <c r="B152" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="7" t="n">
+        <v>45682</v>
+      </c>
+      <c r="B153" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="7" t="n">
+        <v>45682</v>
+      </c>
+      <c r="B154" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="7" t="n">
+        <v>45682</v>
+      </c>
+      <c r="B155" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="7" t="n">
+        <v>45682</v>
+      </c>
+      <c r="B156" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="7" t="n">
+        <v>45682</v>
+      </c>
+      <c r="B157" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B158" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B159" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B160" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B161" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B162" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B163" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B164" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B165" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B166" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B167" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B168" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B169" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B170" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B171" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B172" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B173" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B174" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B175" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B176" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B177" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B178" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B179" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B180" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B181" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B182" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B183" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B184" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B185" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B186" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B187" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B188" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B189" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B190" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B191" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B192" s="0" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B193" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="7" t="n">
+        <v>45682</v>
+      </c>
+      <c r="B194" s="8" t="n">
+        <f aca="false">-50*7.3</f>
+        <v>-365</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B195" s="8" t="n">
+        <f aca="false">-3*7.3</f>
+        <v>-21.9</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B196" s="8" t="n">
+        <f aca="false">-97.6366*7.3</f>
+        <v>-712.74718</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="7" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B197" s="8" t="n">
+        <f aca="false">-4800*7.3</f>
+        <v>-35040</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BTC" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t xml:space="preserve">APP上显示BTC等值买入</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deposit</t>
   </si>
   <si>
     <t xml:space="preserve">initial</t>
@@ -175,11 +178,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -352,7 +355,7 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -1132,7 +1135,7 @@
       <c r="B35" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="C35" s="7" t="n">
+      <c r="C35" s="4" t="n">
         <v>45683</v>
       </c>
       <c r="D35" s="6" t="n">
@@ -1842,453 +1845,453 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="7" t="n">
+      <c r="A142" s="4" t="n">
         <v>45682</v>
       </c>
-      <c r="B142" s="0" t="n">
+      <c r="B142" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="7" t="n">
+      <c r="A143" s="4" t="n">
         <v>45682</v>
       </c>
-      <c r="B143" s="0" t="n">
+      <c r="B143" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="7" t="n">
+      <c r="A144" s="4" t="n">
         <v>45682</v>
       </c>
-      <c r="B144" s="0" t="n">
+      <c r="B144" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="7" t="n">
+      <c r="A145" s="4" t="n">
         <v>45682</v>
       </c>
-      <c r="B145" s="0" t="n">
+      <c r="B145" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="7" t="n">
+      <c r="A146" s="4" t="n">
         <v>45682</v>
       </c>
-      <c r="B146" s="0" t="n">
+      <c r="B146" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="7" t="n">
+      <c r="A147" s="4" t="n">
         <v>45682</v>
       </c>
-      <c r="B147" s="0" t="n">
+      <c r="B147" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="7" t="n">
+      <c r="A148" s="4" t="n">
         <v>45682</v>
       </c>
-      <c r="B148" s="0" t="n">
+      <c r="B148" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="7" t="n">
+      <c r="A149" s="4" t="n">
         <v>45682</v>
       </c>
-      <c r="B149" s="0" t="n">
+      <c r="B149" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="7" t="n">
+      <c r="A150" s="4" t="n">
         <v>45682</v>
       </c>
-      <c r="B150" s="0" t="n">
+      <c r="B150" s="1" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="7" t="n">
+      <c r="A151" s="4" t="n">
         <v>45682</v>
       </c>
-      <c r="B151" s="0" t="n">
+      <c r="B151" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="7" t="n">
+      <c r="A152" s="4" t="n">
         <v>45682</v>
       </c>
-      <c r="B152" s="0" t="n">
+      <c r="B152" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="7" t="n">
+      <c r="A153" s="4" t="n">
         <v>45682</v>
       </c>
-      <c r="B153" s="0" t="n">
+      <c r="B153" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="7" t="n">
+      <c r="A154" s="4" t="n">
         <v>45682</v>
       </c>
-      <c r="B154" s="0" t="n">
+      <c r="B154" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="7" t="n">
+      <c r="A155" s="4" t="n">
         <v>45682</v>
       </c>
-      <c r="B155" s="0" t="n">
+      <c r="B155" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="7" t="n">
+      <c r="A156" s="4" t="n">
         <v>45682</v>
       </c>
-      <c r="B156" s="0" t="n">
+      <c r="B156" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="7" t="n">
+      <c r="A157" s="4" t="n">
         <v>45682</v>
       </c>
-      <c r="B157" s="0" t="n">
+      <c r="B157" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B158" s="0" t="n">
+      <c r="A158" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B158" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B159" s="0" t="n">
+      <c r="A159" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B159" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B160" s="0" t="n">
+      <c r="A160" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B160" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B161" s="0" t="n">
+      <c r="A161" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B161" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B162" s="0" t="n">
+      <c r="A162" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B162" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B163" s="0" t="n">
+      <c r="A163" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B163" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B164" s="0" t="n">
+      <c r="A164" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B164" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B165" s="0" t="n">
+      <c r="A165" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B165" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B166" s="0" t="n">
+      <c r="A166" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B166" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B167" s="0" t="n">
+      <c r="A167" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B167" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B168" s="0" t="n">
+      <c r="A168" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B168" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B169" s="0" t="n">
+      <c r="A169" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B169" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B170" s="0" t="n">
+      <c r="A170" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B170" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B171" s="0" t="n">
+      <c r="A171" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B171" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B172" s="0" t="n">
+      <c r="A172" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B172" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B173" s="0" t="n">
+      <c r="A173" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B173" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B174" s="0" t="n">
+      <c r="A174" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B174" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B175" s="0" t="n">
+      <c r="A175" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B175" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B176" s="0" t="n">
+      <c r="A176" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B176" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B177" s="0" t="n">
+      <c r="A177" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B177" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B178" s="0" t="n">
+      <c r="A178" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B178" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B179" s="0" t="n">
+      <c r="A179" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B179" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B180" s="0" t="n">
+      <c r="A180" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B180" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B181" s="0" t="n">
+      <c r="A181" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B181" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B182" s="0" t="n">
+      <c r="A182" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B182" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B183" s="0" t="n">
+      <c r="A183" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B183" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B184" s="0" t="n">
+      <c r="A184" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B184" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B185" s="0" t="n">
+      <c r="A185" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B185" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B186" s="0" t="n">
+      <c r="A186" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B186" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B187" s="0" t="n">
+      <c r="A187" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B187" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B188" s="0" t="n">
+      <c r="A188" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B188" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B189" s="0" t="n">
+      <c r="A189" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B189" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B190" s="0" t="n">
+      <c r="A190" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B190" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B191" s="0" t="n">
+      <c r="A191" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B191" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B192" s="0" t="n">
+      <c r="A192" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B192" s="1" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B193" s="0" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="7" t="n">
+      <c r="A193" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B193" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="4" t="n">
         <v>45682</v>
       </c>
-      <c r="B194" s="8" t="n">
+      <c r="B194" s="1" t="n">
         <f aca="false">-50*7.3</f>
         <v>-365</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B195" s="8" t="n">
+    <row r="195" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B195" s="1" t="n">
         <f aca="false">-3*7.3</f>
         <v>-21.9</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B196" s="8" t="n">
+    <row r="196" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B196" s="1" t="n">
         <f aca="false">-97.6366*7.3</f>
         <v>-712.74718</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="7" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B197" s="8" t="n">
+    <row r="197" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="4" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B197" s="1" t="n">
         <f aca="false">-4800*7.3</f>
         <v>-35040</v>
       </c>
@@ -2314,14 +2317,14 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2333,17 +2336,20 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2396,6 +2402,20 @@
       </c>
       <c r="B5" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>45683</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>2839</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2819.53</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <f aca="false">E5-D5</f>
+        <v>-19.4699999999998</v>
       </c>
     </row>
   </sheetData>

--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="BTC" sheetId="1" state="visible" r:id="rId3"/>
@@ -71,10 +71,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="167" formatCode="yy\年m\月d\日"/>
-    <numFmt numFmtId="168" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="168" formatCode="yy\年m\月d\日"/>
     <numFmt numFmtId="169" formatCode="yy\年m\月d\日"/>
   </numFmts>
   <fonts count="4">
@@ -149,12 +149,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -170,7 +174,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -178,11 +182,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -353,19 +361,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:K198"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.65234375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.65234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="9.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="17.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="14.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.88"/>
@@ -375,13 +384,13 @@
       <c r="A1" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="3" t="n">
         <v>0.06184138</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -398,13 +407,13 @@
       <c r="A2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="3" t="n">
         <v>418570.33</v>
       </c>
       <c r="G2" s="1" t="n">
@@ -422,10 +431,10 @@
       <c r="A3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1" t="n">
+      <c r="B3" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3" t="n">
         <f aca="false">E1*E2</f>
         <v>25884.9668342554</v>
       </c>
@@ -437,7 +446,7 @@
       <c r="A4" s="1" t="n">
         <v>720</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="3" t="n">
         <v>720</v>
       </c>
       <c r="I4" s="1" t="n">
@@ -449,7 +458,7 @@
       <c r="A5" s="1" t="n">
         <v>720</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="3" t="n">
         <v>14.22</v>
       </c>
       <c r="I5" s="1" t="n">
@@ -460,16 +469,16 @@
       <c r="A6" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="3" t="n">
         <v>720</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="1" t="n">
@@ -481,198 +490,198 @@
       <c r="A7" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="4" t="n">
         <v>45516</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="3" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>4734115.52</v>
-      </c>
-      <c r="E7" s="1" t="n">
+        <v>4779802.52</v>
+      </c>
+      <c r="E7" s="3" t="n">
         <v>25860.51</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="3" t="n">
         <f aca="false">E7-D7</f>
-        <v>-4708255.01</v>
+        <v>-4753942.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="4" t="n">
         <v>45517</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="3" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>4734115.52</v>
-      </c>
-      <c r="E8" s="1" t="n">
+        <v>4779802.52</v>
+      </c>
+      <c r="E8" s="3" t="n">
         <v>26146.93</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="3" t="n">
         <f aca="false">E8-D8</f>
-        <v>-4707968.59</v>
+        <v>-4753655.59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="4" t="n">
         <v>45519</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E9" s="1" t="n">
+      <c r="D9" s="3" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E9" s="3" t="n">
         <v>28964.52</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="3" t="n">
         <f aca="false">E9-D9</f>
-        <v>-22317.48882</v>
+        <v>-15013.83882</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>33.13</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="C10" s="2" t="n">
+      <c r="B10" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" s="4" t="n">
         <v>45530</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E10" s="1" t="n">
+      <c r="D10" s="3" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E10" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="3" t="n">
         <f aca="false">E10-D10</f>
-        <v>-21282.00882</v>
+        <v>-13978.35882</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="3" t="n">
         <v>33.13</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="4" t="n">
         <v>45532</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E11" s="1" t="n">
+      <c r="D11" s="3" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>29573</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="3" t="n">
         <f aca="false">E11-D11</f>
-        <v>-21709.00882</v>
+        <v>-14405.35882</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="4" t="n">
         <v>45542</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E12" s="1" t="n">
+      <c r="D12" s="3" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E12" s="3" t="n">
         <v>28972</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="3" t="n">
         <f aca="false">E12-D12</f>
-        <v>-22310.00882</v>
+        <v>-15006.35882</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="4" t="n">
         <v>45548</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E13" s="1" t="n">
+      <c r="D13" s="3" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E13" s="3" t="n">
         <v>30243.83</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="3" t="n">
         <f aca="false">E13-D13</f>
-        <v>-21038.17882</v>
+        <v>-13734.52882</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="4" t="n">
         <v>45555</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E14" s="1" t="n">
+      <c r="D14" s="3" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E14" s="3" t="n">
         <v>31046.96</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="3" t="n">
         <f aca="false">E14-D14</f>
-        <v>-20235.04882</v>
+        <v>-12931.39882</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="4" t="n">
         <v>45558</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E15" s="1" t="n">
+      <c r="D15" s="3" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E15" s="3" t="n">
         <v>32182.63</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="3" t="n">
         <f aca="false">E15-D15</f>
-        <v>-19099.37882</v>
+        <v>-11795.72882</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>4564.91</v>
@@ -686,33 +695,33 @@
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-18140.76222</v>
+        <v>-10837.11222</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-18140.76222</v>
+        <v>-10837.11222</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="4" t="n">
         <v>45566</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E16" s="1" t="n">
+      <c r="D16" s="3" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E16" s="3" t="n">
         <v>36761.16</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="3" t="n">
         <f aca="false">E16-D16</f>
-        <v>-14520.84882</v>
+        <v>-7217.19882</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>5236.63</v>
@@ -726,205 +735,205 @@
       </c>
       <c r="J16" s="1" t="n">
         <f aca="false">I16-D16</f>
-        <v>-13264.07502</v>
+        <v>-5960.42502</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="4" t="n">
         <v>45581</v>
       </c>
-      <c r="D17" s="1" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E17" s="1" t="n">
+      <c r="D17" s="3" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E17" s="3" t="n">
         <v>38133.54</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="3" t="n">
         <f aca="false">E17-D17</f>
-        <v>-13148.46882</v>
+        <v>-5844.81882</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="4" t="n">
         <v>45624</v>
       </c>
-      <c r="D18" s="1" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E18" s="1" t="n">
+      <c r="D18" s="3" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E18" s="3" t="n">
         <v>41866.21</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="3" t="n">
         <f aca="false">E18-D18</f>
-        <v>-9415.79882</v>
+        <v>-2112.14882</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="5" t="n">
         <v>45632</v>
       </c>
-      <c r="D19" s="1" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E19" s="1" t="n">
+      <c r="D19" s="3" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E19" s="3" t="n">
         <v>42353.52</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="3" t="n">
         <f aca="false">E19-D19</f>
-        <v>-8928.48882000001</v>
+        <v>-1624.83882</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="5" t="n">
         <v>45651</v>
       </c>
-      <c r="D20" s="1" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E20" s="1" t="n">
+      <c r="D20" s="3" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E20" s="3" t="n">
         <v>44606.52</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="3" t="n">
         <f aca="false">E20-D20</f>
-        <v>-6675.48882000001</v>
+        <v>628.161179999996</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="5" t="n">
         <v>45652</v>
       </c>
-      <c r="D21" s="1" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E21" s="1" t="n">
+      <c r="D21" s="3" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E21" s="3" t="n">
         <v>44717.5</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="3" t="n">
         <f aca="false">E21-D21</f>
-        <v>-6564.50882</v>
+        <v>739.141179999999</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>3615.39</v>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="C22" s="4" t="n">
+      <c r="B22" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" s="6" t="n">
         <v>45653</v>
       </c>
-      <c r="D22" s="1" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E22" s="1" t="n">
+      <c r="D22" s="3" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E22" s="3" t="n">
         <v>44960.44</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" s="3" t="n">
         <f aca="false">E22-D22</f>
-        <v>-6321.56882</v>
+        <v>982.081180000001</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="B23" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C23" s="4" t="n">
+      <c r="B23" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C23" s="6" t="n">
         <v>45654</v>
       </c>
-      <c r="D23" s="1" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E23" s="1" t="n">
+      <c r="D23" s="3" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E23" s="3" t="n">
         <v>44920.45</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="3" t="n">
         <f aca="false">E23-D23</f>
-        <v>-6361.55882000001</v>
+        <v>942.091179999996</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="3" t="n">
         <v>3615.39</v>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C24" s="6" t="n">
         <v>45655</v>
       </c>
-      <c r="D24" s="1" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E24" s="1" t="n">
+      <c r="D24" s="3" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E24" s="3" t="n">
         <v>45119.03</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" s="3" t="n">
         <f aca="false">E24-D24</f>
-        <v>-6162.97882</v>
+        <v>1140.67118</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C25" s="4" t="n">
+      <c r="B25" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C25" s="6" t="n">
         <v>45658</v>
       </c>
-      <c r="D25" s="1" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E25" s="1" t="n">
+      <c r="D25" s="3" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E25" s="3" t="n">
         <v>45422.35</v>
       </c>
-      <c r="F25" s="1" t="n">
+      <c r="F25" s="3" t="n">
         <f aca="false">E25-D25</f>
-        <v>-5859.65882</v>
+        <v>1443.99118</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>7</v>
@@ -934,235 +943,249 @@
       <c r="A26" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="3" t="n">
         <v>1800</v>
       </c>
-      <c r="C26" s="4" t="n">
+      <c r="C26" s="6" t="n">
         <v>45661</v>
       </c>
-      <c r="D26" s="1" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E26" s="1" t="n">
+      <c r="D26" s="3" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E26" s="3" t="n">
         <v>46603.55</v>
       </c>
-      <c r="F26" s="1" t="n">
+      <c r="F26" s="3" t="n">
         <f aca="false">E26-D26</f>
-        <v>-4678.45882</v>
+        <v>2625.19118</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="C27" s="4" t="n">
+      <c r="C27" s="6" t="n">
         <v>45663</v>
       </c>
-      <c r="D27" s="1" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E27" s="1" t="n">
+      <c r="D27" s="3" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E27" s="3" t="n">
         <v>48043.68</v>
       </c>
-      <c r="F27" s="1" t="n">
+      <c r="F27" s="3" t="n">
         <f aca="false">E27-D27</f>
-        <v>-3238.32882</v>
+        <v>4065.32118</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="3" t="n">
         <v>3000</v>
       </c>
-      <c r="C28" s="4" t="n">
+      <c r="C28" s="6" t="n">
         <v>45665</v>
       </c>
-      <c r="D28" s="1" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E28" s="1" t="n">
+      <c r="D28" s="3" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E28" s="3" t="n">
         <v>48405.71</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="F28" s="3" t="n">
         <f aca="false">E28-D28</f>
-        <v>-2876.29882</v>
+        <v>4427.35118</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="C29" s="4" t="n">
+      <c r="C29" s="6" t="n">
         <v>45666</v>
       </c>
-      <c r="D29" s="1" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E29" s="1" t="n">
+      <c r="D29" s="3" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E29" s="3" t="n">
         <v>47862.61</v>
       </c>
-      <c r="F29" s="1" t="n">
+      <c r="F29" s="3" t="n">
         <f aca="false">E29-D29</f>
-        <v>-3419.39882</v>
+        <v>3884.25118</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="C30" s="5" t="n">
+      <c r="C30" s="7" t="n">
         <v>45671</v>
       </c>
-      <c r="D30" s="6" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E30" s="6" t="n">
+      <c r="D30" s="8" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E30" s="8" t="n">
         <v>50895.56</v>
       </c>
-      <c r="F30" s="6" t="n">
+      <c r="F30" s="8" t="n">
         <f aca="false">E30-D30</f>
-        <v>-386.448820000005</v>
+        <v>6917.20118</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="C31" s="4" t="n">
+      <c r="C31" s="6" t="n">
         <v>45672</v>
       </c>
-      <c r="D31" s="6" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E31" s="1" t="n">
+      <c r="D31" s="8" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E31" s="3" t="n">
         <v>51943.59</v>
       </c>
-      <c r="F31" s="6" t="n">
+      <c r="F31" s="8" t="n">
         <f aca="false">E31-D31</f>
-        <v>661.581179999994</v>
+        <v>7965.23118</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B32" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="C32" s="4" t="n">
+      <c r="B32" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C32" s="6" t="n">
         <v>45678</v>
       </c>
-      <c r="D32" s="6" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E32" s="1" t="n">
+      <c r="D32" s="8" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E32" s="3" t="n">
         <v>52406.28</v>
       </c>
-      <c r="F32" s="6" t="n">
+      <c r="F32" s="8" t="n">
         <f aca="false">E32-D32</f>
-        <v>1124.27118</v>
+        <v>8427.92118</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="B33" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="C33" s="4" t="n">
+      <c r="B33" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="C33" s="6" t="n">
         <v>45679</v>
       </c>
-      <c r="D33" s="6" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E33" s="1" t="n">
+      <c r="D33" s="8" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E33" s="3" t="n">
         <v>55544.17</v>
       </c>
-      <c r="F33" s="6" t="n">
+      <c r="F33" s="8" t="n">
         <f aca="false">E33-D33</f>
-        <v>4262.16118</v>
+        <v>11565.81118</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="C34" s="4" t="n">
+      <c r="C34" s="6" t="n">
         <v>45679</v>
       </c>
-      <c r="D34" s="6" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E34" s="1" t="n">
+      <c r="D34" s="8" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E34" s="3" t="n">
         <v>55078.89</v>
       </c>
-      <c r="F34" s="6" t="n">
+      <c r="F34" s="8" t="n">
         <f aca="false">E34-D34</f>
-        <v>3796.88118</v>
+        <v>11100.53118</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B35" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="C35" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="D35" s="6" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>51282.00882</v>
-      </c>
-      <c r="E35" s="1" t="n">
+      <c r="B35" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="C35" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="D35" s="8" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E35" s="3" t="n">
         <v>55790.43</v>
       </c>
-      <c r="F35" s="6" t="n">
+      <c r="F35" s="8" t="n">
         <f aca="false">E35-D35</f>
-        <v>4508.42118</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11812.07118</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="3" t="n">
         <v>200</v>
+      </c>
+      <c r="C36" s="9" t="n">
+        <v>45687</v>
+      </c>
+      <c r="D36" s="8" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>43978.35882</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>48407.77</v>
+      </c>
+      <c r="F36" s="8" t="n">
+        <f aca="false">E36-D36</f>
+        <v>4429.41118</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="3" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1170,1135 +1193,1141 @@
       <c r="A38" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="3" t="n">
         <v>3000</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="3" t="n">
         <v>3000</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="3" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="3" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="3" t="n">
         <v>188</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="3" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="3" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="3" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="3" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="3" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="3" t="n">
         <v>130</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="3" t="n">
         <v>88</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="3" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="1" t="n">
+      <c r="B62" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="1" t="n">
+      <c r="B64" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="1" t="n">
+      <c r="B65" s="3" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="1" t="n">
+      <c r="B66" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="1" t="n">
+      <c r="B67" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="3" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="1" t="n">
+      <c r="B69" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="1" t="n">
+      <c r="B70" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="1" t="n">
+      <c r="B71" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="1" t="n">
+      <c r="B72" s="3" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="1" t="n">
+      <c r="B73" s="3" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="1" t="n">
+      <c r="B74" s="3" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="1" t="n">
+      <c r="B75" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="1" t="n">
+      <c r="B76" s="3" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="1" t="n">
+      <c r="B77" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="1" t="n">
+      <c r="B78" s="3" t="n">
         <v>98.06</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="1" t="n">
+      <c r="B79" s="3" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="1" t="n">
+      <c r="B80" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="1" t="n">
+      <c r="B81" s="3" t="n">
         <v>99</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="1" t="n">
+      <c r="B82" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="1" t="n">
+      <c r="B83" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="1" t="n">
+      <c r="B84" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="1" t="n">
+      <c r="B85" s="3" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="1" t="n">
+      <c r="B86" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="1" t="n">
+      <c r="B87" s="3" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="1" t="n">
+      <c r="B88" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="1" t="n">
+      <c r="B89" s="3" t="n">
         <v>99</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="1" t="n">
+      <c r="B90" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="n">
+      <c r="A91" s="6" t="n">
         <v>45650</v>
       </c>
-      <c r="B91" s="1" t="n">
+      <c r="B91" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="n">
+      <c r="A92" s="6" t="n">
         <v>45650</v>
       </c>
-      <c r="B92" s="1" t="n">
+      <c r="B92" s="3" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="n">
+      <c r="A93" s="6" t="n">
         <v>45650</v>
       </c>
-      <c r="B93" s="1" t="n">
+      <c r="B93" s="3" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="n">
+      <c r="A94" s="6" t="n">
         <v>45650</v>
       </c>
-      <c r="B94" s="1" t="n">
+      <c r="B94" s="3" t="n">
         <f aca="false">22.3*7.3</f>
         <v>162.79</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="1" t="n">
+      <c r="B95" s="3" t="n">
         <f aca="false">-35*7.3</f>
         <v>-255.5</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="1" t="n">
+      <c r="B96" s="3" t="n">
         <f aca="false">-5*7.3</f>
         <v>-36.5</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="1" t="n">
+      <c r="B97" s="3" t="n">
         <f aca="false">-1*7.3</f>
         <v>-7.3</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="1" t="n">
+      <c r="B98" s="3" t="n">
         <f aca="false">-5*7.3</f>
         <v>-36.5</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="n">
+      <c r="A99" s="6" t="n">
         <v>45651</v>
       </c>
-      <c r="B99" s="1" t="n">
+      <c r="B99" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4" t="n">
+      <c r="A100" s="6" t="n">
         <v>45651</v>
       </c>
-      <c r="B100" s="1" t="n">
+      <c r="B100" s="3" t="n">
         <v>880</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="n">
+      <c r="A101" s="6" t="n">
         <v>45651</v>
       </c>
-      <c r="B101" s="1" t="n">
+      <c r="B101" s="3" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="n">
+      <c r="A102" s="6" t="n">
         <v>45652</v>
       </c>
-      <c r="B102" s="1" t="n">
+      <c r="B102" s="3" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="n">
+      <c r="A103" s="6" t="n">
         <v>45652</v>
       </c>
-      <c r="B103" s="1" t="n">
+      <c r="B103" s="3" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="n">
+      <c r="A104" s="6" t="n">
         <v>45652</v>
       </c>
-      <c r="B104" s="1" t="n">
+      <c r="B104" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="n">
+      <c r="A105" s="6" t="n">
         <v>45653</v>
       </c>
-      <c r="B105" s="1" t="n">
+      <c r="B105" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="n">
+      <c r="A106" s="6" t="n">
         <v>45653</v>
       </c>
-      <c r="B106" s="1" t="n">
+      <c r="B106" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4" t="n">
+      <c r="A107" s="6" t="n">
         <v>45654</v>
       </c>
-      <c r="B107" s="1" t="n">
+      <c r="B107" s="3" t="n">
         <f aca="false">-10*7.3</f>
         <v>-73</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4" t="n">
+      <c r="A108" s="6" t="n">
         <v>45654</v>
       </c>
-      <c r="B108" s="1" t="n">
+      <c r="B108" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4" t="n">
+      <c r="A109" s="6" t="n">
         <v>45654</v>
       </c>
-      <c r="B109" s="1" t="n">
+      <c r="B109" s="3" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="n">
+      <c r="A110" s="6" t="n">
         <v>45654</v>
       </c>
-      <c r="B110" s="1" t="n">
+      <c r="B110" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="n">
+      <c r="A111" s="6" t="n">
         <v>45655</v>
       </c>
-      <c r="B111" s="1" t="n">
+      <c r="B111" s="3" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4" t="n">
+      <c r="A112" s="6" t="n">
         <v>45658</v>
       </c>
-      <c r="B112" s="1" t="n">
+      <c r="B112" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4" t="n">
+      <c r="A113" s="6" t="n">
         <v>45660</v>
       </c>
-      <c r="B113" s="1" t="n">
+      <c r="B113" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4" t="n">
+      <c r="A114" s="6" t="n">
         <v>45660</v>
       </c>
-      <c r="B114" s="1" t="n">
+      <c r="B114" s="3" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="n">
+      <c r="A115" s="6" t="n">
         <v>45661</v>
       </c>
-      <c r="B115" s="1" t="n">
+      <c r="B115" s="3" t="n">
         <v>880</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4" t="n">
+      <c r="A116" s="6" t="n">
         <v>45661</v>
       </c>
-      <c r="B116" s="1" t="n">
+      <c r="B116" s="3" t="n">
         <f aca="false">-92*7.3</f>
         <v>-671.6</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4" t="n">
+      <c r="A117" s="6" t="n">
         <v>45660</v>
       </c>
-      <c r="B117" s="1" t="n">
+      <c r="B117" s="3" t="n">
         <f aca="false">-10*7.3</f>
         <v>-73</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="n">
+      <c r="A118" s="6" t="n">
         <v>45663</v>
       </c>
-      <c r="B118" s="1" t="n">
+      <c r="B118" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4" t="n">
+      <c r="A119" s="6" t="n">
         <v>45664</v>
       </c>
-      <c r="B119" s="1" t="n">
+      <c r="B119" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="4" t="n">
+      <c r="A120" s="6" t="n">
         <v>45664</v>
       </c>
-      <c r="B120" s="1" t="n">
+      <c r="B120" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4" t="n">
+      <c r="A121" s="6" t="n">
         <v>45666</v>
       </c>
-      <c r="B121" s="1" t="n">
+      <c r="B121" s="3" t="n">
         <f aca="false">-11.51*7.3</f>
         <v>-84.023</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4" t="n">
+      <c r="A122" s="6" t="n">
         <v>45666</v>
       </c>
-      <c r="B122" s="1" t="n">
+      <c r="B122" s="3" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="4" t="n">
+      <c r="A123" s="6" t="n">
         <v>45669</v>
       </c>
-      <c r="B123" s="1" t="n">
+      <c r="B123" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="4" t="n">
+      <c r="A124" s="6" t="n">
         <v>45670</v>
       </c>
-      <c r="B124" s="1" t="n">
+      <c r="B124" s="3" t="n">
         <v>413</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4" t="n">
+      <c r="A125" s="6" t="n">
         <v>45670</v>
       </c>
-      <c r="B125" s="1" t="n">
+      <c r="B125" s="3" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="4" t="n">
+      <c r="A126" s="6" t="n">
         <v>45670</v>
       </c>
-      <c r="B126" s="1" t="n">
+      <c r="B126" s="3" t="n">
         <v>999</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="4" t="n">
+      <c r="A127" s="6" t="n">
         <v>45677</v>
       </c>
-      <c r="B127" s="1" t="n">
+      <c r="B127" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="4" t="n">
+      <c r="A128" s="6" t="n">
         <v>45677</v>
       </c>
-      <c r="B128" s="1" t="n">
+      <c r="B128" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4" t="n">
+      <c r="A129" s="6" t="n">
         <v>45677</v>
       </c>
-      <c r="B129" s="1" t="n">
+      <c r="B129" s="3" t="n">
         <v>3000</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="4" t="n">
+      <c r="A130" s="6" t="n">
         <v>45677</v>
       </c>
-      <c r="B130" s="1" t="n">
+      <c r="B130" s="3" t="n">
         <f aca="false">-680*7.3</f>
         <v>-4964</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="4" t="n">
+      <c r="A131" s="6" t="n">
         <v>45677</v>
       </c>
-      <c r="B131" s="1" t="n">
+      <c r="B131" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="4" t="n">
+      <c r="A132" s="6" t="n">
         <v>45677</v>
       </c>
-      <c r="B132" s="1" t="n">
+      <c r="B132" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="4" t="n">
+      <c r="A133" s="6" t="n">
         <v>45677</v>
       </c>
-      <c r="B133" s="1" t="n">
+      <c r="B133" s="3" t="n">
         <f aca="false">-276*7.3</f>
         <v>-2014.8</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="4" t="n">
+      <c r="A134" s="6" t="n">
         <v>45678</v>
       </c>
-      <c r="B134" s="1" t="n">
+      <c r="B134" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="4" t="n">
+      <c r="A135" s="6" t="n">
         <v>45678</v>
       </c>
-      <c r="B135" s="1" t="n">
+      <c r="B135" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="4" t="n">
+      <c r="A136" s="6" t="n">
         <v>45678</v>
       </c>
-      <c r="B136" s="1" t="n">
+      <c r="B136" s="3" t="n">
         <v>1500</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="4" t="n">
+      <c r="A137" s="6" t="n">
         <v>45678</v>
       </c>
-      <c r="B137" s="1" t="n">
+      <c r="B137" s="3" t="n">
         <f aca="false">-276*7.3</f>
         <v>-2014.8</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="4" t="n">
+      <c r="A138" s="6" t="n">
         <v>45678</v>
       </c>
-      <c r="B138" s="1" t="n">
+      <c r="B138" s="3" t="n">
         <f aca="false">-136.99*7.3</f>
         <v>-1000.027</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="4" t="n">
+      <c r="A139" s="6" t="n">
         <v>45678</v>
       </c>
-      <c r="B139" s="1" t="n">
+      <c r="B139" s="3" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="4" t="n">
+      <c r="A140" s="6" t="n">
         <v>45679</v>
       </c>
-      <c r="B140" s="1" t="n">
+      <c r="B140" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="4" t="n">
+      <c r="A141" s="6" t="n">
         <v>45679</v>
       </c>
-      <c r="B141" s="1" t="n">
+      <c r="B141" s="3" t="n">
         <f aca="false">-51.08*7.3</f>
         <v>-372.884</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="4" t="n">
+      <c r="A142" s="6" t="n">
         <v>45682</v>
       </c>
-      <c r="B142" s="1" t="n">
+      <c r="B142" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="4" t="n">
+      <c r="A143" s="6" t="n">
         <v>45682</v>
       </c>
-      <c r="B143" s="1" t="n">
+      <c r="B143" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="4" t="n">
+      <c r="A144" s="6" t="n">
         <v>45682</v>
       </c>
-      <c r="B144" s="1" t="n">
+      <c r="B144" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="4" t="n">
+      <c r="A145" s="6" t="n">
         <v>45682</v>
       </c>
-      <c r="B145" s="1" t="n">
+      <c r="B145" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="4" t="n">
+      <c r="A146" s="6" t="n">
         <v>45682</v>
       </c>
-      <c r="B146" s="1" t="n">
+      <c r="B146" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="4" t="n">
+      <c r="A147" s="6" t="n">
         <v>45682</v>
       </c>
-      <c r="B147" s="1" t="n">
+      <c r="B147" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="4" t="n">
+      <c r="A148" s="6" t="n">
         <v>45682</v>
       </c>
-      <c r="B148" s="1" t="n">
+      <c r="B148" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="4" t="n">
+      <c r="A149" s="6" t="n">
         <v>45682</v>
       </c>
-      <c r="B149" s="1" t="n">
+      <c r="B149" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="4" t="n">
+      <c r="A150" s="6" t="n">
         <v>45682</v>
       </c>
-      <c r="B150" s="1" t="n">
+      <c r="B150" s="3" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="4" t="n">
+      <c r="A151" s="6" t="n">
         <v>45682</v>
       </c>
-      <c r="B151" s="1" t="n">
+      <c r="B151" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="4" t="n">
+      <c r="A152" s="6" t="n">
         <v>45682</v>
       </c>
-      <c r="B152" s="1" t="n">
+      <c r="B152" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="4" t="n">
+      <c r="A153" s="6" t="n">
         <v>45682</v>
       </c>
-      <c r="B153" s="1" t="n">
+      <c r="B153" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="4" t="n">
+      <c r="A154" s="6" t="n">
         <v>45682</v>
       </c>
-      <c r="B154" s="1" t="n">
+      <c r="B154" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="4" t="n">
+      <c r="A155" s="6" t="n">
         <v>45682</v>
       </c>
-      <c r="B155" s="1" t="n">
+      <c r="B155" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="4" t="n">
+      <c r="A156" s="6" t="n">
         <v>45682</v>
       </c>
-      <c r="B156" s="1" t="n">
+      <c r="B156" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="4" t="n">
+      <c r="A157" s="6" t="n">
         <v>45682</v>
       </c>
-      <c r="B157" s="1" t="n">
+      <c r="B157" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B158" s="1" t="n">
+      <c r="A158" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B158" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B159" s="1" t="n">
+      <c r="A159" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B159" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B160" s="1" t="n">
+      <c r="A160" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B160" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B161" s="1" t="n">
+      <c r="A161" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B161" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B162" s="1" t="n">
+      <c r="A162" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B162" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B163" s="1" t="n">
+      <c r="A163" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B163" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B164" s="1" t="n">
+      <c r="A164" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B164" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B165" s="1" t="n">
+      <c r="A165" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B165" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B166" s="1" t="n">
+      <c r="A166" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B166" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B167" s="1" t="n">
+      <c r="A167" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B167" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B168" s="1" t="n">
+      <c r="A168" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B168" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B169" s="1" t="n">
+      <c r="A169" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B169" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B170" s="1" t="n">
+      <c r="A170" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B170" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B171" s="1" t="n">
+      <c r="A171" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B171" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B172" s="1" t="n">
+      <c r="A172" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B172" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B173" s="1" t="n">
+      <c r="A173" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B173" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B174" s="1" t="n">
+      <c r="A174" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B174" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B175" s="1" t="n">
+      <c r="A175" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B175" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B176" s="1" t="n">
+      <c r="A176" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B176" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B177" s="1" t="n">
+      <c r="A177" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B177" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B178" s="1" t="n">
+      <c r="A178" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B178" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B179" s="1" t="n">
+      <c r="A179" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B179" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B180" s="1" t="n">
+      <c r="A180" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B180" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B181" s="1" t="n">
+      <c r="A181" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B181" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B182" s="1" t="n">
+      <c r="A182" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B182" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B183" s="1" t="n">
+      <c r="A183" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B183" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B184" s="1" t="n">
+      <c r="A184" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B184" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B185" s="1" t="n">
+      <c r="A185" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B185" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B186" s="1" t="n">
+      <c r="A186" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B186" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B187" s="1" t="n">
+      <c r="A187" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B187" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B188" s="1" t="n">
+      <c r="A188" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B188" s="3" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B189" s="1" t="n">
+      <c r="A189" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B189" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B190" s="1" t="n">
+      <c r="A190" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B190" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B191" s="1" t="n">
+      <c r="A191" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B191" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B192" s="1" t="n">
+      <c r="A192" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B192" s="3" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B193" s="1" t="n">
+      <c r="A193" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B193" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="4" t="n">
+      <c r="A194" s="6" t="n">
         <v>45682</v>
       </c>
-      <c r="B194" s="1" t="n">
+      <c r="B194" s="3" t="n">
         <f aca="false">-50*7.3</f>
         <v>-365</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B195" s="1" t="n">
+      <c r="A195" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B195" s="3" t="n">
         <f aca="false">-3*7.3</f>
         <v>-21.9</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B196" s="1" t="n">
+      <c r="A196" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B196" s="3" t="n">
         <f aca="false">-97.6366*7.3</f>
         <v>-712.74718</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="4" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B197" s="1" t="n">
+      <c r="A197" s="6" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B197" s="3" t="n">
         <f aca="false">-4800*7.3</f>
         <v>-35040</v>
       </c>
     </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="9" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B198" s="2" t="n">
+        <f aca="false">-1000.5*7.3</f>
+        <v>-7303.65</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2317,14 +2346,14 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2336,7 +2365,7 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2353,13 +2382,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="6" t="n">
         <v>45643</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="6" t="n">
         <v>45663</v>
       </c>
       <c r="D3" s="1" t="n">
@@ -2375,13 +2404,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="6" t="n">
         <v>45659</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1814</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="6" t="n">
         <v>45668</v>
       </c>
       <c r="D4" s="1" t="n">
@@ -2397,20 +2426,20 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="6" t="n">
         <v>45660</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="6" t="n">
         <v>45683</v>
       </c>
       <c r="D5" s="1" t="n">
         <f aca="false">SUM(B:B)</f>
         <v>2839</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>2819.53</v>
       </c>
       <c r="F5" s="1" t="n">

--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -149,16 +149,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -361,36 +357,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K198"/>
+  <dimension ref="A1:K204"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
+      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.65234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="9.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="17.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="14.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="9.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B1" s="3" t="n">
+      <c r="B1" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="n">
+      <c r="E1" s="2" t="n">
         <v>0.06184138</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -407,13 +403,13 @@
       <c r="A2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="2" t="n">
         <v>418570.33</v>
       </c>
       <c r="G2" s="1" t="n">
@@ -431,10 +427,10 @@
       <c r="A3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" s="3" t="n">
+      <c r="B3" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <f aca="false">E1*E2</f>
         <v>25884.9668342554</v>
       </c>
@@ -446,7 +442,7 @@
       <c r="A4" s="1" t="n">
         <v>720</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="2" t="n">
         <v>720</v>
       </c>
       <c r="I4" s="1" t="n">
@@ -458,7 +454,7 @@
       <c r="A5" s="1" t="n">
         <v>720</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="2" t="n">
         <v>14.22</v>
       </c>
       <c r="I5" s="1" t="n">
@@ -469,16 +465,16 @@
       <c r="A6" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="2" t="n">
         <v>720</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="1" t="n">
@@ -490,198 +486,198 @@
       <c r="A7" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="3" t="n">
         <v>45516</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="2" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>4779802.52</v>
-      </c>
-      <c r="E7" s="3" t="n">
+        <v>5053937.52</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>25860.51</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="2" t="n">
         <f aca="false">E7-D7</f>
-        <v>-4753942.01</v>
+        <v>-5028077.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="3" t="n">
         <v>45517</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="2" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>4779802.52</v>
-      </c>
-      <c r="E8" s="3" t="n">
+        <v>5053937.52</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>26146.93</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="2" t="n">
         <f aca="false">E8-D8</f>
-        <v>-4753655.59</v>
+        <v>-5027790.59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="3" t="n">
         <v>45519</v>
       </c>
-      <c r="D9" s="3" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E9" s="3" t="n">
+      <c r="D9" s="2" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>28964.52</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="2" t="n">
         <f aca="false">E9-D9</f>
-        <v>-15013.83882</v>
+        <v>-15339.83882</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>33.13</v>
       </c>
-      <c r="B10" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="C10" s="4" t="n">
+      <c r="B10" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" s="3" t="n">
         <v>45530</v>
       </c>
-      <c r="D10" s="3" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E10" s="3" t="n">
+      <c r="D10" s="2" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>30000</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="2" t="n">
         <f aca="false">E10-D10</f>
-        <v>-13978.35882</v>
+        <v>-14304.35882</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="2" t="n">
         <v>33.13</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="3" t="n">
         <v>45532</v>
       </c>
-      <c r="D11" s="3" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E11" s="3" t="n">
+      <c r="D11" s="2" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>29573</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="2" t="n">
         <f aca="false">E11-D11</f>
-        <v>-14405.35882</v>
+        <v>-14731.35882</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="3" t="n">
         <v>45542</v>
       </c>
-      <c r="D12" s="3" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E12" s="3" t="n">
+      <c r="D12" s="2" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E12" s="2" t="n">
         <v>28972</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="2" t="n">
         <f aca="false">E12-D12</f>
-        <v>-15006.35882</v>
+        <v>-15332.35882</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="3" t="n">
         <v>45548</v>
       </c>
-      <c r="D13" s="3" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E13" s="3" t="n">
+      <c r="D13" s="2" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E13" s="2" t="n">
         <v>30243.83</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="2" t="n">
         <f aca="false">E13-D13</f>
-        <v>-13734.52882</v>
+        <v>-14060.52882</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="3" t="n">
         <v>45555</v>
       </c>
-      <c r="D14" s="3" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E14" s="3" t="n">
+      <c r="D14" s="2" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E14" s="2" t="n">
         <v>31046.96</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="2" t="n">
         <f aca="false">E14-D14</f>
-        <v>-12931.39882</v>
+        <v>-13257.39882</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="3" t="n">
         <v>45558</v>
       </c>
-      <c r="D15" s="3" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E15" s="3" t="n">
+      <c r="D15" s="2" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E15" s="2" t="n">
         <v>32182.63</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="2" t="n">
         <f aca="false">E15-D15</f>
-        <v>-11795.72882</v>
+        <v>-12121.72882</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>4564.91</v>
@@ -695,33 +691,33 @@
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-10837.11222</v>
+        <v>-11163.11222</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-10837.11222</v>
+        <v>-11163.11222</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="3" t="n">
         <v>45566</v>
       </c>
-      <c r="D16" s="3" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E16" s="3" t="n">
+      <c r="D16" s="2" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E16" s="2" t="n">
         <v>36761.16</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="2" t="n">
         <f aca="false">E16-D16</f>
-        <v>-7217.19882</v>
+        <v>-7543.19882</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>5236.63</v>
@@ -735,205 +731,205 @@
       </c>
       <c r="J16" s="1" t="n">
         <f aca="false">I16-D16</f>
-        <v>-5960.42502</v>
+        <v>-6286.42502</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="3" t="n">
         <v>45581</v>
       </c>
-      <c r="D17" s="3" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E17" s="3" t="n">
+      <c r="D17" s="2" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E17" s="2" t="n">
         <v>38133.54</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="2" t="n">
         <f aca="false">E17-D17</f>
-        <v>-5844.81882</v>
+        <v>-6170.81882</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="3" t="n">
         <v>45624</v>
       </c>
-      <c r="D18" s="3" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E18" s="3" t="n">
+      <c r="D18" s="2" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E18" s="2" t="n">
         <v>41866.21</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="2" t="n">
         <f aca="false">E18-D18</f>
-        <v>-2112.14882</v>
+        <v>-2438.14882</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="4" t="n">
         <v>45632</v>
       </c>
-      <c r="D19" s="3" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E19" s="3" t="n">
+      <c r="D19" s="2" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E19" s="2" t="n">
         <v>42353.52</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="2" t="n">
         <f aca="false">E19-D19</f>
-        <v>-1624.83882</v>
+        <v>-1950.83882</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="4" t="n">
         <v>45651</v>
       </c>
-      <c r="D20" s="3" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E20" s="3" t="n">
+      <c r="D20" s="2" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E20" s="2" t="n">
         <v>44606.52</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="2" t="n">
         <f aca="false">E20-D20</f>
-        <v>628.161179999996</v>
+        <v>302.161179999996</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="4" t="n">
         <v>45652</v>
       </c>
-      <c r="D21" s="3" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E21" s="3" t="n">
+      <c r="D21" s="2" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E21" s="2" t="n">
         <v>44717.5</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="2" t="n">
         <f aca="false">E21-D21</f>
-        <v>739.141179999999</v>
+        <v>413.141179999999</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>3615.39</v>
       </c>
-      <c r="B22" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="C22" s="6" t="n">
+      <c r="B22" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" s="5" t="n">
         <v>45653</v>
       </c>
-      <c r="D22" s="3" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E22" s="3" t="n">
+      <c r="D22" s="2" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E22" s="2" t="n">
         <v>44960.44</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="2" t="n">
         <f aca="false">E22-D22</f>
-        <v>982.081180000001</v>
+        <v>656.081180000001</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="B23" s="3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C23" s="6" t="n">
+      <c r="B23" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C23" s="5" t="n">
         <v>45654</v>
       </c>
-      <c r="D23" s="3" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E23" s="3" t="n">
+      <c r="D23" s="2" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E23" s="2" t="n">
         <v>44920.45</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="2" t="n">
         <f aca="false">E23-D23</f>
-        <v>942.091179999996</v>
+        <v>616.091179999996</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="2" t="n">
         <v>3615.39</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C24" s="5" t="n">
         <v>45655</v>
       </c>
-      <c r="D24" s="3" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E24" s="3" t="n">
+      <c r="D24" s="2" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E24" s="2" t="n">
         <v>45119.03</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="2" t="n">
         <f aca="false">E24-D24</f>
-        <v>1140.67118</v>
+        <v>814.671179999998</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="B25" s="3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C25" s="6" t="n">
+      <c r="B25" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C25" s="5" t="n">
         <v>45658</v>
       </c>
-      <c r="D25" s="3" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E25" s="3" t="n">
+      <c r="D25" s="2" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E25" s="2" t="n">
         <v>45422.35</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F25" s="2" t="n">
         <f aca="false">E25-D25</f>
-        <v>1443.99118</v>
+        <v>1117.99118</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>7</v>
@@ -943,1389 +939,1451 @@
       <c r="A26" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="2" t="n">
         <v>1800</v>
       </c>
-      <c r="C26" s="6" t="n">
+      <c r="C26" s="5" t="n">
         <v>45661</v>
       </c>
-      <c r="D26" s="3" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E26" s="3" t="n">
+      <c r="D26" s="2" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E26" s="2" t="n">
         <v>46603.55</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="2" t="n">
         <f aca="false">E26-D26</f>
-        <v>2625.19118</v>
+        <v>2299.19118</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="2" t="n">
         <v>1200</v>
       </c>
-      <c r="C27" s="6" t="n">
+      <c r="C27" s="5" t="n">
         <v>45663</v>
       </c>
-      <c r="D27" s="3" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E27" s="3" t="n">
+      <c r="D27" s="2" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E27" s="2" t="n">
         <v>48043.68</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" s="2" t="n">
         <f aca="false">E27-D27</f>
-        <v>4065.32118</v>
+        <v>3739.32118</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="C28" s="6" t="n">
+      <c r="C28" s="5" t="n">
         <v>45665</v>
       </c>
-      <c r="D28" s="3" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E28" s="3" t="n">
+      <c r="D28" s="2" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E28" s="2" t="n">
         <v>48405.71</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" s="2" t="n">
         <f aca="false">E28-D28</f>
-        <v>4427.35118</v>
+        <v>4101.35118</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="C29" s="6" t="n">
+      <c r="C29" s="5" t="n">
         <v>45666</v>
       </c>
-      <c r="D29" s="3" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E29" s="3" t="n">
+      <c r="D29" s="2" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E29" s="2" t="n">
         <v>47862.61</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="2" t="n">
         <f aca="false">E29-D29</f>
-        <v>3884.25118</v>
+        <v>3558.25118</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="C30" s="7" t="n">
+      <c r="C30" s="6" t="n">
         <v>45671</v>
       </c>
-      <c r="D30" s="8" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E30" s="8" t="n">
+      <c r="D30" s="7" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E30" s="7" t="n">
         <v>50895.56</v>
       </c>
-      <c r="F30" s="8" t="n">
+      <c r="F30" s="7" t="n">
         <f aca="false">E30-D30</f>
-        <v>6917.20118</v>
+        <v>6591.20118</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="C31" s="6" t="n">
+      <c r="C31" s="5" t="n">
         <v>45672</v>
       </c>
-      <c r="D31" s="8" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E31" s="3" t="n">
+      <c r="D31" s="7" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E31" s="2" t="n">
         <v>51943.59</v>
       </c>
-      <c r="F31" s="8" t="n">
+      <c r="F31" s="7" t="n">
         <f aca="false">E31-D31</f>
-        <v>7965.23118</v>
+        <v>7639.23118</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B32" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="C32" s="6" t="n">
+      <c r="B32" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C32" s="5" t="n">
         <v>45678</v>
       </c>
-      <c r="D32" s="8" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E32" s="3" t="n">
+      <c r="D32" s="7" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E32" s="2" t="n">
         <v>52406.28</v>
       </c>
-      <c r="F32" s="8" t="n">
+      <c r="F32" s="7" t="n">
         <f aca="false">E32-D32</f>
-        <v>8427.92118</v>
+        <v>8101.92118</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="B33" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="C33" s="6" t="n">
+      <c r="B33" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="C33" s="5" t="n">
         <v>45679</v>
       </c>
-      <c r="D33" s="8" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E33" s="3" t="n">
+      <c r="D33" s="7" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E33" s="2" t="n">
         <v>55544.17</v>
       </c>
-      <c r="F33" s="8" t="n">
+      <c r="F33" s="7" t="n">
         <f aca="false">E33-D33</f>
-        <v>11565.81118</v>
+        <v>11239.81118</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="C34" s="6" t="n">
+      <c r="C34" s="5" t="n">
         <v>45679</v>
       </c>
-      <c r="D34" s="8" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E34" s="3" t="n">
+      <c r="D34" s="7" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E34" s="2" t="n">
         <v>55078.89</v>
       </c>
-      <c r="F34" s="8" t="n">
+      <c r="F34" s="7" t="n">
         <f aca="false">E34-D34</f>
-        <v>11100.53118</v>
+        <v>10774.53118</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B35" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="C35" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="D35" s="8" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E35" s="3" t="n">
+      <c r="B35" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E35" s="2" t="n">
         <v>55790.43</v>
       </c>
-      <c r="F35" s="8" t="n">
+      <c r="F35" s="7" t="n">
         <f aca="false">E35-D35</f>
-        <v>11812.07118</v>
+        <v>11486.07118</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="C36" s="9" t="n">
+      <c r="C36" s="5" t="n">
         <v>45687</v>
       </c>
-      <c r="D36" s="8" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>43978.35882</v>
-      </c>
-      <c r="E36" s="3" t="n">
+      <c r="D36" s="7" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E36" s="2" t="n">
         <v>48407.77</v>
       </c>
-      <c r="F36" s="8" t="n">
+      <c r="F36" s="7" t="n">
         <f aca="false">E36-D36</f>
-        <v>4429.41118</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4103.41118</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="B37" s="3" t="n">
-        <v>100</v>
+      <c r="B37" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>45693</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>44304.35882</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>47821.72</v>
+      </c>
+      <c r="F37" s="7" t="n">
+        <f aca="false">E37-D37</f>
+        <v>3517.36118</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="2" t="n">
         <v>3000</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="2" t="n">
         <v>3000</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="2" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="2" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="2" t="n">
         <v>188</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="2" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="2" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="2" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="2" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="2" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="2" t="n">
         <v>130</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="2" t="n">
         <v>88</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="2" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="2" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="2" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="2" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="2" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="2" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="2" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="2" t="n">
         <v>98.06</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="2" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="2" t="n">
         <v>99</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="2" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="2" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="2" t="n">
         <v>99</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="6" t="n">
+      <c r="A91" s="5" t="n">
         <v>45650</v>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="6" t="n">
+      <c r="A92" s="5" t="n">
         <v>45650</v>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="2" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="6" t="n">
+      <c r="A93" s="5" t="n">
         <v>45650</v>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="2" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6" t="n">
+      <c r="A94" s="5" t="n">
         <v>45650</v>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="2" t="n">
         <f aca="false">22.3*7.3</f>
         <v>162.79</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="2" t="n">
         <f aca="false">-35*7.3</f>
         <v>-255.5</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="2" t="n">
         <f aca="false">-5*7.3</f>
         <v>-36.5</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="2" t="n">
         <f aca="false">-1*7.3</f>
         <v>-7.3</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="2" t="n">
         <f aca="false">-5*7.3</f>
         <v>-36.5</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="6" t="n">
+      <c r="A99" s="5" t="n">
         <v>45651</v>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="6" t="n">
+      <c r="A100" s="5" t="n">
         <v>45651</v>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="2" t="n">
         <v>880</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6" t="n">
+      <c r="A101" s="5" t="n">
         <v>45651</v>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="2" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="6" t="n">
+      <c r="A102" s="5" t="n">
         <v>45652</v>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="2" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="6" t="n">
+      <c r="A103" s="5" t="n">
         <v>45652</v>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="2" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="6" t="n">
+      <c r="A104" s="5" t="n">
         <v>45652</v>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="6" t="n">
+      <c r="A105" s="5" t="n">
         <v>45653</v>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="6" t="n">
+      <c r="A106" s="5" t="n">
         <v>45653</v>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="6" t="n">
+      <c r="A107" s="5" t="n">
         <v>45654</v>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="2" t="n">
         <f aca="false">-10*7.3</f>
         <v>-73</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="6" t="n">
+      <c r="A108" s="5" t="n">
         <v>45654</v>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="6" t="n">
+      <c r="A109" s="5" t="n">
         <v>45654</v>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="2" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="6" t="n">
+      <c r="A110" s="5" t="n">
         <v>45654</v>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="6" t="n">
+      <c r="A111" s="5" t="n">
         <v>45655</v>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="2" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="6" t="n">
+      <c r="A112" s="5" t="n">
         <v>45658</v>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="6" t="n">
+      <c r="A113" s="5" t="n">
         <v>45660</v>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="6" t="n">
+      <c r="A114" s="5" t="n">
         <v>45660</v>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="2" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="6" t="n">
+      <c r="A115" s="5" t="n">
         <v>45661</v>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="2" t="n">
         <v>880</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="6" t="n">
+      <c r="A116" s="5" t="n">
         <v>45661</v>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="2" t="n">
         <f aca="false">-92*7.3</f>
         <v>-671.6</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="6" t="n">
+      <c r="A117" s="5" t="n">
         <v>45660</v>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="2" t="n">
         <f aca="false">-10*7.3</f>
         <v>-73</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="6" t="n">
+      <c r="A118" s="5" t="n">
         <v>45663</v>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="6" t="n">
+      <c r="A119" s="5" t="n">
         <v>45664</v>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="6" t="n">
+      <c r="A120" s="5" t="n">
         <v>45664</v>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="6" t="n">
+      <c r="A121" s="5" t="n">
         <v>45666</v>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="2" t="n">
         <f aca="false">-11.51*7.3</f>
         <v>-84.023</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="6" t="n">
+      <c r="A122" s="5" t="n">
         <v>45666</v>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="2" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="6" t="n">
+      <c r="A123" s="5" t="n">
         <v>45669</v>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="6" t="n">
+      <c r="A124" s="5" t="n">
         <v>45670</v>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="2" t="n">
         <v>413</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="6" t="n">
+      <c r="A125" s="5" t="n">
         <v>45670</v>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="2" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="6" t="n">
+      <c r="A126" s="5" t="n">
         <v>45670</v>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="2" t="n">
         <v>999</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="6" t="n">
+      <c r="A127" s="5" t="n">
         <v>45677</v>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="6" t="n">
+      <c r="A128" s="5" t="n">
         <v>45677</v>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="6" t="n">
+      <c r="A129" s="5" t="n">
         <v>45677</v>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="2" t="n">
         <v>3000</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="6" t="n">
+      <c r="A130" s="5" t="n">
         <v>45677</v>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="2" t="n">
         <f aca="false">-680*7.3</f>
         <v>-4964</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="6" t="n">
+      <c r="A131" s="5" t="n">
         <v>45677</v>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="6" t="n">
+      <c r="A132" s="5" t="n">
         <v>45677</v>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="6" t="n">
+      <c r="A133" s="5" t="n">
         <v>45677</v>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="2" t="n">
         <f aca="false">-276*7.3</f>
         <v>-2014.8</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="6" t="n">
+      <c r="A134" s="5" t="n">
         <v>45678</v>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="6" t="n">
+      <c r="A135" s="5" t="n">
         <v>45678</v>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="6" t="n">
+      <c r="A136" s="5" t="n">
         <v>45678</v>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="2" t="n">
         <v>1500</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="6" t="n">
+      <c r="A137" s="5" t="n">
         <v>45678</v>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="2" t="n">
         <f aca="false">-276*7.3</f>
         <v>-2014.8</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="6" t="n">
+      <c r="A138" s="5" t="n">
         <v>45678</v>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="2" t="n">
         <f aca="false">-136.99*7.3</f>
         <v>-1000.027</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="6" t="n">
+      <c r="A139" s="5" t="n">
         <v>45678</v>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="2" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="6" t="n">
+      <c r="A140" s="5" t="n">
         <v>45679</v>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="6" t="n">
+      <c r="A141" s="5" t="n">
         <v>45679</v>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="2" t="n">
         <f aca="false">-51.08*7.3</f>
         <v>-372.884</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="6" t="n">
+      <c r="A142" s="5" t="n">
         <v>45682</v>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="6" t="n">
+      <c r="A143" s="5" t="n">
         <v>45682</v>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="6" t="n">
+      <c r="A144" s="5" t="n">
         <v>45682</v>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="6" t="n">
+      <c r="A145" s="5" t="n">
         <v>45682</v>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="6" t="n">
+      <c r="A146" s="5" t="n">
         <v>45682</v>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="6" t="n">
+      <c r="A147" s="5" t="n">
         <v>45682</v>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="6" t="n">
+      <c r="A148" s="5" t="n">
         <v>45682</v>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="6" t="n">
+      <c r="A149" s="5" t="n">
         <v>45682</v>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="6" t="n">
+      <c r="A150" s="5" t="n">
         <v>45682</v>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="2" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="6" t="n">
+      <c r="A151" s="5" t="n">
         <v>45682</v>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="6" t="n">
+      <c r="A152" s="5" t="n">
         <v>45682</v>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="6" t="n">
+      <c r="A153" s="5" t="n">
         <v>45682</v>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="6" t="n">
+      <c r="A154" s="5" t="n">
         <v>45682</v>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="6" t="n">
+      <c r="A155" s="5" t="n">
         <v>45682</v>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="6" t="n">
+      <c r="A156" s="5" t="n">
         <v>45682</v>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="6" t="n">
+      <c r="A157" s="5" t="n">
         <v>45682</v>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B158" s="3" t="n">
+      <c r="A158" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B158" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B159" s="3" t="n">
+      <c r="A159" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B159" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B160" s="3" t="n">
+      <c r="A160" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B160" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B161" s="3" t="n">
+      <c r="A161" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B161" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B162" s="3" t="n">
+      <c r="A162" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B162" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B163" s="3" t="n">
+      <c r="A163" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B163" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B164" s="3" t="n">
+      <c r="A164" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B164" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B165" s="3" t="n">
+      <c r="A165" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B165" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B166" s="3" t="n">
+      <c r="A166" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B166" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B167" s="3" t="n">
+      <c r="A167" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B167" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B168" s="3" t="n">
+      <c r="A168" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B168" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B169" s="3" t="n">
+      <c r="A169" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B169" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B170" s="3" t="n">
+      <c r="A170" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B170" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B171" s="3" t="n">
+      <c r="A171" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B171" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B172" s="3" t="n">
+      <c r="A172" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B172" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B173" s="3" t="n">
+      <c r="A173" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B173" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B174" s="3" t="n">
+      <c r="A174" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B174" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B175" s="3" t="n">
+      <c r="A175" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B175" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B176" s="3" t="n">
+      <c r="A176" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B176" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B177" s="3" t="n">
+      <c r="A177" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B177" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B178" s="3" t="n">
+      <c r="A178" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B178" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B179" s="3" t="n">
+      <c r="A179" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B179" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B180" s="3" t="n">
+      <c r="A180" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B180" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B181" s="3" t="n">
+      <c r="A181" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B181" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B182" s="3" t="n">
+      <c r="A182" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B182" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B183" s="3" t="n">
+      <c r="A183" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B183" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B184" s="3" t="n">
+      <c r="A184" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B184" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B185" s="3" t="n">
+      <c r="A185" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B185" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B186" s="3" t="n">
+      <c r="A186" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B186" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B187" s="3" t="n">
+      <c r="A187" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B187" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B188" s="3" t="n">
+      <c r="A188" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B188" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B189" s="3" t="n">
+      <c r="A189" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B189" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B190" s="3" t="n">
+      <c r="A190" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B190" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B191" s="3" t="n">
+      <c r="A191" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B191" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B192" s="3" t="n">
+      <c r="A192" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B192" s="2" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B193" s="3" t="n">
+      <c r="A193" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B193" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="6" t="n">
+      <c r="A194" s="5" t="n">
         <v>45682</v>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="2" t="n">
         <f aca="false">-50*7.3</f>
         <v>-365</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B195" s="3" t="n">
+      <c r="A195" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B195" s="2" t="n">
         <f aca="false">-3*7.3</f>
         <v>-21.9</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B196" s="3" t="n">
+      <c r="A196" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B196" s="2" t="n">
         <f aca="false">-97.6366*7.3</f>
         <v>-712.74718</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="6" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B197" s="3" t="n">
+      <c r="A197" s="5" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B197" s="2" t="n">
         <f aca="false">-4800*7.3</f>
         <v>-35040</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="9" t="n">
+      <c r="A198" s="5" t="n">
         <v>45687</v>
       </c>
       <c r="B198" s="2" t="n">
         <f aca="false">-1000.5*7.3</f>
         <v>-7303.65</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="8" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="8" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="8" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="8" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="8" t="n">
+        <v>45690</v>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="8" t="n">
+        <v>45690</v>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2350,10 +2408,10 @@
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2365,7 +2423,7 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2382,13 +2440,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="5" t="n">
         <v>45643</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="5" t="n">
         <v>45663</v>
       </c>
       <c r="D3" s="1" t="n">
@@ -2404,13 +2462,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="5" t="n">
         <v>45659</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1814</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="5" t="n">
         <v>45668</v>
       </c>
       <c r="D4" s="1" t="n">
@@ -2426,13 +2484,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="5" t="n">
         <v>45660</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="5" t="n">
         <v>45683</v>
       </c>
       <c r="D5" s="1" t="n">
@@ -2452,8 +2510,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/斌BTC记录.xlsx
+++ b/斌BTC记录.xlsx
@@ -357,23 +357,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K204"/>
+  <dimension ref="A1:K221"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="9.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="9.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -494,14 +494,14 @@
       </c>
       <c r="D7" s="2" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>5053937.52</v>
+        <v>5830800.52</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>25860.51</v>
       </c>
       <c r="F7" s="2" t="n">
         <f aca="false">E7-D7</f>
-        <v>-5028077.01</v>
+        <v>-5804940.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,14 +516,14 @@
       </c>
       <c r="D8" s="2" t="n">
         <f aca="false">SUM(A:A)</f>
-        <v>5053937.52</v>
+        <v>5830800.52</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>26146.93</v>
       </c>
       <c r="F8" s="2" t="n">
         <f aca="false">E8-D8</f>
-        <v>-5027790.59</v>
+        <v>-5804653.59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -538,14 +538,14 @@
       </c>
       <c r="D9" s="2" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>28964.52</v>
       </c>
       <c r="F9" s="2" t="n">
         <f aca="false">E9-D9</f>
-        <v>-15339.83882</v>
+        <v>-10322.533377</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -560,14 +560,14 @@
       </c>
       <c r="D10" s="2" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>30000</v>
       </c>
       <c r="F10" s="2" t="n">
         <f aca="false">E10-D10</f>
-        <v>-14304.35882</v>
+        <v>-9287.053377</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -582,14 +582,14 @@
       </c>
       <c r="D11" s="2" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>29573</v>
       </c>
       <c r="F11" s="2" t="n">
         <f aca="false">E11-D11</f>
-        <v>-14731.35882</v>
+        <v>-9714.053377</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -604,14 +604,14 @@
       </c>
       <c r="D12" s="2" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>28972</v>
       </c>
       <c r="F12" s="2" t="n">
         <f aca="false">E12-D12</f>
-        <v>-15332.35882</v>
+        <v>-10315.053377</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -626,14 +626,14 @@
       </c>
       <c r="D13" s="2" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>30243.83</v>
       </c>
       <c r="F13" s="2" t="n">
         <f aca="false">E13-D13</f>
-        <v>-14060.52882</v>
+        <v>-9043.223377</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -648,14 +648,14 @@
       </c>
       <c r="D14" s="2" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>31046.96</v>
       </c>
       <c r="F14" s="2" t="n">
         <f aca="false">E14-D14</f>
-        <v>-13257.39882</v>
+        <v>-8240.09337700001</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -670,14 +670,14 @@
       </c>
       <c r="D15" s="2" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>32182.63</v>
       </c>
       <c r="F15" s="2" t="n">
         <f aca="false">E15-D15</f>
-        <v>-12121.72882</v>
+        <v>-7104.423377</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>4564.91</v>
@@ -691,11 +691,11 @@
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-11163.11222</v>
+        <v>-6145.80677700001</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">I15-D15</f>
-        <v>-11163.11222</v>
+        <v>-6145.80677700001</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -710,14 +710,14 @@
       </c>
       <c r="D16" s="2" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>36761.16</v>
       </c>
       <c r="F16" s="2" t="n">
         <f aca="false">E16-D16</f>
-        <v>-7543.19882</v>
+        <v>-2525.893377</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>5236.63</v>
@@ -731,7 +731,7 @@
       </c>
       <c r="J16" s="1" t="n">
         <f aca="false">I16-D16</f>
-        <v>-6286.42502</v>
+        <v>-1269.11957700001</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,14 +746,14 @@
       </c>
       <c r="D17" s="2" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>38133.54</v>
       </c>
       <c r="F17" s="2" t="n">
         <f aca="false">E17-D17</f>
-        <v>-6170.81882</v>
+        <v>-1153.513377</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,14 +768,14 @@
       </c>
       <c r="D18" s="2" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>41866.21</v>
       </c>
       <c r="F18" s="2" t="n">
         <f aca="false">E18-D18</f>
-        <v>-2438.14882</v>
+        <v>2579.156623</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,14 +790,14 @@
       </c>
       <c r="D19" s="2" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>42353.52</v>
       </c>
       <c r="F19" s="2" t="n">
         <f aca="false">E19-D19</f>
-        <v>-1950.83882</v>
+        <v>3066.46662299999</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,14 +812,14 @@
       </c>
       <c r="D20" s="2" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>44606.52</v>
       </c>
       <c r="F20" s="2" t="n">
         <f aca="false">E20-D20</f>
-        <v>302.161179999996</v>
+        <v>5319.46662299999</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -834,14 +834,14 @@
       </c>
       <c r="D21" s="2" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>44717.5</v>
       </c>
       <c r="F21" s="2" t="n">
         <f aca="false">E21-D21</f>
-        <v>413.141179999999</v>
+        <v>5430.446623</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -856,14 +856,14 @@
       </c>
       <c r="D22" s="2" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>44960.44</v>
       </c>
       <c r="F22" s="2" t="n">
         <f aca="false">E22-D22</f>
-        <v>656.081180000001</v>
+        <v>5673.386623</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,14 +878,14 @@
       </c>
       <c r="D23" s="2" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>44920.45</v>
       </c>
       <c r="F23" s="2" t="n">
         <f aca="false">E23-D23</f>
-        <v>616.091179999996</v>
+        <v>5633.39662299999</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -900,14 +900,14 @@
       </c>
       <c r="D24" s="2" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>45119.03</v>
       </c>
       <c r="F24" s="2" t="n">
         <f aca="false">E24-D24</f>
-        <v>814.671179999998</v>
+        <v>5831.976623</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -922,14 +922,14 @@
       </c>
       <c r="D25" s="2" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>45422.35</v>
       </c>
       <c r="F25" s="2" t="n">
         <f aca="false">E25-D25</f>
-        <v>1117.99118</v>
+        <v>6135.296623</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>7</v>
@@ -947,14 +947,14 @@
       </c>
       <c r="D26" s="2" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>46603.55</v>
       </c>
       <c r="F26" s="2" t="n">
         <f aca="false">E26-D26</f>
-        <v>2299.19118</v>
+        <v>7316.496623</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -969,14 +969,14 @@
       </c>
       <c r="D27" s="2" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>48043.68</v>
       </c>
       <c r="F27" s="2" t="n">
         <f aca="false">E27-D27</f>
-        <v>3739.32118</v>
+        <v>8756.626623</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -991,14 +991,14 @@
       </c>
       <c r="D28" s="2" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>48405.71</v>
       </c>
       <c r="F28" s="2" t="n">
         <f aca="false">E28-D28</f>
-        <v>4101.35118</v>
+        <v>9118.656623</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1013,14 +1013,14 @@
       </c>
       <c r="D29" s="2" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>47862.61</v>
       </c>
       <c r="F29" s="2" t="n">
         <f aca="false">E29-D29</f>
-        <v>3558.25118</v>
+        <v>8575.556623</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,14 +1035,14 @@
       </c>
       <c r="D30" s="7" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E30" s="7" t="n">
         <v>50895.56</v>
       </c>
       <c r="F30" s="7" t="n">
         <f aca="false">E30-D30</f>
-        <v>6591.20118</v>
+        <v>11608.506623</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,14 +1057,14 @@
       </c>
       <c r="D31" s="7" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>51943.59</v>
       </c>
       <c r="F31" s="7" t="n">
         <f aca="false">E31-D31</f>
-        <v>7639.23118</v>
+        <v>12656.536623</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1079,14 +1079,14 @@
       </c>
       <c r="D32" s="7" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>52406.28</v>
       </c>
       <c r="F32" s="7" t="n">
         <f aca="false">E32-D32</f>
-        <v>8101.92118</v>
+        <v>13119.226623</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,14 +1101,14 @@
       </c>
       <c r="D33" s="7" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>55544.17</v>
       </c>
       <c r="F33" s="7" t="n">
         <f aca="false">E33-D33</f>
-        <v>11239.81118</v>
+        <v>16257.116623</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1123,14 +1123,14 @@
       </c>
       <c r="D34" s="7" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>55078.89</v>
       </c>
       <c r="F34" s="7" t="n">
         <f aca="false">E34-D34</f>
-        <v>10774.53118</v>
+        <v>15791.836623</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,14 +1145,14 @@
       </c>
       <c r="D35" s="7" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>55790.43</v>
       </c>
       <c r="F35" s="7" t="n">
         <f aca="false">E35-D35</f>
-        <v>11486.07118</v>
+        <v>16503.376623</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1167,14 +1167,14 @@
       </c>
       <c r="D36" s="7" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>48407.77</v>
       </c>
       <c r="F36" s="7" t="n">
         <f aca="false">E36-D36</f>
-        <v>4103.41118</v>
+        <v>9120.71662299999</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1184,27 +1184,41 @@
       <c r="B37" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="C37" s="8" t="n">
+      <c r="C37" s="5" t="n">
         <v>45693</v>
       </c>
       <c r="D37" s="7" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>44304.35882</v>
+        <v>39287.053377</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>47821.72</v>
       </c>
       <c r="F37" s="7" t="n">
         <f aca="false">E37-D37</f>
-        <v>3517.36118</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8534.666623</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>3000</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>500</v>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>45706</v>
+      </c>
+      <c r="D38" s="7" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>39287.053377</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45669.03</v>
+      </c>
+      <c r="F38" s="7" t="n">
+        <f aca="false">E38-D38</f>
+        <v>6381.976623</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2338,52 +2352,191 @@
         <v>-7303.65</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="8" t="n">
+    <row r="199" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="5" t="n">
         <v>45688</v>
       </c>
       <c r="B199" s="2" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="8" t="n">
+    <row r="200" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="5" t="n">
         <v>45689</v>
       </c>
       <c r="B200" s="2" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="8" t="n">
+    <row r="201" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="5" t="n">
         <v>45689</v>
       </c>
       <c r="B201" s="2" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="8" t="n">
+    <row r="202" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="5" t="n">
         <v>45689</v>
       </c>
       <c r="B202" s="2" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="8" t="n">
+    <row r="203" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="5" t="n">
         <v>45690</v>
       </c>
       <c r="B203" s="2" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="8" t="n">
+    <row r="204" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="5" t="n">
         <v>45690</v>
       </c>
       <c r="B204" s="2" t="n">
         <v>49</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="8" t="n">
+        <v>45697</v>
+      </c>
+      <c r="B205" s="2" t="n">
+        <f aca="false">-1007*7.3</f>
+        <v>-7351.1</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="8" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B206" s="2" t="n">
+        <f aca="false">-12.35691*7.3</f>
+        <v>-90.205443</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="8" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B207" s="2" t="n">
+        <f aca="false">-500*7.3</f>
+        <v>-3650</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="8" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="8" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="8" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="8" t="n">
+        <v>45696</v>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="8" t="n">
+        <v>45697</v>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="8" t="n">
+        <v>45697</v>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="8" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="8" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="8" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="8" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="8" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="8" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="8" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="8" t="n">
+        <v>45704</v>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -2408,10 +2561,10 @@
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
